--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -1,58 +1,707 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
+  </bookViews>
   <sheets>
     <sheet name="en-US" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sourceValue</t>
+  </si>
+  <si>
+    <t>targetValue</t>
+  </si>
+  <si>
+    <t>LanguageTag</t>
+  </si>
+  <si>
+    <t>zh-Hans-CN</t>
+  </si>
+  <si>
+    <t>en-US</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>加载中……</t>
+  </si>
+  <si>
+    <t>Loading...</t>
+  </si>
+  <si>
+    <t>GameName</t>
+  </si>
+  <si>
+    <t>即时战略指挥</t>
+  </si>
+  <si>
+    <t>RTS Command</t>
+  </si>
+  <si>
+    <t>MainSvr</t>
+  </si>
+  <si>
+    <t>登录正式服</t>
+  </si>
+  <si>
+    <t>Main Svr</t>
+  </si>
+  <si>
+    <t>TestSvr</t>
+  </si>
+  <si>
+    <t>登录测试服</t>
+  </si>
+  <si>
+    <t>Test Svr</t>
+  </si>
+  <si>
+    <t>urlNotice</t>
+  </si>
+  <si>
+    <t>即时战略指挥公告/公告.txt</t>
+  </si>
+  <si>
+    <t>即时战略指挥公告/公告英文.txt</t>
+  </si>
+  <si>
+    <t>urlNoticeLeft</t>
+  </si>
+  <si>
+    <t>即时战略指挥公告/公告左.txt</t>
+  </si>
+  <si>
+    <t>即时战略指挥公告/公告左英文.txt</t>
+  </si>
+  <si>
+    <t>JianKangYouXiZhongDao</t>
+  </si>
+  <si>
+    <t>健康游戏忠告
+抵制不良游戏，拒绝盗版游戏。注意自我保护，谨防受骗上当。
+适度游戏益脑，沉迷游戏伤身。合理安排时间，享受健康生活。</t>
+  </si>
+  <si>
+    <t>Healthy Gaming Tips
+Resist harmful games, reject piracy.Stay vigilant, avoid scams.
+Moderation boosts cognition; addiction harms health.Manage time well, live healthily</t>
+  </si>
+  <si>
+    <t>DuoWanJiaHunZhan</t>
+  </si>
+  <si>
+    <t>多玩家混战
+&lt;size=10&gt;玩家互为敌对阵营&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Free-for-all
+&lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>LeaveScene</t>
+  </si>
+  <si>
+    <t>离开场景</t>
+  </si>
+  <si>
+    <t>Leave
+Scene</t>
+  </si>
+  <si>
+    <t>InputChat</t>
+  </si>
+  <si>
+    <t>输入聊天</t>
+  </si>
+  <si>
+    <t>Chat here ...</t>
+  </si>
+  <si>
+    <t>ChatHistory</t>
+  </si>
+  <si>
+    <t>聊天历史记录</t>
+  </si>
+  <si>
+    <t>Chat History</t>
+  </si>
+  <si>
+    <t>GameStrategy</t>
+  </si>
+  <si>
+    <t>游戏攻略</t>
+  </si>
+  <si>
+    <t>Game Guide</t>
+  </si>
+  <si>
+    <t>urlGameStrategy</t>
+  </si>
+  <si>
+    <t>即时战略指挥攻略/帮助.txt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即时战略指挥攻略/帮助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英文</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+  </si>
+  <si>
+    <t>ConnectSuccess</t>
+  </si>
+  <si>
+    <t>连接成功，请等待登录结果……</t>
+  </si>
+  <si>
+    <t>Connection successful. Please wait for the login result...</t>
+  </si>
+  <si>
+    <t>Connecting</t>
+  </si>
+  <si>
+    <t>正在连接'</t>
+  </si>
+  <si>
+    <t>Connecting...</t>
+  </si>
+  <si>
+    <t>ConnectError</t>
+  </si>
+  <si>
+    <t>连接错误，您可以再试一次</t>
+  </si>
+  <si>
+    <t>Connection error. You may try again.</t>
+  </si>
+  <si>
+    <t>ConnectClosed</t>
+  </si>
+  <si>
+    <t>连接已断开，已回到登录场景</t>
+  </si>
+  <si>
+    <t>Connection lost, returned to the login scene.</t>
+  </si>
+  <si>
+    <t>PleaseInputNickname</t>
+  </si>
+  <si>
+    <t>请输入昵称（随便什么都可以）</t>
+  </si>
+  <si>
+    <t>Please enter a nickname (anything is acceptable).</t>
+  </si>
+  <si>
+    <t>SceneLoaded</t>
+  </si>
+  <si>
+    <t>场景加载完成！</t>
+  </si>
+  <si>
+    <t>Scene loading complete!</t>
+  </si>
+  <si>
+    <t>CountConfigFileDownloading</t>
+  </si>
+  <si>
+    <t>个配置文件正在下载中，请稍后再试</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> configuration files are being downloaded. Please try again later.</t>
+  </si>
+  <si>
+    <t>ContributorsList</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;音乐：&lt;/b&gt;EinhornN7獬羽柏(QQ 2990490699)、乌鸦Producer(QQ 2998975740)、电波暴击(QQ 1106551898)
+&lt;b&gt;首页底图：&lt;/b&gt;不问清阴(QQ 3969340418) &lt;b&gt;关卡：&lt;/b&gt;阳光下的一个虾(QQ 1179331661)
+&lt;b&gt;3D模型：&lt;/b&gt;TripoAI、混元AI &lt;b&gt;抠图：&lt;/b&gt;豆包AI &lt;b&gt;地面纹理：&lt;/b&gt;夸克AI、豆包AI
+&lt;b&gt;头像图片：&lt;/b&gt;文小言AI &lt;b&gt;音乐：&lt;/b&gt;SunoAI &lt;b&gt;辅助编程：&lt;/b&gt;通义灵码AI、CusorAI
+&lt;b&gt;绑定/动作：&lt;/b&gt;苽禾(QQ 3223213062)、mixamo.com
+&lt;b&gt;绑定/动作：&lt;/b&gt;小白阿姨(QQ 3276812319)、九里庆安(QQ 284102069)
+&lt;b&gt;绑定/动作：&lt;/b&gt;大呲花(QQ 3029823814)、恒(QQ 2682677034)
+&lt;b&gt;绑定/动作：&lt;/b&gt;天涳の翼(QQ 349070005)、适中(QQ 1136976220)
+&lt;b&gt;绑定/动作：&lt;/b&gt;哈哈哈哈(QQ 2517969872)、一方狂三(QQ 1256604813)
+&lt;b&gt;模型/动作：&lt;/b&gt;⊹꙳ ˶˙ᵕ˙˶ ⊹꙳(QQ 2104435032)、&lt;color=#a0ff50&gt;荧瞳(QQ 287859992)、荒野乱斗(QQ 2930801690)&lt;/color&gt;
+&lt;b&gt;语音：&lt;/b&gt;无梦(QQ 1744500392)、水薄荷(QQ 1982131539)
+&lt;b&gt;语音：&lt;/b&gt;若有道心(QQ 1602576119)、潭(QQ 1514475926)、&lt;color=#a0ff50&gt;凌枭(QQ 2862703087)&lt;/color&gt;
+&lt;b&gt;程序：&lt;/b&gt;火凤凰(QQ 75187631)、&lt;color=#a0ff50&gt;江沉晚吟时(QQ 3380125833)&lt;/color&gt;
+&lt;b&gt;程序：&lt;/b&gt;庄园(QQ 2516080307)、kunnka(QQ 954436840)、樱木花道(QQ 251949672)
+&lt;b&gt;游戏引擎：&lt;/b&gt;Cocos Creator 3.8</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Music:&lt;/b&gt; EinhornN7 Xie Yubo (QQ 2990490699), Wuya Producer (QQ 2998975740), Dianbo Baoji (QQ 1106551898)
+&lt;b&gt;Homepage Background:&lt;/b&gt; Bu Wen Qing Yin (QQ 3969340418) &lt;b&gt;Levels:&lt;/b&gt; A Shrimp Under the Sun (QQ 1179331661)
+&lt;b&gt;3D Models:&lt;/b&gt; TripoAI, Hunyuan AI &lt;b&gt;Image Matting:&lt;/b&gt; Doubao AI &lt;b&gt;Ground Textures:&lt;/b&gt; Quark AI, Doubao AI
+&lt;b&gt;Avatar Images:&lt;/b&gt; Wen Xiaoyan AI &lt;b&gt;Music:&lt;/b&gt; SunoAI &lt;b&gt;Assisted Programming:&lt;/b&gt; Tongyi Lingma AI, Cursor AI
+&lt;b&gt;Rigging/Animation:&lt;/b&gt; Gu He (QQ 3223213062), mixamo.com
+&lt;b&gt;Rigging/Animation:&lt;/b&gt; Xiao Bai Ayi (QQ 3276812319), Jiu Li Qing An (QQ 284102069)
+&lt;b&gt;Rigging/Animation:&lt;/b&gt; Da Ci Hua (QQ 3029823814), Heng (QQ 2682677034)
+&lt;b&gt;Rigging/Animation:&lt;/b&gt; Tian Kong Zhi Yi (QQ 349070005), Shi Zhong (QQ 1136976220)
+&lt;b&gt;Rigging/Animation:&lt;/b&gt; Hahaha (QQ 2517969872), Yi Fang Kuang San (QQ 1256604813)
+&lt;b&gt;Models/Animation:&lt;/b&gt; ⊹꙳ ˶˙ᵕ˙˶ ⊹꙳ (QQ 2104435032), &lt;color=#a0ff50&gt;Ying Tong (QQ 287859992), Brawl Stars (QQ 2930801690)&lt;/color&gt;
+&lt;b&gt;Voice Acting:&lt;/b&gt; Wu Meng (QQ 1744500392), Shui Bo He (QQ 1982131539)
+&lt;b&gt;Voice Acting:&lt;/b&gt; Ruo You Dao Xin (QQ 1602576119), Tan (QQ 1514475926), &lt;color=#a0ff50&gt;Ling Xiao (QQ 2862703087)&lt;/color&gt;
+&lt;b&gt;Programming:&lt;/b&gt; Huo Fenghuang (QQ 75187631), &lt;color=#a0ff50&gt;Jiang Chen Wan Yin Shi (QQ 3380125833)&lt;/color&gt;
+&lt;b&gt;Programming:&lt;/b&gt; Zhuang Yuan (QQ 2516080307), kunnka (QQ 954436840), Sakuragi Hanamichi (QQ 251949672)
+&lt;b&gt;Game Engine:&lt;/b&gt; Cocos Creator 3.8</t>
+  </si>
+  <si>
+    <t>InputNickName</t>
+  </si>
+  <si>
+    <t>输入昵称……</t>
+  </si>
+  <si>
+    <t>Enter nickname…</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +709,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,80 +1347,299 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="161.75" customWidth="1"/>
+    <col min="3" max="3" width="138.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>sourceValue</v>
-      </c>
-      <c r="C1" t="str">
-        <v>targetValue</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>LanguageTag</v>
-      </c>
-      <c r="B2" t="str">
-        <v>zh-Hans-CN</v>
-      </c>
-      <c r="C2" t="str">
-        <v>en-US</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>GameName</v>
-      </c>
-      <c r="B3" t="str">
-        <v>即时战略指挥</v>
-      </c>
-      <c r="C3" t="str">
-        <v>RTS Command</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>MainSvr</v>
-      </c>
-      <c r="B4" t="str">
-        <v>登录正式服</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Main Svr</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>TestSvr</v>
-      </c>
-      <c r="B5" t="str">
-        <v>登录测试服</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Test Svr</v>
-      </c>
-    </row>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="42.75" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="215.25" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C15" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
   <si>
     <t>key</t>
   </si>
@@ -133,6 +133,15 @@
   <si>
     <t>Leave
 Scene</t>
+  </si>
+  <si>
+    <t>RenZaiXian</t>
+  </si>
+  <si>
+    <t>人在线</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> players online</t>
   </si>
   <si>
     <t>InputChat</t>
@@ -310,6 +319,296 @@
   <si>
     <t>Enter nickname…</t>
   </si>
+  <si>
+    <t>SinglePlayerBattle</t>
+  </si>
+  <si>
+    <t>单玩家战局
+&lt;size=15&gt;新手训练、防守、攻坚、中央防守&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Single-player Modes
+&lt;size=10&gt;Newbie Training, Defense, Assault, Central Defense&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>MultiPlayerBattle</t>
+  </si>
+  <si>
+    <t>多玩家战局
+&lt;size=15&gt;混战、四方对战、一打一&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Multi-player Modes
+&lt;size=15&gt;Free-for-all, 4-way Battle, 1v1 Duel&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>MusicGallery</t>
+  </si>
+  <si>
+    <t>音乐鉴赏
+&lt;size=12&gt;曲名、作者、版权&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Music Gallery
+&lt;size=9&gt;Song Name, Composer, Copyright&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>BackToPreMenu</t>
+  </si>
+  <si>
+    <t>返回上一级</t>
+  </si>
+  <si>
+    <t>Return to Previous Level</t>
+  </si>
+  <si>
+    <t>CopyRightSuno</t>
+  </si>
+  <si>
+    <t>版权归Suno和提示词作者共有，使用权开放给所有人。</t>
+  </si>
+  <si>
+    <t>Copyright is jointly owned by Suno and the prompt author; usage rights are open to all.</t>
+  </si>
+  <si>
+    <t>CopyRightFree</t>
+  </si>
+  <si>
+    <t>版权归作者所有，通知作者后可共享商用（强制署名）。</t>
+  </si>
+  <si>
+    <t>Copyright is owned by the author; commercial sharing is permitted after notifying the author (attribution is mandatory).</t>
+  </si>
+  <si>
+    <t>AuthorSuno</t>
+  </si>
+  <si>
+    <t>Suno AI、提示词作者</t>
+  </si>
+  <si>
+    <t>Suno AI, Prompt Author</t>
+  </si>
+  <si>
+    <t>AuthorWuYaProducer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌鸦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Producer(QQ 2998975740)</t>
+    </r>
+  </si>
+  <si>
+    <t>Wuya Producer (QQ 2998975740)</t>
+  </si>
+  <si>
+    <t>AuthorXieYuBai</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>EinhornN7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>獬羽柏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(QQ 2990490699)</t>
+    </r>
+  </si>
+  <si>
+    <t>EinhornN7 Xie Yubo (QQ 2990490699)</t>
+  </si>
+  <si>
+    <t>AuthorDianBoBaoji</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电波暴击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(QQ 1106551898)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dianbo Baoji (QQ 1106551898)</t>
+  </si>
+  <si>
+    <t>MusicShiJieYouHuiFuLeHePing</t>
+  </si>
+  <si>
+    <t>世界又恢复了和平</t>
+  </si>
+  <si>
+    <t>Peace has returned to the world</t>
+  </si>
+  <si>
+    <t>MusicShiJieYouHuiFuLeHePing2</t>
+  </si>
+  <si>
+    <t>世界又恢复了和平2</t>
+  </si>
+  <si>
+    <t>Peace has returned to the world 2</t>
+  </si>
+  <si>
+    <t>MusicZhanXianBengKui</t>
+  </si>
+  <si>
+    <t>战线崩溃</t>
+  </si>
+  <si>
+    <t>Frontline Collapse</t>
+  </si>
+  <si>
+    <t>MusicShanJiZhan</t>
+  </si>
+  <si>
+    <t>闪击战</t>
+  </si>
+  <si>
+    <t>Blitzkrieg</t>
+  </si>
+  <si>
+    <t>MusicHouQinYunYing</t>
+  </si>
+  <si>
+    <t>后勤运营</t>
+  </si>
+  <si>
+    <t>Logistics Operation</t>
+  </si>
+  <si>
+    <t>MusicZhongGongYeLangMan</t>
+  </si>
+  <si>
+    <t>重工业浪漫</t>
+  </si>
+  <si>
+    <t>Heavy Industry Romance</t>
+  </si>
+  <si>
+    <t>MusicYuanJunDaoDaZhanChang</t>
+  </si>
+  <si>
+    <t>援军到达战场</t>
+  </si>
+  <si>
+    <t>Reinforcements Have Arrived on the Battlefield</t>
+  </si>
+  <si>
+    <t>MusicDingJv</t>
+  </si>
+  <si>
+    <t>定居</t>
+  </si>
+  <si>
+    <t>Settle Down</t>
+  </si>
+  <si>
+    <t>MusicPiaoBo</t>
+  </si>
+  <si>
+    <t>漂泊</t>
+  </si>
+  <si>
+    <t>Wander</t>
+  </si>
+  <si>
+    <t>MusicSampleKiller</t>
+  </si>
+  <si>
+    <t>Sample Killer</t>
+  </si>
+  <si>
+    <t>MusicFollowTheLight</t>
+  </si>
+  <si>
+    <t>Follow The Light</t>
+  </si>
+  <si>
+    <t>MusicDesert</t>
+  </si>
+  <si>
+    <t>Desert</t>
+  </si>
+  <si>
+    <t>MusicXingLian</t>
+  </si>
+  <si>
+    <t>星联</t>
+  </si>
+  <si>
+    <t>Star Alliance</t>
+  </si>
+  <si>
+    <t>MusicSpaceLight</t>
+  </si>
+  <si>
+    <t>Space Fight</t>
+  </si>
+  <si>
+    <t>MusicName</t>
+  </si>
+  <si>
+    <t>曲名</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>MusicAuthor</t>
+  </si>
+  <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>MusicCopyright</t>
+  </si>
+  <si>
+    <t>版权</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +620,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -355,6 +654,41 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -810,155 +1144,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -968,6 +1303,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1353,15 +1717,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
     <col min="2" max="2" width="161.75" customWidth="1"/>
     <col min="3" max="3" width="138.625" customWidth="1"/>
   </cols>
@@ -1458,10 +1822,10 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1483,7 +1847,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1524,10 +1888,10 @@
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1535,10 +1899,10 @@
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1564,25 +1928,25 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:3">
-      <c r="A19" s="2" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="2" customFormat="1" spans="1:3">
+      <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1608,33 +1972,340 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="215.25" spans="1:3">
+    <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
+    <row r="24" s="1" customFormat="1" ht="215.25" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1"/>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" ht="28.5" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" ht="28.5" spans="1:3">
+      <c r="A28" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:3">
+      <c r="A29" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:3">
+      <c r="A30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:3">
+      <c r="A32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A33" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:3">
+      <c r="A49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C15" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
+    <hyperlink ref="B16" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C16" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
   <si>
     <t>key</t>
   </si>
@@ -117,12 +117,67 @@
     <t>DuoWanJiaHunZhan</t>
   </si>
   <si>
-    <t>多玩家混战
-&lt;size=10&gt;玩家互为敌对阵营&lt;/size&gt;</t>
+    <t>多  玩  家  混  战
+&lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
   </si>
   <si>
     <t>Free-for-all
 &lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>DuoWanJiaHunZhan_ShaMo</t>
+  </si>
+  <si>
+    <t>多玩家混战（沙漠）
+&lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Multiplayer FFA (Desert)
+&lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>YiDaYi</t>
+  </si>
+  <si>
+    <t>一打一（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>1v1 (You're the Host)
+&lt;size=10&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>ZhongYangFangShou_WanJiaHeZuo</t>
+  </si>
+  <si>
+    <t>中央防守 玩家合作（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Central Defense - Co-op (You're the Host)
+&lt;size=10&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>JiaRuDuoRenZhanJu</t>
+  </si>
+  <si>
+    <t>加入其他玩家创建的多人战局
+&lt;size=12&gt;挑战其他玩家&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Join Other Players' Multiplayer Matches
+&lt;size=12&gt;Challenge other players!&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>SiFangDuiZhan</t>
+  </si>
+  <si>
+    <t>四方对战（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>4-Way Battle (Host)
+&lt;size=12&gt;Others may join your match. Match ends when you leave.&lt;/size&gt;</t>
   </si>
   <si>
     <t>LeaveScene</t>
@@ -609,6 +664,42 @@
   <si>
     <t>Copyright</t>
   </si>
+  <si>
+    <t>PangGuanBieRen</t>
+  </si>
+  <si>
+    <t>旁观其他玩家的战局</t>
+  </si>
+  <si>
+    <t>Spectate other players' matches</t>
+  </si>
+  <si>
+    <t>PaiHangBang</t>
+  </si>
+  <si>
+    <t>排行榜</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>RenLei</t>
+  </si>
+  <si>
+    <t>人类</t>
+  </si>
+  <si>
+    <t>Humans</t>
+  </si>
+  <si>
+    <t>ChongZu</t>
+  </si>
+  <si>
+    <t>虫族</t>
+  </si>
+  <si>
+    <t>Insectoids</t>
+  </si>
 </sst>
 </file>
 
@@ -635,31 +726,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FFE394DC"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1159,7 +1250,7 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1289,7 +1380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1297,17 +1388,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1327,13 +1421,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1717,10 +1805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -1829,14 +1917,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+    <row r="10" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1844,65 +1932,65 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
+    <row r="12" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
+    <row r="13" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
+    <row r="14" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="1" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
+    <row r="16" s="1" customFormat="1" ht="28.5" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1939,14 +2027,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:3">
-      <c r="A20" s="2" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1954,10 +2042,10 @@
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1983,135 +2071,135 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="215.25" spans="1:3">
+    <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
+    <row r="25" s="2" customFormat="1" spans="1:3">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A26" s="9" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" ht="28.5" spans="1:3">
-      <c r="A27" s="9" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:3">
-      <c r="A28" s="9" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:3">
-      <c r="A29" s="11" t="s">
+    <row r="29" s="1" customFormat="1" ht="215.25" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:3">
-      <c r="A30" s="3" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:3">
-      <c r="A31" s="3" t="s">
+    <row r="31" customFormat="1" ht="28.5" spans="1:3">
+      <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:3">
-      <c r="A32" s="14" t="s">
+    <row r="32" ht="28.5" spans="1:3">
+      <c r="A32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A33" s="14" t="s">
+    <row r="33" ht="28.5" spans="1:3">
+      <c r="A33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="3" customFormat="1" spans="1:3">
+      <c r="A34" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" ht="17.25" spans="1:3">
+    <row r="35" s="3" customFormat="1" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2119,54 +2207,54 @@
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:3">
-      <c r="A38" s="3" t="s">
+    <row r="38" s="3" customFormat="1" ht="17.25" spans="1:3">
+      <c r="A38" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:3">
+    <row r="39" s="3" customFormat="1" ht="17.25" spans="1:3">
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:3">
+    <row r="40" s="3" customFormat="1" ht="17.25" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2174,10 +2262,10 @@
       <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2185,10 +2273,10 @@
       <c r="A42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2196,10 +2284,10 @@
       <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="13" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2207,10 +2295,10 @@
       <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2218,99 +2306,198 @@
       <c r="A45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>133</v>
+      <c r="C45" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" s="3" customFormat="1" spans="1:3">
       <c r="A46" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B46" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>135</v>
+      <c r="B46" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="47" s="3" customFormat="1" spans="1:3">
       <c r="A47" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" spans="1:3">
       <c r="A48" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" s="3" customFormat="1" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
         <v>144</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="B49" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="19" t="s">
+      <c r="C49" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:3">
+      <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="B50" s="14" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="19" t="s">
+      <c r="C50" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:3">
+      <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B51" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C51" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:3">
+      <c r="A52" s="3" t="s">
         <v>151</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:3">
+      <c r="A53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:3">
+      <c r="A54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C16" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
+    <hyperlink ref="B21" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C21" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="228">
   <si>
     <t>key</t>
   </si>
@@ -699,6 +699,153 @@
   </si>
   <si>
     <t>Insectoids</t>
+  </si>
+  <si>
+    <t>DanWeiJieShao_Ren</t>
+  </si>
+  <si>
+    <t>单位介绍（人）</t>
+  </si>
+  <si>
+    <t>Unit Introduction (Human)</t>
+  </si>
+  <si>
+    <t>FanKongJiangZhan_Ren</t>
+  </si>
+  <si>
+    <t>反空降战（人）</t>
+  </si>
+  <si>
+    <t>Anti-Airborne Warfare (Human)</t>
+  </si>
+  <si>
+    <t>FangKongZhan_Ren</t>
+  </si>
+  <si>
+    <t>防空战（人）</t>
+  </si>
+  <si>
+    <t>Anti-Air Warfare (Human)</t>
+  </si>
+  <si>
+    <t>QiangBingDanTiaoTanKe_Ren</t>
+  </si>
+  <si>
+    <t>枪兵单挑坦克（人）</t>
+  </si>
+  <si>
+    <t>Rifleman vs. Tank (Human)</t>
+  </si>
+  <si>
+    <t>CaiJi_JianZao_ZhanDou_Ren</t>
+  </si>
+  <si>
+    <t>采集、建造、战斗（人）</t>
+  </si>
+  <si>
+    <t>Harvest, Build, Combat (Human)</t>
+  </si>
+  <si>
+    <t>FangShouZhan_Ren</t>
+  </si>
+  <si>
+    <t>防守战（人）</t>
+  </si>
+  <si>
+    <t>Defense Warfare (Human)</t>
+  </si>
+  <si>
+    <t>GongJianZhan_Ren</t>
+  </si>
+  <si>
+    <t>攻坚战（人）</t>
+  </si>
+  <si>
+    <t>Assault Warfare (Human)</t>
+  </si>
+  <si>
+    <t>ZhonYangFangShou_Ren</t>
+  </si>
+  <si>
+    <t>中央防守（人）</t>
+  </si>
+  <si>
+    <t>Central Defense (Human)</t>
+  </si>
+  <si>
+    <t>DanWeiJieShao_Chong</t>
+  </si>
+  <si>
+    <t>单位介绍（虫）</t>
+  </si>
+  <si>
+    <t>Unit Introduction (Insectoids)</t>
+  </si>
+  <si>
+    <t>KongJiangZhan_Chong</t>
+  </si>
+  <si>
+    <t>空降战（虫）</t>
+  </si>
+  <si>
+    <t>Airborne Warfare (Insectoids)</t>
+  </si>
+  <si>
+    <t>FanFangKongZhan_Chong</t>
+  </si>
+  <si>
+    <t>反防空战（虫）</t>
+  </si>
+  <si>
+    <t>Anti-Anti-Air Warfare (Insectoids)</t>
+  </si>
+  <si>
+    <t>FeiChongDanTiaoPaoTai_Chong</t>
+  </si>
+  <si>
+    <t>飞虫单挑炮台（虫）</t>
+  </si>
+  <si>
+    <t>Flying Insectoids vs. Turret (Insectoids)</t>
+  </si>
+  <si>
+    <t>CaiJi_JianZao_ZhanDou_Chong</t>
+  </si>
+  <si>
+    <t>采集、建造、战斗（虫）</t>
+  </si>
+  <si>
+    <t>Harvest, Build, Combat (Insectoids)</t>
+  </si>
+  <si>
+    <t>FangShouZHan_Chong</t>
+  </si>
+  <si>
+    <t>防守战（虫）</t>
+  </si>
+  <si>
+    <t>Defense Warfare (Insectoids)</t>
+  </si>
+  <si>
+    <t>GongJianZhan_Chong</t>
+  </si>
+  <si>
+    <t>攻坚战（虫）</t>
+  </si>
+  <si>
+    <t>Assault Warfare (Insectoids)</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>赢</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>输</t>
   </si>
 </sst>
 </file>
@@ -1399,9 +1546,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1422,6 +1566,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1805,10 +1952,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2149,46 +2296,46 @@
       </c>
     </row>
     <row r="31" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" ht="28.5" spans="1:3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2196,10 +2343,10 @@
       <c r="A35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2207,32 +2354,32 @@
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2240,10 +2387,10 @@
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2251,10 +2398,10 @@
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2262,10 +2409,10 @@
       <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2273,10 +2420,10 @@
       <c r="A42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2284,10 +2431,10 @@
       <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2295,10 +2442,10 @@
       <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2306,10 +2453,10 @@
       <c r="A45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2317,10 +2464,10 @@
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2328,10 +2475,10 @@
       <c r="A47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2339,10 +2486,10 @@
       <c r="A48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2350,10 +2497,10 @@
       <c r="A49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2361,10 +2508,10 @@
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2372,10 +2519,10 @@
       <c r="A51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2383,10 +2530,10 @@
       <c r="A52" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2394,10 +2541,10 @@
       <c r="A53" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2405,43 +2552,43 @@
       <c r="A54" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B57" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2452,7 +2599,7 @@
       <c r="B58" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="17" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2463,7 +2610,7 @@
       <c r="B59" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2474,7 +2621,7 @@
       <c r="B60" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="17" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2485,8 +2632,195 @@
       <c r="B61" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>192</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>197</v>
+      </c>
+      <c r="B68" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="291">
   <si>
     <t>key</t>
   </si>
@@ -846,6 +846,208 @@
   </si>
   <si>
     <t>输</t>
+  </si>
+  <si>
+    <t>KuangXuan</t>
+  </si>
+  <si>
+    <t>框选</t>
+  </si>
+  <si>
+    <t>Box Selection</t>
+  </si>
+  <si>
+    <t>JianZhuDanWei</t>
+  </si>
+  <si>
+    <t>建筑单位</t>
+  </si>
+  <si>
+    <t>Construction
+Unit</t>
+  </si>
+  <si>
+    <t>HuoDongDanWei</t>
+  </si>
+  <si>
+    <t>活动单位</t>
+  </si>
+  <si>
+    <t>Mobile
+Unit</t>
+  </si>
+  <si>
+    <t>KongXianGongChengCheGongChong</t>
+  </si>
+  <si>
+    <t>空闲
+工程车
+工虫</t>
+  </si>
+  <si>
+    <t>Idle
+Engineer Vehicle
+Drone</t>
+  </si>
+  <si>
+    <t>QuanBuZhanDouDanWei</t>
+  </si>
+  <si>
+    <t>全部
+  战斗单位</t>
+  </si>
+  <si>
+    <t>All
+Combat Units</t>
+  </si>
+  <si>
+    <t>ZhanBao</t>
+  </si>
+  <si>
+    <t>战报</t>
+  </si>
+  <si>
+    <t>Battle Report</t>
+  </si>
+  <si>
+    <t>SunShiDanWeiPaiHang</t>
+  </si>
+  <si>
+    <t>损失单位排行</t>
+  </si>
+  <si>
+    <t>Loss Ranking</t>
+  </si>
+  <si>
+    <t>JiBaiDanWeiPaiHang</t>
+  </si>
+  <si>
+    <t>击败单位排行</t>
+  </si>
+  <si>
+    <t>Destruction Ranking</t>
+  </si>
+  <si>
+    <t>JiDi</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>MinFang</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>Civilian
+Building</t>
+  </si>
+  <si>
+    <t>BingYing</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>DiBao</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>Bunker</t>
+  </si>
+  <si>
+    <t>PaoTai</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>Turret</t>
+  </si>
+  <si>
+    <t>ZhongCheChang</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>Heavy Vehicle Factory</t>
+  </si>
+  <si>
+    <t>JiChang</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>Airfield</t>
+  </si>
+  <si>
+    <t>FangDun</t>
+  </si>
+  <si>
+    <t>方墩</t>
+  </si>
+  <si>
+    <t>Square Pillbox</t>
+  </si>
+  <si>
+    <t>ChongChao</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
+    <t>ChongYing</t>
+  </si>
+  <si>
+    <t>虫营</t>
+  </si>
+  <si>
+    <t>Insectoid Barracks</t>
+  </si>
+  <si>
+    <t>NiTaiYuan</t>
+  </si>
+  <si>
+    <t>拟态源</t>
+  </si>
+  <si>
+    <t>Mimicry Source</t>
+  </si>
+  <si>
+    <t>FeiTa</t>
+  </si>
+  <si>
+    <t>飞
+塔</t>
+  </si>
+  <si>
+    <t>Flying
+Tower</t>
+  </si>
+  <si>
+    <t>TaiSui</t>
+  </si>
+  <si>
+    <t>太
+岁</t>
+  </si>
+  <si>
+    <t>Tai-
+sui</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1568,6 +1770,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1952,10 +2160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C48" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77:C78"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2823,6 +3031,237 @@
         <v>226</v>
       </c>
     </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" ht="28.5" spans="1:3">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" t="s">
+        <v>232</v>
+      </c>
+      <c r="C80" s="19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" ht="28.5" spans="1:3">
+      <c r="A81" t="s">
+        <v>234</v>
+      </c>
+      <c r="B81" t="s">
+        <v>235</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" ht="42.75" spans="1:3">
+      <c r="A82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" ht="28.5" spans="1:3">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" t="s">
+        <v>244</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>249</v>
+      </c>
+      <c r="B86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" ht="28.5" spans="1:3">
+      <c r="A88" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>258</v>
+      </c>
+      <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>261</v>
+      </c>
+      <c r="B90" t="s">
+        <v>262</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" t="s">
+        <v>274</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>282</v>
+      </c>
+      <c r="B97" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="98" ht="28.5" spans="1:3">
+      <c r="A98" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" ht="28.5" spans="1:3">
+      <c r="A99" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="294">
   <si>
     <t>key</t>
   </si>
@@ -1048,6 +1048,15 @@
   <si>
     <t>Tai-
 sui</t>
+  </si>
+  <si>
+    <t>QuXiaoXuanZhong</t>
+  </si>
+  <si>
+    <t>取消选中</t>
+  </si>
+  <si>
+    <t>DeSelect</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1770,9 +1779,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2160,10 +2166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3247,7 +3253,7 @@
       <c r="B98" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="19" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3258,8 +3264,19 @@
       <c r="B99" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="19" t="s">
         <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3270,7 +3287,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="297">
   <si>
     <t>key</t>
   </si>
@@ -1057,6 +1057,15 @@
   </si>
   <si>
     <t>DeSelect</t>
+  </si>
+  <si>
+    <t>DeZhanJv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 的战局</t>
+  </si>
+  <si>
+    <t>'s matches</t>
   </si>
 </sst>
 </file>
@@ -1783,6 +1792,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2166,10 +2176,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
+    <sheetView tabSelected="1" topLeftCell="C78" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3279,6 +3289,17 @@
         <v>293</v>
       </c>
     </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B21" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="315">
   <si>
     <t>key</t>
   </si>
@@ -863,8 +863,7 @@
     <t>建筑单位</t>
   </si>
   <si>
-    <t>Construction
-Unit</t>
+    <t>Construction Unit</t>
   </si>
   <si>
     <t>HuoDongDanWei</t>
@@ -873,8 +872,7 @@
     <t>活动单位</t>
   </si>
   <si>
-    <t>Mobile
-Unit</t>
+    <t>Mobile Unit</t>
   </si>
   <si>
     <t>KongXianGongChengCheGongChong</t>
@@ -1066,6 +1064,60 @@
   </si>
   <si>
     <t>'s matches</t>
+  </si>
+  <si>
+    <t>JingTiKuang</t>
+  </si>
+  <si>
+    <t>晶体矿</t>
+  </si>
+  <si>
+    <t>Crysta</t>
+  </si>
+  <si>
+    <t>RanQiKuang</t>
+  </si>
+  <si>
+    <t>燃气矿</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>YiKaiShiKuangXuanQingTuoDongHouFangKai</t>
+  </si>
+  <si>
+    <t>已开始框选，请拖动后放开</t>
+  </si>
+  <si>
+    <t>Box selection initiated. Please drag and release.</t>
+  </si>
+  <si>
+    <t>YiTuiChuKuangXuanZhuangTai</t>
+  </si>
+  <si>
+    <t>已退出框选状态</t>
+  </si>
+  <si>
+    <t>Box selection mode exited.</t>
+  </si>
+  <si>
+    <t>QuXiao</t>
+  </si>
+  <si>
+    <t>取  消</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>QueDing</t>
+  </si>
+  <si>
+    <t>确 定</t>
+  </si>
+  <si>
+    <t>Confirm</t>
   </si>
 </sst>
 </file>
@@ -2176,15 +2228,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="161.75" customWidth="1"/>
     <col min="3" max="3" width="138.625" customWidth="1"/>
   </cols>
@@ -3058,7 +3110,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" ht="28.5" spans="1:3">
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>231</v>
       </c>
@@ -3069,7 +3121,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="81" ht="28.5" spans="1:3">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>234</v>
       </c>
@@ -3298,6 +3350,72 @@
       </c>
       <c r="C101" s="20" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C105" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>309</v>
+      </c>
+      <c r="B106" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>312</v>
+      </c>
+      <c r="B107" t="s">
+        <v>313</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="386">
   <si>
     <t>key</t>
   </si>
@@ -186,8 +186,7 @@
     <t>离开场景</t>
   </si>
   <si>
-    <t>Leave
-Scene</t>
+    <t>Leave Scene</t>
   </si>
   <si>
     <t>RenZaiXian</t>
@@ -197,6 +196,15 @@
   </si>
   <si>
     <t xml:space="preserve"> players online</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>Unit(s)</t>
   </si>
   <si>
     <t>InputChat</t>
@@ -923,7 +931,7 @@
     <t>击败单位排行</t>
   </si>
   <si>
-    <t>Destruction Ranking</t>
+    <t>Dest. Rank</t>
   </si>
   <si>
     <t>JiDi</t>
@@ -1118,6 +1126,255 @@
   </si>
   <si>
     <t>Confirm</t>
+  </si>
+  <si>
+    <t>QiangXingZou</t>
+  </si>
+  <si>
+    <t>强行走</t>
+  </si>
+  <si>
+    <t>Force Move</t>
+  </si>
+  <si>
+    <t>YuanDiJianShou</t>
+  </si>
+  <si>
+    <t>原地
+坚守</t>
+  </si>
+  <si>
+    <t>Hold
+Pos</t>
+  </si>
+  <si>
+    <t>GenSui</t>
+  </si>
+  <si>
+    <t>跟随</t>
+  </si>
+  <si>
+    <t>Follow</t>
+  </si>
+  <si>
+    <t>XunLuo</t>
+  </si>
+  <si>
+    <t>巡
+逻</t>
+  </si>
+  <si>
+    <t>Patrol</t>
+  </si>
+  <si>
+    <t>LiKaiDiBao</t>
+  </si>
+  <si>
+    <t>离开
+地堡</t>
+  </si>
+  <si>
+    <t>Exit
+Bunker</t>
+  </si>
+  <si>
+    <t>LiKaiFangChong</t>
+  </si>
+  <si>
+    <t>离开房虫</t>
+  </si>
+  <si>
+    <t>Exit Population Drone</t>
+  </si>
+  <si>
+    <t>JiJieDian</t>
+  </si>
+  <si>
+    <t>集结点</t>
+  </si>
+  <si>
+    <t>Rally Point</t>
+  </si>
+  <si>
+    <t>GongChengCheJiJieDian</t>
+  </si>
+  <si>
+    <t>工程车
+集结点</t>
+  </si>
+  <si>
+    <t>Constrctr
+Rally
+Point</t>
+  </si>
+  <si>
+    <t>GongChongJiJieDian</t>
+  </si>
+  <si>
+    <t>工虫
+集结点</t>
+  </si>
+  <si>
+    <t>Worker Larva
+Rally Point</t>
+  </si>
+  <si>
+    <t>FangChongJiJieDian</t>
+  </si>
+  <si>
+    <t>房虫
+集结点</t>
+  </si>
+  <si>
+    <t>Popl. Drone
+Rally Point</t>
+  </si>
+  <si>
+    <t>JieSuoJinZhanBing</t>
+  </si>
+  <si>
+    <t>解锁
+近战兵</t>
+  </si>
+  <si>
+    <t>Unlock
+Melee Infantry</t>
+  </si>
+  <si>
+    <t>JieSuoQiangChong</t>
+  </si>
+  <si>
+    <t>解锁
+枪虫</t>
+  </si>
+  <si>
+    <t>Unlock
+Rifle Bug</t>
+  </si>
+  <si>
+    <t>ShengJiQiangBingGongJi</t>
+  </si>
+  <si>
+    <t>升级
+枪兵
+攻击</t>
+  </si>
+  <si>
+    <t>Upgrade
+Rifleman
+Attack</t>
+  </si>
+  <si>
+    <t>ShengJiJinZhanBingFangYu</t>
+  </si>
+  <si>
+    <t>升级
+近战兵
+防御</t>
+  </si>
+  <si>
+    <t>Upgrade
+Melee Infantry
+Defense</t>
+  </si>
+  <si>
+    <t>ShengJiJinZhanChongGongJi</t>
+  </si>
+  <si>
+    <t>升级
+近战虫
+攻击</t>
+  </si>
+  <si>
+    <t>Upgrade
+Rifle Bug
+Defense</t>
+  </si>
+  <si>
+    <t>ShengJiQiangChongFangYu</t>
+  </si>
+  <si>
+    <t>升级
+枪虫
+防御</t>
+  </si>
+  <si>
+    <t>ShengJiTanKeYiSu</t>
+  </si>
+  <si>
+    <t>升级
+坦克
+移速</t>
+  </si>
+  <si>
+    <t>Upgrade Tank Move Speed</t>
+  </si>
+  <si>
+    <t>ShengJiFeiJiGongSu</t>
+  </si>
+  <si>
+    <t>升级
+飞机
+攻速</t>
+  </si>
+  <si>
+    <t>Upgrade
+Aircraft
+Attack Speed</t>
+  </si>
+  <si>
+    <t>ShengJiTanKeGongSu</t>
+  </si>
+  <si>
+    <t>升级
+坦克
+攻速</t>
+  </si>
+  <si>
+    <t>Upgrade
+Tank
+Attack Speed</t>
+  </si>
+  <si>
+    <t>ShengJiFeiChongYiSu</t>
+  </si>
+  <si>
+    <t>升级
+飞虫
+移速</t>
+  </si>
+  <si>
+    <t>Upgrade Flying Bug Move Speed</t>
+  </si>
+  <si>
+    <t>TaiSuiFenLie</t>
+  </si>
+  <si>
+    <t>太岁
+分裂</t>
+  </si>
+  <si>
+    <t>Taisui Split</t>
+  </si>
+  <si>
+    <t>ShanChuDanWei</t>
+  </si>
+  <si>
+    <t>删除
+单位</t>
+  </si>
+  <si>
+    <t>Delete
+Unit</t>
+  </si>
+  <si>
+    <t>ZaiKanKan</t>
+  </si>
+  <si>
+    <t>再看看</t>
+  </si>
+  <si>
+    <t>Close</t>
   </si>
 </sst>
 </file>
@@ -2228,10 +2485,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2406,7 +2663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="28.5" spans="1:3">
+    <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,10 +2722,10 @@
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2476,10 +2733,10 @@
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2505,25 +2762,25 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:3">
-      <c r="A25" s="2" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
+    <row r="26" s="2" customFormat="1" spans="1:3">
+      <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2549,40 +2806,40 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="215.25" spans="1:3">
+    <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
+    <row r="30" s="1" customFormat="1" ht="215.25" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A31" s="5" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" ht="28.5" spans="1:3">
+    <row r="32" customFormat="1" ht="28.5" spans="1:3">
       <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
@@ -2604,22 +2861,22 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:3">
-      <c r="A34" s="11" t="s">
+    <row r="34" ht="28.5" spans="1:3">
+      <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -2638,7 +2895,7 @@
       </c>
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -2648,11 +2905,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" ht="17.25" spans="1:3">
+    <row r="38" s="3" customFormat="1" spans="1:3">
       <c r="A38" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -2660,10 +2917,10 @@
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -2674,18 +2931,18 @@
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:3">
+    <row r="41" s="3" customFormat="1" ht="17.25" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -2788,37 +3045,37 @@
         <v>148</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" spans="1:3">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" s="3" customFormat="1" spans="1:3">
       <c r="A52" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" s="3" customFormat="1" spans="1:3">
       <c r="A53" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>155</v>
@@ -2832,17 +3089,17 @@
         <v>157</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:3">
+      <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2869,7 +3126,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B58" t="s">
@@ -2919,7 +3176,7 @@
       <c r="B62" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3084,30 +3341,30 @@
       <c r="B77" t="s">
         <v>225</v>
       </c>
-      <c r="C77" t="s">
-        <v>224</v>
+      <c r="C77" s="18" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" t="s">
         <v>227</v>
-      </c>
-      <c r="C78" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
         <v>229</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -3117,7 +3374,7 @@
       <c r="B80" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="17" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3132,18 +3389,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="82" ht="42.75" spans="1:3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>237</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="19" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="83" ht="28.5" spans="1:3">
+    <row r="83" ht="42.75" spans="1:3">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -3154,14 +3411,14 @@
         <v>242</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" ht="28.5" spans="1:3">
       <c r="A84" t="s">
         <v>243</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="10" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3198,25 +3455,25 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" ht="28.5" spans="1:3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>255</v>
       </c>
       <c r="B88" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="17" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" ht="28.5" spans="1:3">
       <c r="A89" t="s">
         <v>258</v>
       </c>
       <c r="B89" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="19" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3308,14 +3565,14 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" ht="28.5" spans="1:3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>285</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="17" t="s">
         <v>287</v>
       </c>
     </row>
@@ -3330,25 +3587,25 @@
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" ht="28.5" spans="1:3">
       <c r="A100" t="s">
         <v>291</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="19" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" t="s">
         <v>294</v>
       </c>
       <c r="B101" t="s">
         <v>295</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="17" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3359,7 +3616,7 @@
       <c r="B102" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="20" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3378,7 +3635,7 @@
       <c r="A104" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" t="s">
         <v>304</v>
       </c>
       <c r="C104" s="17" t="s">
@@ -3397,10 +3654,10 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>310</v>
       </c>
       <c r="C106" s="17" t="s">
@@ -3418,15 +3675,279 @@
         <v>314</v>
       </c>
     </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>315</v>
+      </c>
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>318</v>
+      </c>
+      <c r="B109" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="110" ht="28.5" spans="1:3">
+      <c r="A110" t="s">
+        <v>321</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" t="s">
+        <v>325</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" ht="28.5" spans="1:3">
+      <c r="A112" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="113" ht="28.5" spans="1:3">
+      <c r="A113" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>333</v>
+      </c>
+      <c r="B114" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>336</v>
+      </c>
+      <c r="B115" t="s">
+        <v>337</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" ht="42.75" spans="1:3">
+      <c r="A116" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" ht="28.5" spans="1:3">
+      <c r="A117" t="s">
+        <v>342</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="118" ht="28.5" spans="1:3">
+      <c r="A118" t="s">
+        <v>345</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="119" ht="28.5" spans="1:3">
+      <c r="A119" t="s">
+        <v>348</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="120" ht="28.5" spans="1:3">
+      <c r="A120" t="s">
+        <v>351</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="121" ht="42.75" spans="1:3">
+      <c r="A121" t="s">
+        <v>354</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" ht="42.75" spans="1:3">
+      <c r="A122" t="s">
+        <v>357</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="123" ht="42.75" spans="1:3">
+      <c r="A123" t="s">
+        <v>360</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="124" ht="42.75" spans="1:3">
+      <c r="A124" t="s">
+        <v>363</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="125" ht="42.75" spans="1:3">
+      <c r="A125" t="s">
+        <v>365</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="126" ht="42.75" spans="1:3">
+      <c r="A126" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" ht="42.75" spans="1:3">
+      <c r="A127" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" ht="42.75" spans="1:3">
+      <c r="A128" t="s">
+        <v>374</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" ht="28.5" spans="1:3">
+      <c r="A129" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" ht="28.5" spans="1:3">
+      <c r="A130" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>383</v>
+      </c>
+      <c r="B131" t="s">
+        <v>384</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>385</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C21" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
+    <hyperlink ref="B22" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
+    <hyperlink ref="C22" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="625">
   <si>
     <t>key</t>
   </si>
@@ -1376,6 +1376,723 @@
   <si>
     <t>Close</t>
   </si>
+  <si>
+    <t>GongJi</t>
+  </si>
+  <si>
+    <t>攻击</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>FangYu</t>
+  </si>
+  <si>
+    <t>防御</t>
+  </si>
+  <si>
+    <t>Defense</t>
+  </si>
+  <si>
+    <t>YiDongSuDu</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>Movement Speed</t>
+  </si>
+  <si>
+    <t>JingJieJvLi</t>
+  </si>
+  <si>
+    <t>警戒距离</t>
+  </si>
+  <si>
+    <t>Alert Range</t>
+  </si>
+  <si>
+    <t>GongJiJvLi</t>
+  </si>
+  <si>
+    <t>攻击距离</t>
+  </si>
+  <si>
+    <t>Attack Range</t>
+  </si>
+  <si>
+    <t>GongJiQianYao</t>
+  </si>
+  <si>
+    <t>攻击前摇</t>
+  </si>
+  <si>
+    <t>Attack Wind-up</t>
+  </si>
+  <si>
+    <t>GongJiHouYao</t>
+  </si>
+  <si>
+    <t>攻击后摇</t>
+  </si>
+  <si>
+    <t>Attack Wind-down</t>
+  </si>
+  <si>
+    <t>HaoMiao</t>
+  </si>
+  <si>
+    <t>毫秒</t>
+  </si>
+  <si>
+    <t>Millisecond</t>
+  </si>
+  <si>
+    <t>ChuShiHP</t>
+  </si>
+  <si>
+    <t>初始HP</t>
+  </si>
+  <si>
+    <t>Initial HP</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangDun</t>
+  </si>
+  <si>
+    <t>永久阻挡，不会损坏</t>
+  </si>
+  <si>
+    <t>Permanently blocks, indestructible</t>
+  </si>
+  <si>
+    <t>MiaoShu_GongChengChe</t>
+  </si>
+  <si>
+    <t>可采集资源，可建造建筑</t>
+  </si>
+  <si>
+    <t>Resource collectable, building constructible</t>
+  </si>
+  <si>
+    <t>MiaoShu_QiangBing</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
+  </si>
+  <si>
+    <t>Ranged Attack</t>
+  </si>
+  <si>
+    <t>MiaoShu_JinZhanBing</t>
+  </si>
+  <si>
+    <t>近程攻击</t>
+  </si>
+  <si>
+    <t>Melee Attack</t>
+  </si>
+  <si>
+    <t>MiaoShu_SanSeTanKe</t>
+  </si>
+  <si>
+    <t>超远距离范围攻击，前摇较长，克制炮台。爆炸溅射可能会伤害己方单位。</t>
+  </si>
+  <si>
+    <t>Ultra-long range area attack, long wind-up, effective against turrets. Explosion splash damage may harm allied units.</t>
+  </si>
+  <si>
+    <t>MiaoShu_GongChong</t>
+  </si>
+  <si>
+    <t>可采集资源，可变成建筑</t>
+  </si>
+  <si>
+    <t>Resource collectable, convertible to building</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiJi</t>
+  </si>
+  <si>
+    <t>可飞越障碍物</t>
+  </si>
+  <si>
+    <t>Can fly over obstacles</t>
+  </si>
+  <si>
+    <t>MiaoShu_QiangChong</t>
+  </si>
+  <si>
+    <t>MiaoShu_JinZhanChong</t>
+  </si>
+  <si>
+    <t>MiaoShu_YouChong</t>
+  </si>
+  <si>
+    <t>可蜕变为其它活动单位</t>
+  </si>
+  <si>
+    <t>Can metamorphose into other mobile units</t>
+  </si>
+  <si>
+    <t>MiaoShu_LvSeTanKe</t>
+  </si>
+  <si>
+    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
+  </si>
+  <si>
+    <t>Fires ultra-long range light spikes, which are blocked by obstacles.</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangChong</t>
+  </si>
+  <si>
+    <t>可增加活动单位上限</t>
+  </si>
+  <si>
+    <t>Increases mobile unit cap</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiChong</t>
+  </si>
+  <si>
+    <t>可飞跃障碍物</t>
+  </si>
+  <si>
+    <t>MiaoShu_YiLiaoBing</t>
+  </si>
+  <si>
+    <t>可给友方单位恢复HP</t>
+  </si>
+  <si>
+    <t>Restores HP to allied units</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangKongBing</t>
+  </si>
+  <si>
+    <t>远程对空范围攻击，爆炸溅射会伤害己方单位，不可对地攻击</t>
+  </si>
+  <si>
+    <t>Ranged anti-air area attack, explosion splash damage harms allied units, cannot attack ground targets.</t>
+  </si>
+  <si>
+    <t>MiaoShu_JiDi</t>
+  </si>
+  <si>
+    <t>可产出工程车</t>
+  </si>
+  <si>
+    <t>Produces engineering vehicles</t>
+  </si>
+  <si>
+    <t>MiaoShu_BingYing</t>
+  </si>
+  <si>
+    <t>可产出枪兵和近战兵</t>
+  </si>
+  <si>
+    <t>Produces riflemen and melee infantry</t>
+  </si>
+  <si>
+    <t>MiaoShu_MinFang</t>
+  </si>
+  <si>
+    <t>MiaoShu_DiBao</t>
+  </si>
+  <si>
+    <t>高HP，可派遣步兵进入地堡</t>
+  </si>
+  <si>
+    <t>High HP, allows infantry to garrison inside the bunker</t>
+  </si>
+  <si>
+    <t>MiaoShu_PaoTai</t>
+  </si>
+  <si>
+    <t>克制除了坦克以外的一切单位</t>
+  </si>
+  <si>
+    <t>Effective against all units except tanks</t>
+  </si>
+  <si>
+    <t>MiaoShu_ChongChao</t>
+  </si>
+  <si>
+    <t>可产出幼虫</t>
+  </si>
+  <si>
+    <t>Produces larvae</t>
+  </si>
+  <si>
+    <t>MiaoShu_JiChang</t>
+  </si>
+  <si>
+    <t>可产出飞机</t>
+  </si>
+  <si>
+    <t>Produces aircraft</t>
+  </si>
+  <si>
+    <t>MiaoShu_ZhongCheChang</t>
+  </si>
+  <si>
+    <t>可产出三色坦克</t>
+  </si>
+  <si>
+    <t>Produces three-color tanks</t>
+  </si>
+  <si>
+    <t>MiaoShu_ChongYing</t>
+  </si>
+  <si>
+    <t>近战虫和枪虫的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>Prerequisite building for melee bugs and gun bugs, only 1 required</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiTa</t>
+  </si>
+  <si>
+    <t>飞虫的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>Prerequisite building for flying bugs, only 1 required</t>
+  </si>
+  <si>
+    <t>MiaoShu_NiTaiYuan</t>
+  </si>
+  <si>
+    <t>绿色坦克的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>Prerequisite building for green tanks, only 1 required</t>
+  </si>
+  <si>
+    <t>MiaoShu_TaiSui</t>
+  </si>
+  <si>
+    <t>可扩张苔蔓(wàn)，扩张完成后可分裂另一个太岁</t>
+  </si>
+  <si>
+    <t>Can spread creep, splits into another Taisui upon completion of spread</t>
+  </si>
+  <si>
+    <t>Key特效</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>Special Effects</t>
+  </si>
+  <si>
+    <t>Key视口</t>
+  </si>
+  <si>
+    <t>视口</t>
+  </si>
+  <si>
+    <t>Viewport</t>
+  </si>
+  <si>
+    <t>Key苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>Moss Vines</t>
+  </si>
+  <si>
+    <t>Key方墩</t>
+  </si>
+  <si>
+    <t>Square Pillar</t>
+  </si>
+  <si>
+    <t>Key晶体矿</t>
+  </si>
+  <si>
+    <t>Crystal Ore</t>
+  </si>
+  <si>
+    <t>Key燃气矿</t>
+  </si>
+  <si>
+    <t>Gas Ore</t>
+  </si>
+  <si>
+    <t>Key工程车</t>
+  </si>
+  <si>
+    <t>工程车</t>
+  </si>
+  <si>
+    <t>Construction Vehicle</t>
+  </si>
+  <si>
+    <t>Key枪兵</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>Rifleman</t>
+  </si>
+  <si>
+    <t>Key近战兵</t>
+  </si>
+  <si>
+    <t>近战兵</t>
+  </si>
+  <si>
+    <t>Melee Infantry</t>
+  </si>
+  <si>
+    <t>Key三色坦克</t>
+  </si>
+  <si>
+    <t>三色坦克</t>
+  </si>
+  <si>
+    <t>Tricolor Tank</t>
+  </si>
+  <si>
+    <t>Key工虫</t>
+  </si>
+  <si>
+    <t>工虫</t>
+  </si>
+  <si>
+    <t>Worker Larva</t>
+  </si>
+  <si>
+    <t>Key飞机</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Key枪虫</t>
+  </si>
+  <si>
+    <t>枪虫</t>
+  </si>
+  <si>
+    <t>Rifle Bug</t>
+  </si>
+  <si>
+    <t>Key近战虫</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>Melee Bug</t>
+  </si>
+  <si>
+    <t>Key幼虫</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>Larva</t>
+  </si>
+  <si>
+    <t>Key绿色坦克</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>Green Tank</t>
+  </si>
+  <si>
+    <t>Key光刺</t>
+  </si>
+  <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>Light Spiker</t>
+  </si>
+  <si>
+    <t>Key房虫</t>
+  </si>
+  <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>Population Drone</t>
+  </si>
+  <si>
+    <t>Key飞虫</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>Flying Bug</t>
+  </si>
+  <si>
+    <t>Key医疗兵</t>
+  </si>
+  <si>
+    <t>医疗兵</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Key防空兵</t>
+  </si>
+  <si>
+    <t>防空兵</t>
+  </si>
+  <si>
+    <t>Anti-Air Trooper</t>
+  </si>
+  <si>
+    <t>Key基地</t>
+  </si>
+  <si>
+    <t>Command Center</t>
+  </si>
+  <si>
+    <t>Key兵营</t>
+  </si>
+  <si>
+    <t>Key民房</t>
+  </si>
+  <si>
+    <t>Civilian House</t>
+  </si>
+  <si>
+    <t>Key地堡</t>
+  </si>
+  <si>
+    <t>Key炮台</t>
+  </si>
+  <si>
+    <t>Gun Emplacement</t>
+  </si>
+  <si>
+    <t>Key虫巢</t>
+  </si>
+  <si>
+    <t>Bug Hive</t>
+  </si>
+  <si>
+    <t>Key机场</t>
+  </si>
+  <si>
+    <t>Key重车厂</t>
+  </si>
+  <si>
+    <t>Key虫营</t>
+  </si>
+  <si>
+    <t>Bug Barracks</t>
+  </si>
+  <si>
+    <t>Key飞塔</t>
+  </si>
+  <si>
+    <t>飞塔</t>
+  </si>
+  <si>
+    <t>Anti-Air Tower</t>
+  </si>
+  <si>
+    <t>Key拟态源</t>
+  </si>
+  <si>
+    <t>Mimic Source</t>
+  </si>
+  <si>
+    <t>Key太岁</t>
+  </si>
+  <si>
+    <t>太岁</t>
+  </si>
+  <si>
+    <t>Giant Flesh Mass</t>
+  </si>
+  <si>
+    <t>Key枪虫怪</t>
+  </si>
+  <si>
+    <t>枪虫怪</t>
+  </si>
+  <si>
+    <t>Rifle Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key近战虫怪</t>
+  </si>
+  <si>
+    <t>近战虫怪</t>
+  </si>
+  <si>
+    <t>Melee Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key工虫怪</t>
+  </si>
+  <si>
+    <t>工虫怪</t>
+  </si>
+  <si>
+    <t>Worker Mutant</t>
+  </si>
+  <si>
+    <t>Key枪兵怪</t>
+  </si>
+  <si>
+    <t>枪兵怪</t>
+  </si>
+  <si>
+    <t>Rifleman Mutant</t>
+  </si>
+  <si>
+    <t>Key近战兵怪</t>
+  </si>
+  <si>
+    <t>近战兵怪</t>
+  </si>
+  <si>
+    <t>Melee Infantry Mutant</t>
+  </si>
+  <si>
+    <t>Key工程车怪</t>
+  </si>
+  <si>
+    <t>工程车怪</t>
+  </si>
+  <si>
+    <t>Constructor Mutant</t>
+  </si>
+  <si>
+    <t>Key幼虫怪</t>
+  </si>
+  <si>
+    <t>幼虫怪</t>
+  </si>
+  <si>
+    <t>Larva Mutant</t>
+  </si>
+  <si>
+    <t>Key飞虫怪</t>
+  </si>
+  <si>
+    <t>飞虫怪</t>
+  </si>
+  <si>
+    <t>Flying Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key绿色坦克怪</t>
+  </si>
+  <si>
+    <t>绿色坦克怪</t>
+  </si>
+  <si>
+    <t>Green Tank Mutant</t>
+  </si>
+  <si>
+    <t>Key房虫怪</t>
+  </si>
+  <si>
+    <t>房虫怪</t>
+  </si>
+  <si>
+    <t>Hive Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key防空兵怪</t>
+  </si>
+  <si>
+    <t>防空兵怪</t>
+  </si>
+  <si>
+    <t>Anti-Air Trooper Mutant</t>
+  </si>
+  <si>
+    <t>Mi_Miao</t>
+  </si>
+  <si>
+    <t>米/秒</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiJianZhu</t>
+  </si>
+  <si>
+    <t>请点击地面放置建筑</t>
+  </si>
+  <si>
+    <t>Please click the ground to place the building</t>
+  </si>
+  <si>
+    <t>请点击要跟随的目标单位</t>
+  </si>
+  <si>
+    <t>Please click the target unit to follow</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiXunLvDian</t>
+  </si>
+  <si>
+    <t>请点击地面设置巡逻点</t>
+  </si>
+  <si>
+    <t>Please click the ground to set the patrol point</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiQiangZouXingDiMuDi</t>
+  </si>
+  <si>
+    <t>强行走过程不会攻击敌人，请点击地面确定目的地</t>
+  </si>
+  <si>
+    <t>Forced movement will not attack enemies. Please click the ground to confirm the destination</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiSheZhiCiJianZhuChanChuHuoDongDanWeiDeJiJiDian</t>
+  </si>
+  <si>
+    <t>请点击地面设置此建筑产出活动单位的集结点</t>
+  </si>
+  <si>
+    <t>Please click the ground to set the rally point for mobile units produced by this building</t>
+  </si>
+  <si>
+    <t>QingZaiPingMuShangTuoDongYiKuangXuanDanWei</t>
+  </si>
+  <si>
+    <t>请在屏幕上拖动以框选单位</t>
+  </si>
+  <si>
+    <t>Please drag on the screen to select units</t>
+  </si>
+  <si>
+    <t>QingZaiXuanZhongTaiShuiDeTaiManWanShangFangZhiFenLieDeTaiShui</t>
+  </si>
+  <si>
+    <t>请在选中太岁的苔蔓(wàn)上放置分裂的太岁</t>
+  </si>
+  <si>
+    <t>Please place the split Taisui on the creep of the selected Taisui</t>
+  </si>
 </sst>
 </file>
 
@@ -1387,7 +2104,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1458,8 +2175,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1608,12 +2361,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1911,152 +2670,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2099,6 +2858,42 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -2485,15 +3280,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C119" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="C186" workbookViewId="0">
+      <selection activeCell="C218" sqref="C218:C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="67.625" customWidth="1"/>
     <col min="2" max="2" width="161.75" customWidth="1"/>
     <col min="3" max="3" width="138.625" customWidth="1"/>
   </cols>
@@ -3616,7 +4411,7 @@
       <c r="B102" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="32" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3937,6 +4732,974 @@
       </c>
       <c r="C131" s="17" t="s">
         <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="C133" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" s="17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" s="17" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>398</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C137" s="17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>404</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>410</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>413</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="C141" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>416</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>419</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>422</v>
+      </c>
+      <c r="B144" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>425</v>
+      </c>
+      <c r="B145" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>428</v>
+      </c>
+      <c r="B146" s="22" t="s">
+        <v>429</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>431</v>
+      </c>
+      <c r="B147" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>434</v>
+      </c>
+      <c r="B148" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C148" s="17" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>435</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>436</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C150" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>439</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="C151" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>442</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C152" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>445</v>
+      </c>
+      <c r="B153" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>447</v>
+      </c>
+      <c r="B154" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>450</v>
+      </c>
+      <c r="B155" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>453</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>456</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>459</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>460</v>
+      </c>
+      <c r="B159" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>463</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>466</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>469</v>
+      </c>
+      <c r="B162" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>472</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>475</v>
+      </c>
+      <c r="B164" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>478</v>
+      </c>
+      <c r="B165" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="C165" s="17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C166" s="17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>484</v>
+      </c>
+      <c r="B167" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="B168" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="B169" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="B170" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="C173" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="C174" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="B175" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="C175" s="22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C176" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="C177" s="22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C178" s="22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="C179" s="22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="C181" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="C182" s="22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="27" t="s">
+        <v>532</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>533</v>
+      </c>
+      <c r="C184" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>536</v>
+      </c>
+      <c r="C185" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>539</v>
+      </c>
+      <c r="C186" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="27" t="s">
+        <v>541</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>542</v>
+      </c>
+      <c r="C187" s="22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="27" t="s">
+        <v>544</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="C188" s="22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C189" s="22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C190" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C191" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C192" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="C194" s="22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="B195" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="C195" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="B196" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C196" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C197" s="22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C198" s="22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="B199" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="C199" s="22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="B200" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="C200" s="22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="C202" s="22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C203" s="22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="B204" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="C204" s="22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>582</v>
+      </c>
+      <c r="C205" s="22" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="27" t="s">
+        <v>584</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>585</v>
+      </c>
+      <c r="C206" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="27" t="s">
+        <v>587</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>588</v>
+      </c>
+      <c r="C207" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="27" t="s">
+        <v>590</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C208" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>594</v>
+      </c>
+      <c r="C209" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="27" t="s">
+        <v>596</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>597</v>
+      </c>
+      <c r="C210" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="27" t="s">
+        <v>599</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>600</v>
+      </c>
+      <c r="C211" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B212" t="s">
+        <v>603</v>
+      </c>
+      <c r="C212" s="17" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B213" t="s">
+        <v>606</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B214" t="s">
+        <v>608</v>
+      </c>
+      <c r="C214" s="18" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B215" t="s">
+        <v>611</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B216" t="s">
+        <v>614</v>
+      </c>
+      <c r="C216" s="18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B217" t="s">
+        <v>617</v>
+      </c>
+      <c r="C217" s="18" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="B218" t="s">
+        <v>620</v>
+      </c>
+      <c r="C218" s="30" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="31" t="s">
+        <v>622</v>
+      </c>
+      <c r="B219" t="s">
+        <v>623</v>
+      </c>
+      <c r="C219" s="30" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="664">
   <si>
     <t>key</t>
   </si>
@@ -235,9 +235,6 @@
   </si>
   <si>
     <t>urlGameStrategy</t>
-  </si>
-  <si>
-    <t>即时战略指挥攻略/帮助.txt</t>
   </si>
   <si>
     <r>
@@ -249,7 +246,7 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
-      <t>即时战略指挥攻略/帮助</t>
+      <t>即时战略指挥攻略/</t>
     </r>
     <r>
       <rPr>
@@ -259,7 +256,41 @@
         <charset val="0"/>
         <scheme val="minor"/>
       </rPr>
-      <t>英文</t>
+      <t>攻略</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>即时战略指挥攻略/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="0"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻略英文</t>
     </r>
     <r>
       <rPr>
@@ -2093,6 +2124,182 @@
   <si>
     <t>Please place the split Taisui on the creep of the selected Taisui</t>
   </si>
+  <si>
+    <t>SheZhi</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>JingTouTouYing</t>
+  </si>
+  <si>
+    <t>镜头投影</t>
+  </si>
+  <si>
+    <t>Camera Projection</t>
+  </si>
+  <si>
+    <t>KuangXuanMoShi</t>
+  </si>
+  <si>
+    <t>框选模式</t>
+  </si>
+  <si>
+    <t>Selection Box Mode</t>
+  </si>
+  <si>
+    <t>ShiKouFangDa</t>
+  </si>
+  <si>
+    <t>视口放大</t>
+  </si>
+  <si>
+    <t>Viewport Zoom In</t>
+  </si>
+  <si>
+    <t>ShiKouSuoXiao</t>
+  </si>
+  <si>
+    <t>视口缩小</t>
+  </si>
+  <si>
+    <t>Viewport Zoom Out</t>
+  </si>
+  <si>
+    <t>DianJiZhuiJiaZuanZhong</t>
+  </si>
+  <si>
+    <t>点击单位都是追加选中</t>
+  </si>
+  <si>
+    <t>Clicking Units Adds to Selection</t>
+  </si>
+  <si>
+    <t>XianShiMingZi</t>
+  </si>
+  <si>
+    <t>显示名字</t>
+  </si>
+  <si>
+    <t>Show Names</t>
+  </si>
+  <si>
+    <t>MingZiXianShiDanWeiLeiXing</t>
+  </si>
+  <si>
+    <t>名字里显示单位类型</t>
+  </si>
+  <si>
+    <t>Display Unit Type in Names</t>
+  </si>
+  <si>
+    <t>LingXingKuangXuan</t>
+  </si>
+  <si>
+    <t>菱形框选</t>
+  </si>
+  <si>
+    <t>Diamond Selection</t>
+  </si>
+  <si>
+    <t>ZhengJuXingKuangXuan</t>
+  </si>
+  <si>
+    <t>正矩形框选</t>
+  </si>
+  <si>
+    <t>Square Selection</t>
+  </si>
+  <si>
+    <t>MoShi</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>YiQieHuanDao</t>
+  </si>
+  <si>
+    <t>已切换到</t>
+  </si>
+  <si>
+    <t>Switched to</t>
+  </si>
+  <si>
+    <t>YiTianJiaWeiXunLvDian</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 已添加为巡逻点，请继续点击地面添加巡逻点，或点击</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确定</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交巡逻点列表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> waypoint added. Continue clicking the ground to add more waypoints, or click </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Confirm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> to submit the waypoint list.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -2104,7 +2311,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2359,6 +2566,25 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2820,13 +3046,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2887,13 +3113,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
@@ -3280,10 +3506,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C186" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218:C219"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3385,10 +3611,10 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3396,10 +3622,10 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3407,10 +3633,10 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3418,10 +3644,10 @@
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3429,10 +3655,10 @@
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3440,21 +3666,21 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3465,7 +3691,7 @@
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3528,7 +3754,7 @@
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -3616,10 +3842,10 @@
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3635,7 +3861,7 @@
       </c>
     </row>
     <row r="32" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -3646,7 +3872,7 @@
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -3657,7 +3883,7 @@
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -3899,7 +4125,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B56" t="s">
@@ -3910,7 +4136,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B57" t="s">
@@ -3921,7 +4147,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>167</v>
       </c>
       <c r="B58" t="s">
@@ -4405,7 +4631,7 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="6" t="s">
         <v>297</v>
       </c>
       <c r="B102" t="s">
@@ -4416,7 +4642,7 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="6" t="s">
         <v>300</v>
       </c>
       <c r="B103" t="s">
@@ -4427,7 +4653,7 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="6" t="s">
         <v>303</v>
       </c>
       <c r="B104" t="s">
@@ -4438,10 +4664,10 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>307</v>
       </c>
       <c r="C105" s="17" t="s">
@@ -4449,10 +4675,10 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>310</v>
       </c>
       <c r="C106" s="17" t="s">
@@ -4771,7 +4997,7 @@
       <c r="A135" t="s">
         <v>395</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>396</v>
       </c>
       <c r="C135" s="17" t="s">
@@ -4782,7 +5008,7 @@
       <c r="A136" t="s">
         <v>398</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>399</v>
       </c>
       <c r="C136" s="17" t="s">
@@ -4793,7 +5019,7 @@
       <c r="A137" t="s">
         <v>401</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>402</v>
       </c>
       <c r="C137" s="17" t="s">
@@ -4804,7 +5030,7 @@
       <c r="A138" t="s">
         <v>404</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="6" t="s">
         <v>405</v>
       </c>
       <c r="C138" s="17" t="s">
@@ -4815,7 +5041,7 @@
       <c r="A139" t="s">
         <v>407</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="6" t="s">
         <v>408</v>
       </c>
       <c r="C139" s="17" t="s">
@@ -4826,7 +5052,7 @@
       <c r="A140" t="s">
         <v>410</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>411</v>
       </c>
       <c r="C140" s="17" t="s">
@@ -5615,7 +5841,7 @@
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="6" t="s">
         <v>602</v>
       </c>
       <c r="B212" t="s">
@@ -5626,7 +5852,7 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="6" t="s">
         <v>605</v>
       </c>
       <c r="B213" t="s">
@@ -5637,7 +5863,7 @@
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="6" t="s">
         <v>605</v>
       </c>
       <c r="B214" t="s">
@@ -5648,7 +5874,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="6" t="s">
         <v>610</v>
       </c>
       <c r="B215" t="s">
@@ -5659,7 +5885,7 @@
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="6" t="s">
         <v>613</v>
       </c>
       <c r="B216" t="s">
@@ -5670,7 +5896,7 @@
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="6" t="s">
         <v>616</v>
       </c>
       <c r="B217" t="s">
@@ -5681,31 +5907,174 @@
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="29" t="s">
+      <c r="A218" s="6" t="s">
         <v>619</v>
       </c>
       <c r="B218" t="s">
         <v>620</v>
       </c>
-      <c r="C218" s="30" t="s">
+      <c r="C218" s="18" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="31" t="s">
+      <c r="A219" s="6" t="s">
         <v>622</v>
       </c>
       <c r="B219" t="s">
         <v>623</v>
       </c>
-      <c r="C219" s="30" t="s">
+      <c r="C219" s="18" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>625</v>
+      </c>
+      <c r="B220" t="s">
+        <v>626</v>
+      </c>
+      <c r="C220" s="17" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>628</v>
+      </c>
+      <c r="B221" t="s">
+        <v>629</v>
+      </c>
+      <c r="C221" s="17" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>631</v>
+      </c>
+      <c r="B222" t="s">
+        <v>632</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>634</v>
+      </c>
+      <c r="B223" t="s">
+        <v>635</v>
+      </c>
+      <c r="C223" s="17" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>637</v>
+      </c>
+      <c r="B224" t="s">
+        <v>638</v>
+      </c>
+      <c r="C224" s="17" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>640</v>
+      </c>
+      <c r="B225" t="s">
+        <v>641</v>
+      </c>
+      <c r="C225" s="17" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>643</v>
+      </c>
+      <c r="B226" t="s">
+        <v>644</v>
+      </c>
+      <c r="C226" s="17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>646</v>
+      </c>
+      <c r="B227" t="s">
+        <v>647</v>
+      </c>
+      <c r="C227" s="17" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B228" t="s">
+        <v>650</v>
+      </c>
+      <c r="C228" s="17" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B229" t="s">
+        <v>653</v>
+      </c>
+      <c r="C229" s="17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B230" t="s">
+        <v>656</v>
+      </c>
+      <c r="C230" s="17" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B231" t="s">
+        <v>659</v>
+      </c>
+      <c r="C231" s="17" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="232" s="4" customFormat="1" spans="1:3">
+      <c r="A232" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="B232" s="30" t="s">
+        <v>662</v>
+      </c>
+      <c r="C232" s="31" t="s">
+        <v>663</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="即时战略指挥攻略/帮助.txt"/>
-    <hyperlink ref="C22" r:id="rId1" display="即时战略指挥攻略/帮助英文.txt"/>
+    <hyperlink ref="B22" r:id="rId1" display="即时战略指挥攻略/攻略.txt"/>
+    <hyperlink ref="C22" r:id="rId1" display="即时战略指挥攻略/攻略英文.txt"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -1711,7 +1711,7 @@
     <t>Can spread creep, splits into another Taisui upon completion of spread</t>
   </si>
   <si>
-    <t>Key特效</t>
+    <t>KeyTeXiao</t>
   </si>
   <si>
     <t>特效</t>
@@ -1720,7 +1720,7 @@
     <t>Special Effects</t>
   </si>
   <si>
-    <t>Key视口</t>
+    <t>KeyShiKou</t>
   </si>
   <si>
     <t>视口</t>
@@ -1729,7 +1729,7 @@
     <t>Viewport</t>
   </si>
   <si>
-    <t>Key苔蔓(wàn)</t>
+    <t>KeyTaiWan</t>
   </si>
   <si>
     <t>苔蔓(wàn)</t>
@@ -1738,34 +1738,34 @@
     <t>Moss Vines</t>
   </si>
   <si>
-    <t>Key方墩</t>
+    <t>KeyFangDun</t>
   </si>
   <si>
     <t>Square Pillar</t>
   </si>
   <si>
-    <t>Key晶体矿</t>
+    <t>KeyJingTiKuang</t>
   </si>
   <si>
     <t>Crystal Ore</t>
   </si>
   <si>
-    <t>Key燃气矿</t>
+    <t>KeyRanQiKuang</t>
   </si>
   <si>
     <t>Gas Ore</t>
   </si>
   <si>
-    <t>Key工程车</t>
+    <t>KeyGongChengChe</t>
   </si>
   <si>
     <t>工程车</t>
   </si>
   <si>
-    <t>Construction Vehicle</t>
-  </si>
-  <si>
-    <t>Key枪兵</t>
+    <t>Constr. Vehicle</t>
+  </si>
+  <si>
+    <t>KeyQiangBing</t>
   </si>
   <si>
     <t>枪兵</t>
@@ -1774,7 +1774,7 @@
     <t>Rifleman</t>
   </si>
   <si>
-    <t>Key近战兵</t>
+    <t>KeyJinZhanBing</t>
   </si>
   <si>
     <t>近战兵</t>
@@ -1783,7 +1783,7 @@
     <t>Melee Infantry</t>
   </si>
   <si>
-    <t>Key三色坦克</t>
+    <t>KeySanSeTanKe</t>
   </si>
   <si>
     <t>三色坦克</t>
@@ -1792,7 +1792,7 @@
     <t>Tricolor Tank</t>
   </si>
   <si>
-    <t>Key工虫</t>
+    <t>KeyGongChong</t>
   </si>
   <si>
     <t>工虫</t>
@@ -1801,7 +1801,7 @@
     <t>Worker Larva</t>
   </si>
   <si>
-    <t>Key飞机</t>
+    <t>KeyFeiJi</t>
   </si>
   <si>
     <t>飞机</t>
@@ -1810,7 +1810,7 @@
     <t>Aircraft</t>
   </si>
   <si>
-    <t>Key枪虫</t>
+    <t>KeyQiangChong</t>
   </si>
   <si>
     <t>枪虫</t>
@@ -1819,7 +1819,7 @@
     <t>Rifle Bug</t>
   </si>
   <si>
-    <t>Key近战虫</t>
+    <t>KeyJinZhanChong</t>
   </si>
   <si>
     <t>近战虫</t>
@@ -1828,7 +1828,7 @@
     <t>Melee Bug</t>
   </si>
   <si>
-    <t>Key幼虫</t>
+    <t>KeyYouChong</t>
   </si>
   <si>
     <t>幼虫</t>
@@ -1837,7 +1837,7 @@
     <t>Larva</t>
   </si>
   <si>
-    <t>Key绿色坦克</t>
+    <t>KeyLvSeTanKe</t>
   </si>
   <si>
     <t>绿色坦克</t>
@@ -1846,7 +1846,7 @@
     <t>Green Tank</t>
   </si>
   <si>
-    <t>Key光刺</t>
+    <t>KeyGuangCi</t>
   </si>
   <si>
     <t>光刺</t>
@@ -1855,16 +1855,16 @@
     <t>Light Spiker</t>
   </si>
   <si>
-    <t>Key房虫</t>
+    <t>KeyFangChong</t>
   </si>
   <si>
     <t>房虫</t>
   </si>
   <si>
-    <t>Population Drone</t>
-  </si>
-  <si>
-    <t>Key飞虫</t>
+    <t>Popul. Drone</t>
+  </si>
+  <si>
+    <t>KeyFeiChong</t>
   </si>
   <si>
     <t>飞虫</t>
@@ -1873,7 +1873,7 @@
     <t>Flying Bug</t>
   </si>
   <si>
-    <t>Key医疗兵</t>
+    <t>KeyYiLiaoBing</t>
   </si>
   <si>
     <t>医疗兵</t>
@@ -1882,7 +1882,7 @@
     <t>Medic</t>
   </si>
   <si>
-    <t>Key防空兵</t>
+    <t>KeyFangKongBing</t>
   </si>
   <si>
     <t>防空兵</t>
@@ -1891,49 +1891,49 @@
     <t>Anti-Air Trooper</t>
   </si>
   <si>
-    <t>Key基地</t>
+    <t>KeyJiDi</t>
   </si>
   <si>
     <t>Command Center</t>
   </si>
   <si>
-    <t>Key兵营</t>
-  </si>
-  <si>
-    <t>Key民房</t>
-  </si>
-  <si>
-    <t>Civilian House</t>
-  </si>
-  <si>
-    <t>Key地堡</t>
-  </si>
-  <si>
-    <t>Key炮台</t>
+    <t>KeyBingYing</t>
+  </si>
+  <si>
+    <t>KeyMinFang</t>
+  </si>
+  <si>
+    <t>Supply Depots</t>
+  </si>
+  <si>
+    <t>KeyDiBao</t>
+  </si>
+  <si>
+    <t>KeyPaoTai</t>
   </si>
   <si>
     <t>Gun Emplacement</t>
   </si>
   <si>
-    <t>Key虫巢</t>
+    <t>KeyChongChao</t>
   </si>
   <si>
     <t>Bug Hive</t>
   </si>
   <si>
-    <t>Key机场</t>
-  </si>
-  <si>
-    <t>Key重车厂</t>
-  </si>
-  <si>
-    <t>Key虫营</t>
+    <t>KeyJiChang</t>
+  </si>
+  <si>
+    <t>KeyZhongCheChang</t>
+  </si>
+  <si>
+    <t>KeyChongYing</t>
   </si>
   <si>
     <t>Bug Barracks</t>
   </si>
   <si>
-    <t>Key飞塔</t>
+    <t>KeyFeiTa</t>
   </si>
   <si>
     <t>飞塔</t>
@@ -1942,13 +1942,13 @@
     <t>Anti-Air Tower</t>
   </si>
   <si>
-    <t>Key拟态源</t>
+    <t>KeyNiTaiYuan</t>
   </si>
   <si>
     <t>Mimic Source</t>
   </si>
   <si>
-    <t>Key太岁</t>
+    <t>KeyTaiSui</t>
   </si>
   <si>
     <t>太岁</t>
@@ -1957,7 +1957,7 @@
     <t>Giant Flesh Mass</t>
   </si>
   <si>
-    <t>Key枪虫怪</t>
+    <t>KeyQiangChongGuai</t>
   </si>
   <si>
     <t>枪虫怪</t>
@@ -1966,7 +1966,7 @@
     <t>Rifle Bug Mutant</t>
   </si>
   <si>
-    <t>Key近战虫怪</t>
+    <t>KeyJinZhanCHongGuai</t>
   </si>
   <si>
     <t>近战虫怪</t>
@@ -1975,7 +1975,7 @@
     <t>Melee Bug Mutant</t>
   </si>
   <si>
-    <t>Key工虫怪</t>
+    <t>KeyGongChongGuai</t>
   </si>
   <si>
     <t>工虫怪</t>
@@ -1984,7 +1984,7 @@
     <t>Worker Mutant</t>
   </si>
   <si>
-    <t>Key枪兵怪</t>
+    <t>KeyQiangBingGuai</t>
   </si>
   <si>
     <t>枪兵怪</t>
@@ -1993,7 +1993,7 @@
     <t>Rifleman Mutant</t>
   </si>
   <si>
-    <t>Key近战兵怪</t>
+    <t>KeyJinZhanBingGuai</t>
   </si>
   <si>
     <t>近战兵怪</t>
@@ -2002,7 +2002,7 @@
     <t>Melee Infantry Mutant</t>
   </si>
   <si>
-    <t>Key工程车怪</t>
+    <t>KeyGongChengCheGuai</t>
   </si>
   <si>
     <t>工程车怪</t>
@@ -2011,7 +2011,7 @@
     <t>Constructor Mutant</t>
   </si>
   <si>
-    <t>Key幼虫怪</t>
+    <t>KeyYouChongGuai</t>
   </si>
   <si>
     <t>幼虫怪</t>
@@ -2020,7 +2020,7 @@
     <t>Larva Mutant</t>
   </si>
   <si>
-    <t>Key飞虫怪</t>
+    <t>KeyFeiChongGuai</t>
   </si>
   <si>
     <t>飞虫怪</t>
@@ -2029,7 +2029,7 @@
     <t>Flying Bug Mutant</t>
   </si>
   <si>
-    <t>Key绿色坦克怪</t>
+    <t>KeyLvSeTanKeGuai</t>
   </si>
   <si>
     <t>绿色坦克怪</t>
@@ -2038,7 +2038,7 @@
     <t>Green Tank Mutant</t>
   </si>
   <si>
-    <t>Key房虫怪</t>
+    <t>KeyFangChongGuai</t>
   </si>
   <si>
     <t>房虫怪</t>
@@ -2047,7 +2047,7 @@
     <t>Hive Bug Mutant</t>
   </si>
   <si>
-    <t>Key防空兵怪</t>
+    <t>KeyFangKongBingGuai</t>
   </si>
   <si>
     <t>防空兵怪</t>
@@ -2237,6 +2237,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> 已添加为巡逻点，请继续点击地面添加巡逻点，或点击</t>
     </r>
     <r>
@@ -2278,6 +2284,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> waypoint added. Continue clicking the ground to add more waypoints, or click </t>
     </r>
     <r>
@@ -3041,12 +3054,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3112,15 +3124,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
@@ -3508,8 +3511,8 @@
   <sheetPr/>
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+    <sheetView tabSelected="1" topLeftCell="C164" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3611,10 +3614,10 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3622,10 +3625,10 @@
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3633,10 +3636,10 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3644,10 +3647,10 @@
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3655,10 +3658,10 @@
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3666,21 +3669,21 @@
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3691,7 +3694,7 @@
       <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3754,10 +3757,10 @@
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3798,10 +3801,10 @@
       <c r="A26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3842,10 +3845,10 @@
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3861,46 +3864,46 @@
       </c>
     </row>
     <row r="32" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3908,10 +3911,10 @@
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3919,32 +3922,32 @@
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="39" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3952,10 +3955,10 @@
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3963,10 +3966,10 @@
       <c r="A41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3974,10 +3977,10 @@
       <c r="A42" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3985,10 +3988,10 @@
       <c r="A43" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3996,10 +3999,10 @@
       <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4007,10 +4010,10 @@
       <c r="A45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4018,10 +4021,10 @@
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4029,10 +4032,10 @@
       <c r="A47" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4040,10 +4043,10 @@
       <c r="A48" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4051,10 +4054,10 @@
       <c r="A49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4062,10 +4065,10 @@
       <c r="A50" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4073,10 +4076,10 @@
       <c r="A51" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4084,10 +4087,10 @@
       <c r="A52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4095,10 +4098,10 @@
       <c r="A53" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4106,10 +4109,10 @@
       <c r="A54" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4117,43 +4120,43 @@
       <c r="A55" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B57" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4164,7 +4167,7 @@
       <c r="B59" t="s">
         <v>171</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4175,7 +4178,7 @@
       <c r="B60" t="s">
         <v>174</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4186,7 +4189,7 @@
       <c r="B61" t="s">
         <v>177</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4197,7 +4200,7 @@
       <c r="B62" t="s">
         <v>180</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4208,7 +4211,7 @@
       <c r="B63" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4219,7 +4222,7 @@
       <c r="B64" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="17" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4230,7 +4233,7 @@
       <c r="B65" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="17" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4241,7 +4244,7 @@
       <c r="B66" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="17" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4252,7 +4255,7 @@
       <c r="B67" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4263,7 +4266,7 @@
       <c r="B68" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="17" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4274,7 +4277,7 @@
       <c r="B69" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>202</v>
       </c>
     </row>
@@ -4285,7 +4288,7 @@
       <c r="B70" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="17" t="s">
         <v>205</v>
       </c>
     </row>
@@ -4296,7 +4299,7 @@
       <c r="B71" t="s">
         <v>207</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4307,7 +4310,7 @@
       <c r="B72" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="18" t="s">
+      <c r="C72" s="17" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4318,7 +4321,7 @@
       <c r="B73" t="s">
         <v>213</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>214</v>
       </c>
     </row>
@@ -4329,7 +4332,7 @@
       <c r="B74" t="s">
         <v>216</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C74" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4340,7 +4343,7 @@
       <c r="B75" t="s">
         <v>219</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4351,7 +4354,7 @@
       <c r="B76" t="s">
         <v>222</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C76" s="17" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4362,7 +4365,7 @@
       <c r="B77" t="s">
         <v>225</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4395,7 +4398,7 @@
       <c r="B80" t="s">
         <v>232</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="16" t="s">
         <v>233</v>
       </c>
     </row>
@@ -4406,7 +4409,7 @@
       <c r="B81" t="s">
         <v>235</v>
       </c>
-      <c r="C81" s="19" t="s">
+      <c r="C81" s="18" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4417,7 +4420,7 @@
       <c r="B82" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="18" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4425,10 +4428,10 @@
       <c r="A83" t="s">
         <v>240</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="9" t="s">
         <v>242</v>
       </c>
     </row>
@@ -4436,10 +4439,10 @@
       <c r="A84" t="s">
         <v>243</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="9" t="s">
         <v>245</v>
       </c>
     </row>
@@ -4450,7 +4453,7 @@
       <c r="B85" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="16" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4461,7 +4464,7 @@
       <c r="B86" t="s">
         <v>250</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4472,7 +4475,7 @@
       <c r="B87" t="s">
         <v>253</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="16" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4483,7 +4486,7 @@
       <c r="B88" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="16" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4494,7 +4497,7 @@
       <c r="B89" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="19" t="s">
+      <c r="C89" s="18" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4505,7 +4508,7 @@
       <c r="B90" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="16" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4516,7 +4519,7 @@
       <c r="B91" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="16" t="s">
         <v>266</v>
       </c>
     </row>
@@ -4527,7 +4530,7 @@
       <c r="B92" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="16" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4538,7 +4541,7 @@
       <c r="B93" t="s">
         <v>271</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="16" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4549,7 +4552,7 @@
       <c r="B94" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="16" t="s">
         <v>275</v>
       </c>
     </row>
@@ -4560,7 +4563,7 @@
       <c r="B95" t="s">
         <v>277</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="16" t="s">
         <v>278</v>
       </c>
     </row>
@@ -4571,7 +4574,7 @@
       <c r="B96" t="s">
         <v>280</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="16" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4582,7 +4585,7 @@
       <c r="B97" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="16" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4593,7 +4596,7 @@
       <c r="B98" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="16" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4601,10 +4604,10 @@
       <c r="A99" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="18" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4612,10 +4615,10 @@
       <c r="A100" t="s">
         <v>291</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="19" t="s">
+      <c r="C100" s="18" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4626,62 +4629,62 @@
       <c r="B101" t="s">
         <v>295</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="16" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>297</v>
       </c>
       <c r="B102" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="32" t="s">
+      <c r="C102" s="28" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>300</v>
       </c>
       <c r="B103" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="16" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>303</v>
       </c>
       <c r="B104" t="s">
         <v>304</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="16" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="16" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="16" t="s">
         <v>311</v>
       </c>
     </row>
@@ -4692,7 +4695,7 @@
       <c r="B107" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="16" t="s">
         <v>314</v>
       </c>
     </row>
@@ -4703,7 +4706,7 @@
       <c r="B108" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="16" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4722,10 +4725,10 @@
       <c r="A110" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="9" t="s">
         <v>323</v>
       </c>
     </row>
@@ -4736,7 +4739,7 @@
       <c r="B111" t="s">
         <v>325</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="16" t="s">
         <v>326</v>
       </c>
     </row>
@@ -4744,10 +4747,10 @@
       <c r="A112" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="16" t="s">
         <v>329</v>
       </c>
     </row>
@@ -4755,10 +4758,10 @@
       <c r="A113" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="9" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4780,7 +4783,7 @@
       <c r="B115" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="16" t="s">
         <v>338</v>
       </c>
     </row>
@@ -4788,10 +4791,10 @@
       <c r="A116" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="9" t="s">
         <v>341</v>
       </c>
     </row>
@@ -4799,10 +4802,10 @@
       <c r="A117" t="s">
         <v>342</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="9" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4810,10 +4813,10 @@
       <c r="A118" t="s">
         <v>345</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="9" t="s">
         <v>347</v>
       </c>
     </row>
@@ -4821,10 +4824,10 @@
       <c r="A119" t="s">
         <v>348</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4832,10 +4835,10 @@
       <c r="A120" t="s">
         <v>351</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="9" t="s">
         <v>353</v>
       </c>
     </row>
@@ -4843,10 +4846,10 @@
       <c r="A121" t="s">
         <v>354</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="9" t="s">
         <v>356</v>
       </c>
     </row>
@@ -4854,10 +4857,10 @@
       <c r="A122" t="s">
         <v>357</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="9" t="s">
         <v>359</v>
       </c>
     </row>
@@ -4865,10 +4868,10 @@
       <c r="A123" t="s">
         <v>360</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="C123" s="9" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4876,10 +4879,10 @@
       <c r="A124" t="s">
         <v>363</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="C124" s="9" t="s">
         <v>362</v>
       </c>
     </row>
@@ -4887,10 +4890,10 @@
       <c r="A125" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4898,10 +4901,10 @@
       <c r="A126" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="9" t="s">
         <v>370</v>
       </c>
     </row>
@@ -4909,10 +4912,10 @@
       <c r="A127" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="C127" s="9" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4920,10 +4923,10 @@
       <c r="A128" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="C128" s="9" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4931,10 +4934,10 @@
       <c r="A129" t="s">
         <v>377</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="C129" s="9" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4942,10 +4945,10 @@
       <c r="A130" t="s">
         <v>380</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="9" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4956,7 +4959,7 @@
       <c r="B131" t="s">
         <v>384</v>
       </c>
-      <c r="C131" s="17" t="s">
+      <c r="C131" s="16" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4964,10 +4967,10 @@
       <c r="A132" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="16" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4975,10 +4978,10 @@
       <c r="A133" t="s">
         <v>389</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="16" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4986,10 +4989,10 @@
       <c r="A134" t="s">
         <v>392</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="17" t="s">
+      <c r="C134" s="16" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4997,10 +5000,10 @@
       <c r="A135" t="s">
         <v>395</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="16" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5008,10 +5011,10 @@
       <c r="A136" t="s">
         <v>398</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="17" t="s">
+      <c r="C136" s="16" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5019,10 +5022,10 @@
       <c r="A137" t="s">
         <v>401</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C137" s="17" t="s">
+      <c r="C137" s="16" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5030,10 +5033,10 @@
       <c r="A138" t="s">
         <v>404</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C138" s="17" t="s">
+      <c r="C138" s="16" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5041,10 +5044,10 @@
       <c r="A139" t="s">
         <v>407</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C139" s="17" t="s">
+      <c r="C139" s="16" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5052,10 +5055,10 @@
       <c r="A140" t="s">
         <v>410</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C140" s="17" t="s">
+      <c r="C140" s="16" t="s">
         <v>412</v>
       </c>
     </row>
@@ -5063,10 +5066,10 @@
       <c r="A141" t="s">
         <v>413</v>
       </c>
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="C141" s="17" t="s">
+      <c r="C141" s="16" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5074,10 +5077,10 @@
       <c r="A142" t="s">
         <v>416</v>
       </c>
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C142" s="17" t="s">
+      <c r="C142" s="16" t="s">
         <v>418</v>
       </c>
     </row>
@@ -5085,10 +5088,10 @@
       <c r="A143" t="s">
         <v>419</v>
       </c>
-      <c r="B143" s="23" t="s">
+      <c r="B143" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="C143" s="17" t="s">
+      <c r="C143" s="16" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5096,10 +5099,10 @@
       <c r="A144" t="s">
         <v>422</v>
       </c>
-      <c r="B144" s="22" t="s">
+      <c r="B144" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C144" s="17" t="s">
+      <c r="C144" s="16" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5107,10 +5110,10 @@
       <c r="A145" t="s">
         <v>425</v>
       </c>
-      <c r="B145" s="22" t="s">
+      <c r="B145" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="C145" s="17" t="s">
+      <c r="C145" s="16" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5118,10 +5121,10 @@
       <c r="A146" t="s">
         <v>428</v>
       </c>
-      <c r="B146" s="22" t="s">
+      <c r="B146" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="C146" s="17" t="s">
+      <c r="C146" s="16" t="s">
         <v>430</v>
       </c>
     </row>
@@ -5129,10 +5132,10 @@
       <c r="A147" t="s">
         <v>431</v>
       </c>
-      <c r="B147" s="22" t="s">
+      <c r="B147" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="C147" s="17" t="s">
+      <c r="C147" s="16" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5140,10 +5143,10 @@
       <c r="A148" t="s">
         <v>434</v>
       </c>
-      <c r="B148" s="22" t="s">
+      <c r="B148" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="C148" s="17" t="s">
+      <c r="C148" s="16" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5151,10 +5154,10 @@
       <c r="A149" t="s">
         <v>435</v>
       </c>
-      <c r="B149" s="22" t="s">
+      <c r="B149" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="C149" s="17" t="s">
+      <c r="C149" s="16" t="s">
         <v>424</v>
       </c>
     </row>
@@ -5162,10 +5165,10 @@
       <c r="A150" t="s">
         <v>436</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="C150" s="17" t="s">
+      <c r="C150" s="16" t="s">
         <v>438</v>
       </c>
     </row>
@@ -5173,10 +5176,10 @@
       <c r="A151" t="s">
         <v>439</v>
       </c>
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="16" t="s">
         <v>441</v>
       </c>
     </row>
@@ -5184,10 +5187,10 @@
       <c r="A152" t="s">
         <v>442</v>
       </c>
-      <c r="B152" s="22" t="s">
+      <c r="B152" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="C152" s="17" t="s">
+      <c r="C152" s="16" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5195,10 +5198,10 @@
       <c r="A153" t="s">
         <v>445</v>
       </c>
-      <c r="B153" s="22" t="s">
+      <c r="B153" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="C153" s="17" t="s">
+      <c r="C153" s="16" t="s">
         <v>433</v>
       </c>
     </row>
@@ -5206,10 +5209,10 @@
       <c r="A154" t="s">
         <v>447</v>
       </c>
-      <c r="B154" s="22" t="s">
+      <c r="B154" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C154" s="17" t="s">
+      <c r="C154" s="16" t="s">
         <v>449</v>
       </c>
     </row>
@@ -5217,10 +5220,10 @@
       <c r="A155" t="s">
         <v>450</v>
       </c>
-      <c r="B155" s="22" t="s">
+      <c r="B155" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="16" t="s">
         <v>452</v>
       </c>
     </row>
@@ -5228,10 +5231,10 @@
       <c r="A156" t="s">
         <v>453</v>
       </c>
-      <c r="B156" s="21" t="s">
+      <c r="B156" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="C156" s="17" t="s">
+      <c r="C156" s="16" t="s">
         <v>455</v>
       </c>
     </row>
@@ -5239,10 +5242,10 @@
       <c r="A157" t="s">
         <v>456</v>
       </c>
-      <c r="B157" s="21" t="s">
+      <c r="B157" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C157" s="17" t="s">
+      <c r="C157" s="16" t="s">
         <v>458</v>
       </c>
     </row>
@@ -5250,10 +5253,10 @@
       <c r="A158" t="s">
         <v>459</v>
       </c>
-      <c r="B158" s="21" t="s">
+      <c r="B158" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="C158" s="17" t="s">
+      <c r="C158" s="16" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5261,10 +5264,10 @@
       <c r="A159" t="s">
         <v>460</v>
       </c>
-      <c r="B159" s="21" t="s">
+      <c r="B159" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C159" s="16" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5272,10 +5275,10 @@
       <c r="A160" t="s">
         <v>463</v>
       </c>
-      <c r="B160" s="21" t="s">
+      <c r="B160" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C160" s="17" t="s">
+      <c r="C160" s="16" t="s">
         <v>465</v>
       </c>
     </row>
@@ -5283,10 +5286,10 @@
       <c r="A161" t="s">
         <v>466</v>
       </c>
-      <c r="B161" s="21" t="s">
+      <c r="B161" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C161" s="17" t="s">
+      <c r="C161" s="16" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5294,10 +5297,10 @@
       <c r="A162" t="s">
         <v>469</v>
       </c>
-      <c r="B162" s="21" t="s">
+      <c r="B162" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="C162" s="17" t="s">
+      <c r="C162" s="16" t="s">
         <v>471</v>
       </c>
     </row>
@@ -5305,10 +5308,10 @@
       <c r="A163" t="s">
         <v>472</v>
       </c>
-      <c r="B163" s="21" t="s">
+      <c r="B163" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="C163" s="17" t="s">
+      <c r="C163" s="16" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5316,10 +5319,10 @@
       <c r="A164" t="s">
         <v>475</v>
       </c>
-      <c r="B164" s="21" t="s">
+      <c r="B164" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="16" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5327,10 +5330,10 @@
       <c r="A165" t="s">
         <v>478</v>
       </c>
-      <c r="B165" s="21" t="s">
+      <c r="B165" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="C165" s="17" t="s">
+      <c r="C165" s="16" t="s">
         <v>480</v>
       </c>
     </row>
@@ -5338,10 +5341,10 @@
       <c r="A166" t="s">
         <v>481</v>
       </c>
-      <c r="B166" s="21" t="s">
+      <c r="B166" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="C166" s="17" t="s">
+      <c r="C166" s="16" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5349,582 +5352,582 @@
       <c r="A167" t="s">
         <v>484</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B167" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="C167" s="17" t="s">
+      <c r="C167" s="16" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="23" t="s">
         <v>488</v>
       </c>
-      <c r="C168" s="22" t="s">
+      <c r="C168" s="21" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="23" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="23" t="s">
         <v>491</v>
       </c>
-      <c r="C169" s="22" t="s">
+      <c r="C169" s="21" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="B170" s="25" t="s">
+      <c r="B170" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="21" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="B171" s="25" t="s">
+      <c r="B171" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="C171" s="22" t="s">
+      <c r="C171" s="21" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="26" t="s">
+      <c r="A172" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="C172" s="22" t="s">
+      <c r="C172" s="21" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="26" t="s">
+      <c r="A173" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="B173" s="26" t="s">
+      <c r="B173" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="C173" s="22" t="s">
+      <c r="C173" s="21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174" s="27" t="s">
+      <c r="A174" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="B174" s="27" t="s">
+      <c r="B174" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="C174" s="22" t="s">
+      <c r="C174" s="21" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="28" t="s">
+      <c r="A175" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="B175" s="28" t="s">
+      <c r="B175" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="C175" s="22" t="s">
+      <c r="C175" s="21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="27" t="s">
+      <c r="A176" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="B176" s="27" t="s">
+      <c r="B176" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="C176" s="22" t="s">
+      <c r="C176" s="21" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="27" t="s">
+      <c r="A177" s="26" t="s">
         <v>511</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B177" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="21" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="27" t="s">
+      <c r="A178" s="26" t="s">
         <v>514</v>
       </c>
-      <c r="B178" s="27" t="s">
+      <c r="B178" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="C178" s="22" t="s">
+      <c r="C178" s="21" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="27" t="s">
+      <c r="A179" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="B179" s="27" t="s">
+      <c r="B179" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="21" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="27" t="s">
+      <c r="A180" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="B180" s="27" t="s">
+      <c r="B180" s="26" t="s">
         <v>521</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="21" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="27" t="s">
+      <c r="A181" s="26" t="s">
         <v>523</v>
       </c>
-      <c r="B181" s="27" t="s">
+      <c r="B181" s="26" t="s">
         <v>524</v>
       </c>
-      <c r="C181" s="22" t="s">
+      <c r="C181" s="21" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="27" t="s">
+      <c r="A182" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="B182" s="27" t="s">
+      <c r="B182" s="26" t="s">
         <v>527</v>
       </c>
-      <c r="C182" s="22" t="s">
+      <c r="C182" s="21" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="27" t="s">
+      <c r="A183" s="26" t="s">
         <v>529</v>
       </c>
-      <c r="B183" s="27" t="s">
+      <c r="B183" s="26" t="s">
         <v>530</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="21" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="27" t="s">
+      <c r="A184" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="B184" s="27" t="s">
+      <c r="B184" s="26" t="s">
         <v>533</v>
       </c>
-      <c r="C184" s="22" t="s">
+      <c r="C184" s="21" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="27" t="s">
+      <c r="A185" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="B185" s="27" t="s">
+      <c r="B185" s="26" t="s">
         <v>536</v>
       </c>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="21" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="27" t="s">
+      <c r="A186" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="B186" s="27" t="s">
+      <c r="B186" s="26" t="s">
         <v>539</v>
       </c>
-      <c r="C186" s="22" t="s">
+      <c r="C186" s="21" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="27" t="s">
+      <c r="A187" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="B187" s="27" t="s">
+      <c r="B187" s="26" t="s">
         <v>542</v>
       </c>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="21" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="27" t="s">
+      <c r="A188" s="26" t="s">
         <v>544</v>
       </c>
-      <c r="B188" s="27" t="s">
+      <c r="B188" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="C188" s="22" t="s">
+      <c r="C188" s="21" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="21" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C190" s="22" t="s">
+      <c r="C190" s="21" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="B191" s="25" t="s">
+      <c r="B191" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="16" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B192" s="25" t="s">
+      <c r="B192" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="C192" s="22" t="s">
+      <c r="C192" s="21" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="B193" s="25" t="s">
+      <c r="B193" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C193" s="22" t="s">
+      <c r="C193" s="21" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="B194" s="25" t="s">
+      <c r="B194" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C194" s="22" t="s">
+      <c r="C194" s="21" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C195" s="22" t="s">
+      <c r="C195" s="21" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="B196" s="25" t="s">
+      <c r="B196" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C196" s="22" t="s">
+      <c r="C196" s="21" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B197" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="C197" s="22" t="s">
+      <c r="C197" s="21" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B198" s="25" t="s">
+      <c r="B198" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="C198" s="22" t="s">
+      <c r="C198" s="21" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="B199" s="25" t="s">
+      <c r="B199" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="C199" s="22" t="s">
+      <c r="C199" s="21" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="B200" s="25" t="s">
+      <c r="B200" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="C200" s="22" t="s">
+      <c r="C200" s="21" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="27" t="s">
+      <c r="A201" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="B201" s="27" t="s">
+      <c r="B201" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="C201" s="22" t="s">
+      <c r="C201" s="21" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="27" t="s">
+      <c r="A202" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B202" s="26" t="s">
         <v>573</v>
       </c>
-      <c r="C202" s="22" t="s">
+      <c r="C202" s="21" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="27" t="s">
+      <c r="A203" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="B203" s="27" t="s">
+      <c r="B203" s="26" t="s">
         <v>576</v>
       </c>
-      <c r="C203" s="22" t="s">
+      <c r="C203" s="21" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="28" t="s">
+      <c r="A204" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="B204" s="28" t="s">
+      <c r="B204" s="27" t="s">
         <v>579</v>
       </c>
-      <c r="C204" s="22" t="s">
+      <c r="C204" s="21" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="27" t="s">
+      <c r="A205" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="B205" s="27" t="s">
+      <c r="B205" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="C205" s="22" t="s">
+      <c r="C205" s="21" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="27" t="s">
+      <c r="A206" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="B206" s="27" t="s">
+      <c r="B206" s="26" t="s">
         <v>585</v>
       </c>
-      <c r="C206" s="22" t="s">
+      <c r="C206" s="21" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="27" t="s">
+      <c r="A207" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="B207" s="27" t="s">
+      <c r="B207" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="C207" s="22" t="s">
+      <c r="C207" s="21" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="27" t="s">
+      <c r="A208" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="B208" s="27" t="s">
+      <c r="B208" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="C208" s="22" t="s">
+      <c r="C208" s="21" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="27" t="s">
+      <c r="A209" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="B209" s="27" t="s">
+      <c r="B209" s="26" t="s">
         <v>594</v>
       </c>
-      <c r="C209" s="22" t="s">
+      <c r="C209" s="21" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="27" t="s">
+      <c r="A210" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="B210" s="27" t="s">
+      <c r="B210" s="26" t="s">
         <v>597</v>
       </c>
-      <c r="C210" s="22" t="s">
+      <c r="C210" s="21" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="27" t="s">
+      <c r="A211" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="B211" s="27" t="s">
+      <c r="B211" s="26" t="s">
         <v>600</v>
       </c>
-      <c r="C211" s="22" t="s">
+      <c r="C211" s="21" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>602</v>
       </c>
       <c r="B212" t="s">
         <v>603</v>
       </c>
-      <c r="C212" s="17" t="s">
+      <c r="C212" s="16" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>605</v>
       </c>
       <c r="B213" t="s">
         <v>606</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C213" s="17" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="5" t="s">
         <v>605</v>
       </c>
       <c r="B214" t="s">
         <v>608</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C214" s="17" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>610</v>
       </c>
       <c r="B215" t="s">
         <v>611</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C215" s="17" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>613</v>
       </c>
       <c r="B216" t="s">
         <v>614</v>
       </c>
-      <c r="C216" s="18" t="s">
+      <c r="C216" s="17" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>616</v>
       </c>
       <c r="B217" t="s">
         <v>617</v>
       </c>
-      <c r="C217" s="18" t="s">
+      <c r="C217" s="17" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="5" t="s">
         <v>619</v>
       </c>
       <c r="B218" t="s">
         <v>620</v>
       </c>
-      <c r="C218" s="18" t="s">
+      <c r="C218" s="17" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>622</v>
       </c>
       <c r="B219" t="s">
         <v>623</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C219" s="17" t="s">
         <v>624</v>
       </c>
     </row>
@@ -5935,7 +5938,7 @@
       <c r="B220" t="s">
         <v>626</v>
       </c>
-      <c r="C220" s="17" t="s">
+      <c r="C220" s="16" t="s">
         <v>627</v>
       </c>
     </row>
@@ -5946,7 +5949,7 @@
       <c r="B221" t="s">
         <v>629</v>
       </c>
-      <c r="C221" s="17" t="s">
+      <c r="C221" s="16" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5957,7 +5960,7 @@
       <c r="B222" t="s">
         <v>632</v>
       </c>
-      <c r="C222" s="17" t="s">
+      <c r="C222" s="16" t="s">
         <v>633</v>
       </c>
     </row>
@@ -5968,7 +5971,7 @@
       <c r="B223" t="s">
         <v>635</v>
       </c>
-      <c r="C223" s="17" t="s">
+      <c r="C223" s="16" t="s">
         <v>636</v>
       </c>
     </row>
@@ -5979,7 +5982,7 @@
       <c r="B224" t="s">
         <v>638</v>
       </c>
-      <c r="C224" s="17" t="s">
+      <c r="C224" s="16" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5990,7 +5993,7 @@
       <c r="B225" t="s">
         <v>641</v>
       </c>
-      <c r="C225" s="17" t="s">
+      <c r="C225" s="16" t="s">
         <v>642</v>
       </c>
     </row>
@@ -6001,7 +6004,7 @@
       <c r="B226" t="s">
         <v>644</v>
       </c>
-      <c r="C226" s="17" t="s">
+      <c r="C226" s="16" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6012,62 +6015,62 @@
       <c r="B227" t="s">
         <v>647</v>
       </c>
-      <c r="C227" s="17" t="s">
+      <c r="C227" s="16" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="5" t="s">
         <v>649</v>
       </c>
       <c r="B228" t="s">
         <v>650</v>
       </c>
-      <c r="C228" s="17" t="s">
+      <c r="C228" s="16" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>652</v>
       </c>
       <c r="B229" t="s">
         <v>653</v>
       </c>
-      <c r="C229" s="17" t="s">
+      <c r="C229" s="16" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="5" t="s">
         <v>655</v>
       </c>
       <c r="B230" t="s">
         <v>656</v>
       </c>
-      <c r="C230" s="17" t="s">
+      <c r="C230" s="16" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
         <v>658</v>
       </c>
       <c r="B231" t="s">
         <v>659</v>
       </c>
-      <c r="C231" s="17" t="s">
+      <c r="C231" s="16" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="232" s="4" customFormat="1" spans="1:3">
-      <c r="A232" s="29" t="s">
+    <row r="232" s="3" customFormat="1" spans="1:3">
+      <c r="A232" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B232" s="30" t="s">
+      <c r="B232" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="C232" s="31" t="s">
+      <c r="C232" s="8" t="s">
         <v>663</v>
       </c>
     </row>
@@ -6079,7 +6082,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="663">
   <si>
     <t>key</t>
   </si>
@@ -845,7 +845,7 @@
     <t>飞虫单挑炮台（虫）</t>
   </si>
   <si>
-    <t>Flying Insectoids vs. Turret (Insectoids)</t>
+    <t>Flying Bugs vs. Turret (Insectoids)</t>
   </si>
   <si>
     <t>CaiJi_JianZao_ZhanDou_Chong</t>
@@ -902,7 +902,7 @@
     <t>建筑单位</t>
   </si>
   <si>
-    <t>Construction Unit</t>
+    <t>Constr. Unit</t>
   </si>
   <si>
     <t>HuoDongDanWei</t>
@@ -971,7 +971,7 @@
     <t>基地</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Command Center</t>
   </si>
   <si>
     <t>MinFang</t>
@@ -1215,7 +1215,7 @@
     <t>离开房虫</t>
   </si>
   <si>
-    <t>Exit Population Drone</t>
+    <t>Exit PopuLifter Drone</t>
   </si>
   <si>
     <t>JiJieDian</t>
@@ -1246,7 +1246,7 @@
 集结点</t>
   </si>
   <si>
-    <t>Worker Larva
+    <t>Worker Drone
 Rally Point</t>
   </si>
   <si>
@@ -1798,7 +1798,7 @@
     <t>工虫</t>
   </si>
   <si>
-    <t>Worker Larva</t>
+    <t>Worker Drone</t>
   </si>
   <si>
     <t>KeyFeiJi</t>
@@ -1892,9 +1892,6 @@
   </si>
   <si>
     <t>KeyJiDi</t>
-  </si>
-  <si>
-    <t>Command Center</t>
   </si>
   <si>
     <t>KeyBingYing</t>
@@ -2581,12 +2578,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2597,6 +2588,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3511,8 +3508,8 @@
   <sheetPr/>
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C164" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="C146" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5598,12 +5595,12 @@
         <v>256</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>548</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="24" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B190" s="24" t="s">
         <v>262</v>
@@ -5614,18 +5611,18 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B191" s="24" t="s">
         <v>259</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B192" s="24" t="s">
         <v>265</v>
@@ -5636,29 +5633,29 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B193" s="24" t="s">
         <v>268</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="24" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B194" s="24" t="s">
         <v>280</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B195" s="24" t="s">
         <v>274</v>
@@ -5669,7 +5666,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B196" s="24" t="s">
         <v>271</v>
@@ -5680,398 +5677,398 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B197" s="24" t="s">
         <v>283</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="24" t="s">
+        <v>560</v>
+      </c>
+      <c r="B198" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="B198" s="24" t="s">
+      <c r="C198" s="21" t="s">
         <v>562</v>
-      </c>
-      <c r="C198" s="21" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B199" s="24" t="s">
         <v>286</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="B200" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="C200" s="21" t="s">
         <v>567</v>
-      </c>
-      <c r="C200" s="21" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="B201" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="B201" s="26" t="s">
+      <c r="C201" s="21" t="s">
         <v>570</v>
-      </c>
-      <c r="C201" s="21" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B202" s="26" t="s">
         <v>572</v>
       </c>
-      <c r="B202" s="26" t="s">
+      <c r="C202" s="21" t="s">
         <v>573</v>
-      </c>
-      <c r="C202" s="21" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="B203" s="26" t="s">
         <v>575</v>
       </c>
-      <c r="B203" s="26" t="s">
+      <c r="C203" s="21" t="s">
         <v>576</v>
-      </c>
-      <c r="C203" s="21" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="B204" s="27" t="s">
         <v>578</v>
       </c>
-      <c r="B204" s="27" t="s">
+      <c r="C204" s="21" t="s">
         <v>579</v>
-      </c>
-      <c r="C204" s="21" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="B205" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="B205" s="26" t="s">
+      <c r="C205" s="21" t="s">
         <v>582</v>
-      </c>
-      <c r="C205" s="21" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="26" t="s">
+        <v>583</v>
+      </c>
+      <c r="B206" s="26" t="s">
         <v>584</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="C206" s="21" t="s">
         <v>585</v>
-      </c>
-      <c r="C206" s="21" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="26" t="s">
+        <v>586</v>
+      </c>
+      <c r="B207" s="26" t="s">
         <v>587</v>
       </c>
-      <c r="B207" s="26" t="s">
+      <c r="C207" s="21" t="s">
         <v>588</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="B208" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="B208" s="26" t="s">
+      <c r="C208" s="21" t="s">
         <v>591</v>
-      </c>
-      <c r="C208" s="21" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="B209" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="B209" s="26" t="s">
+      <c r="C209" s="21" t="s">
         <v>594</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="B210" s="26" t="s">
         <v>596</v>
       </c>
-      <c r="B210" s="26" t="s">
+      <c r="C210" s="21" t="s">
         <v>597</v>
-      </c>
-      <c r="C210" s="21" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="B211" s="26" t="s">
         <v>599</v>
       </c>
-      <c r="B211" s="26" t="s">
+      <c r="C211" s="21" t="s">
         <v>600</v>
-      </c>
-      <c r="C211" s="21" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B212" t="s">
         <v>602</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" s="16" t="s">
         <v>603</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B213" t="s">
         <v>605</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" s="17" t="s">
         <v>606</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B214" t="s">
+        <v>607</v>
+      </c>
+      <c r="C214" s="17" t="s">
         <v>608</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B215" t="s">
         <v>610</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" s="17" t="s">
         <v>611</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B216" t="s">
         <v>613</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" s="17" t="s">
         <v>614</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B217" t="s">
         <v>616</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" s="17" t="s">
         <v>617</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B218" t="s">
         <v>619</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" s="17" t="s">
         <v>620</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B219" t="s">
         <v>622</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" s="17" t="s">
         <v>623</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>624</v>
+      </c>
+      <c r="B220" t="s">
         <v>625</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" s="16" t="s">
         <v>626</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
+        <v>627</v>
+      </c>
+      <c r="B221" t="s">
         <v>628</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" s="16" t="s">
         <v>629</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>630</v>
+      </c>
+      <c r="B222" t="s">
         <v>631</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" s="16" t="s">
         <v>632</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>633</v>
+      </c>
+      <c r="B223" t="s">
         <v>634</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" s="16" t="s">
         <v>635</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>636</v>
+      </c>
+      <c r="B224" t="s">
         <v>637</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" s="16" t="s">
         <v>638</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>639</v>
+      </c>
+      <c r="B225" t="s">
         <v>640</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" s="16" t="s">
         <v>641</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>642</v>
+      </c>
+      <c r="B226" t="s">
         <v>643</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" s="16" t="s">
         <v>644</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
+        <v>645</v>
+      </c>
+      <c r="B227" t="s">
         <v>646</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" s="16" t="s">
         <v>647</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B228" t="s">
         <v>649</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" s="16" t="s">
         <v>650</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B229" t="s">
         <v>652</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" s="16" t="s">
         <v>653</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B230" t="s">
         <v>655</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" s="16" t="s">
         <v>656</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B231" t="s">
         <v>658</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" s="16" t="s">
         <v>659</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1" spans="1:3">
       <c r="A232" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B232" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="C232" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>663</v>
       </c>
     </row>
   </sheetData>
@@ -6082,7 +6079,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="661">
   <si>
     <t>key</t>
   </si>
@@ -1205,8 +1205,7 @@
 地堡</t>
   </si>
   <si>
-    <t>Exit
-Bunker</t>
+    <t>Exit Bunker</t>
   </si>
   <si>
     <t>LiKaiFangChong</t>
@@ -1215,7 +1214,7 @@
     <t>离开房虫</t>
   </si>
   <si>
-    <t>Exit PopuLifter Drone</t>
+    <t>Disembark</t>
   </si>
   <si>
     <t>JiJieDian</t>
@@ -1909,15 +1908,9 @@
     <t>KeyPaoTai</t>
   </si>
   <si>
-    <t>Gun Emplacement</t>
-  </si>
-  <si>
     <t>KeyChongChao</t>
   </si>
   <si>
-    <t>Bug Hive</t>
-  </si>
-  <si>
     <t>KeyJiChang</t>
   </si>
   <si>
@@ -2041,7 +2034,7 @@
     <t>房虫怪</t>
   </si>
   <si>
-    <t>Hive Bug Mutant</t>
+    <t>PopuLifter Drone Mutant</t>
   </si>
   <si>
     <t>KeyFangKongBingGuai</t>
@@ -3508,8 +3501,8 @@
   <sheetPr/>
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C146" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5639,23 +5632,23 @@
         <v>268</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>553</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B194" s="24" t="s">
         <v>280</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>555</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="24" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B195" s="24" t="s">
         <v>274</v>
@@ -5666,7 +5659,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="24" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B196" s="24" t="s">
         <v>271</v>
@@ -5677,398 +5670,398 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B197" s="24" t="s">
         <v>283</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="24" t="s">
+        <v>558</v>
+      </c>
+      <c r="B198" s="24" t="s">
+        <v>559</v>
+      </c>
+      <c r="C198" s="21" t="s">
         <v>560</v>
-      </c>
-      <c r="B198" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="C198" s="21" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="24" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B199" s="24" t="s">
         <v>286</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="B200" s="24" t="s">
+        <v>564</v>
+      </c>
+      <c r="C200" s="21" t="s">
         <v>565</v>
-      </c>
-      <c r="B200" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="C200" s="21" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="C201" s="21" t="s">
         <v>568</v>
-      </c>
-      <c r="B201" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="C201" s="21" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>570</v>
+      </c>
+      <c r="C202" s="21" t="s">
         <v>571</v>
-      </c>
-      <c r="B202" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="C202" s="21" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="C203" s="21" t="s">
         <v>574</v>
-      </c>
-      <c r="B203" s="26" t="s">
-        <v>575</v>
-      </c>
-      <c r="C203" s="21" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="27" t="s">
+        <v>575</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C204" s="21" t="s">
         <v>577</v>
-      </c>
-      <c r="B204" s="27" t="s">
-        <v>578</v>
-      </c>
-      <c r="C204" s="21" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="C205" s="21" t="s">
         <v>580</v>
-      </c>
-      <c r="B205" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="C205" s="21" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="26" t="s">
+        <v>581</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="C206" s="21" t="s">
         <v>583</v>
-      </c>
-      <c r="B206" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="C206" s="21" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="26" t="s">
+        <v>584</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>585</v>
+      </c>
+      <c r="C207" s="21" t="s">
         <v>586</v>
-      </c>
-      <c r="B207" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="26" t="s">
+        <v>587</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>588</v>
+      </c>
+      <c r="C208" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="B208" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="C208" s="21" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="26" t="s">
+        <v>590</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="C209" s="21" t="s">
         <v>592</v>
-      </c>
-      <c r="B209" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="C210" s="21" t="s">
         <v>595</v>
-      </c>
-      <c r="B210" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="C210" s="21" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="C211" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="B211" s="26" t="s">
-        <v>599</v>
-      </c>
-      <c r="C211" s="21" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B212" t="s">
+        <v>600</v>
+      </c>
+      <c r="C212" s="16" t="s">
         <v>601</v>
-      </c>
-      <c r="B212" t="s">
-        <v>602</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B213" t="s">
+        <v>603</v>
+      </c>
+      <c r="C213" s="17" t="s">
         <v>604</v>
-      </c>
-      <c r="B213" t="s">
-        <v>605</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B214" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B215" t="s">
+        <v>608</v>
+      </c>
+      <c r="C215" s="17" t="s">
         <v>609</v>
-      </c>
-      <c r="B215" t="s">
-        <v>610</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="B216" t="s">
+        <v>611</v>
+      </c>
+      <c r="C216" s="17" t="s">
         <v>612</v>
-      </c>
-      <c r="B216" t="s">
-        <v>613</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B217" t="s">
+        <v>614</v>
+      </c>
+      <c r="C217" s="17" t="s">
         <v>615</v>
-      </c>
-      <c r="B217" t="s">
-        <v>616</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B218" t="s">
+        <v>617</v>
+      </c>
+      <c r="C218" s="17" t="s">
         <v>618</v>
-      </c>
-      <c r="B218" t="s">
-        <v>619</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="B219" t="s">
+        <v>620</v>
+      </c>
+      <c r="C219" s="17" t="s">
         <v>621</v>
-      </c>
-      <c r="B219" t="s">
-        <v>622</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>622</v>
+      </c>
+      <c r="B220" t="s">
+        <v>623</v>
+      </c>
+      <c r="C220" s="16" t="s">
         <v>624</v>
-      </c>
-      <c r="B220" t="s">
-        <v>625</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
+        <v>625</v>
+      </c>
+      <c r="B221" t="s">
+        <v>626</v>
+      </c>
+      <c r="C221" s="16" t="s">
         <v>627</v>
-      </c>
-      <c r="B221" t="s">
-        <v>628</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>628</v>
+      </c>
+      <c r="B222" t="s">
+        <v>629</v>
+      </c>
+      <c r="C222" s="16" t="s">
         <v>630</v>
-      </c>
-      <c r="B222" t="s">
-        <v>631</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>631</v>
+      </c>
+      <c r="B223" t="s">
+        <v>632</v>
+      </c>
+      <c r="C223" s="16" t="s">
         <v>633</v>
-      </c>
-      <c r="B223" t="s">
-        <v>634</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>634</v>
+      </c>
+      <c r="B224" t="s">
+        <v>635</v>
+      </c>
+      <c r="C224" s="16" t="s">
         <v>636</v>
-      </c>
-      <c r="B224" t="s">
-        <v>637</v>
-      </c>
-      <c r="C224" s="16" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>637</v>
+      </c>
+      <c r="B225" t="s">
+        <v>638</v>
+      </c>
+      <c r="C225" s="16" t="s">
         <v>639</v>
-      </c>
-      <c r="B225" t="s">
-        <v>640</v>
-      </c>
-      <c r="C225" s="16" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
+        <v>640</v>
+      </c>
+      <c r="B226" t="s">
+        <v>641</v>
+      </c>
+      <c r="C226" s="16" t="s">
         <v>642</v>
-      </c>
-      <c r="B226" t="s">
-        <v>643</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
+        <v>643</v>
+      </c>
+      <c r="B227" t="s">
+        <v>644</v>
+      </c>
+      <c r="C227" s="16" t="s">
         <v>645</v>
-      </c>
-      <c r="B227" t="s">
-        <v>646</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B228" t="s">
+        <v>647</v>
+      </c>
+      <c r="C228" s="16" t="s">
         <v>648</v>
-      </c>
-      <c r="B228" t="s">
-        <v>649</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B229" t="s">
+        <v>650</v>
+      </c>
+      <c r="C229" s="16" t="s">
         <v>651</v>
-      </c>
-      <c r="B229" t="s">
-        <v>652</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B230" t="s">
+        <v>653</v>
+      </c>
+      <c r="C230" s="16" t="s">
         <v>654</v>
-      </c>
-      <c r="B230" t="s">
-        <v>655</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B231" t="s">
+        <v>656</v>
+      </c>
+      <c r="C231" s="16" t="s">
         <v>657</v>
-      </c>
-      <c r="B231" t="s">
-        <v>658</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1" spans="1:3">
       <c r="A232" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C232" s="8" t="s">
         <v>660</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -6079,7 +6072,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="662">
   <si>
     <t>key</t>
   </si>
@@ -902,7 +902,7 @@
     <t>建筑单位</t>
   </si>
   <si>
-    <t>Constr. Unit</t>
+    <t>Construction Unit</t>
   </si>
   <si>
     <t>HuoDongDanWei</t>
@@ -2062,6 +2062,9 @@
   </si>
   <si>
     <t>Please click the ground to place the building</t>
+  </si>
+  <si>
+    <t>QingDianJiYaoGenSuiDeMuBiaoDanWei</t>
   </si>
   <si>
     <t>请点击要跟随的目标单位</t>
@@ -3501,8 +3504,8 @@
   <sheetPr/>
   <dimension ref="A1:C232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5857,211 +5860,211 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B214" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C214" s="17" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B215" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C215" s="17" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B216" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C216" s="17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B217" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C217" s="17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="5" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B218" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C218" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B219" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C219" s="17" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B220" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B221" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B222" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B223" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B224" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B225" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B226" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B227" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B228" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="5" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B229" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B230" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="5" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B231" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="232" s="3" customFormat="1" spans="1:3">
       <c r="A232" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="641">
   <si>
     <t>key</t>
   </si>
@@ -845,7 +845,7 @@
     <t>飞虫单挑炮台（虫）</t>
   </si>
   <si>
-    <t>Flying Bugs vs. Turret (Insectoids)</t>
+    <t>Flying Bugs vs. Turrets (Insectoids)</t>
   </si>
   <si>
     <t>CaiJi_JianZao_ZhanDou_Chong</t>
@@ -902,7 +902,7 @@
     <t>建筑单位</t>
   </si>
   <si>
-    <t>Construction Unit</t>
+    <t>Structures</t>
   </si>
   <si>
     <t>HuoDongDanWei</t>
@@ -965,128 +965,6 @@
     <t>Dest. Rank</t>
   </si>
   <si>
-    <t>JiDi</t>
-  </si>
-  <si>
-    <t>基地</t>
-  </si>
-  <si>
-    <t>Command Center</t>
-  </si>
-  <si>
-    <t>MinFang</t>
-  </si>
-  <si>
-    <t>民房</t>
-  </si>
-  <si>
-    <t>Civilian
-Building</t>
-  </si>
-  <si>
-    <t>BingYing</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>Barracks</t>
-  </si>
-  <si>
-    <t>DiBao</t>
-  </si>
-  <si>
-    <t>地堡</t>
-  </si>
-  <si>
-    <t>Bunker</t>
-  </si>
-  <si>
-    <t>PaoTai</t>
-  </si>
-  <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>Turret</t>
-  </si>
-  <si>
-    <t>ZhongCheChang</t>
-  </si>
-  <si>
-    <t>重车厂</t>
-  </si>
-  <si>
-    <t>Heavy Vehicle Factory</t>
-  </si>
-  <si>
-    <t>JiChang</t>
-  </si>
-  <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>Airfield</t>
-  </si>
-  <si>
-    <t>FangDun</t>
-  </si>
-  <si>
-    <t>方墩</t>
-  </si>
-  <si>
-    <t>Square Pillbox</t>
-  </si>
-  <si>
-    <t>ChongChao</t>
-  </si>
-  <si>
-    <t>虫巢</t>
-  </si>
-  <si>
-    <t>Hive</t>
-  </si>
-  <si>
-    <t>ChongYing</t>
-  </si>
-  <si>
-    <t>虫营</t>
-  </si>
-  <si>
-    <t>Insectoid Barracks</t>
-  </si>
-  <si>
-    <t>NiTaiYuan</t>
-  </si>
-  <si>
-    <t>拟态源</t>
-  </si>
-  <si>
-    <t>Mimicry Source</t>
-  </si>
-  <si>
-    <t>FeiTa</t>
-  </si>
-  <si>
-    <t>飞
-塔</t>
-  </si>
-  <si>
-    <t>Flying
-Tower</t>
-  </si>
-  <si>
-    <t>TaiSui</t>
-  </si>
-  <si>
-    <t>太
-岁</t>
-  </si>
-  <si>
-    <t>Tai-
-sui</t>
-  </si>
-  <si>
     <t>QuXiaoXuanZhong</t>
   </si>
   <si>
@@ -1111,7 +989,7 @@
     <t>晶体矿</t>
   </si>
   <si>
-    <t>Crysta</t>
+    <t>Cryst</t>
   </si>
   <si>
     <t>RanQiKuang</t>
@@ -1680,7 +1558,7 @@
     <t>近战虫和枪虫的前置建筑，只需1个就够了</t>
   </si>
   <si>
-    <t>Prerequisite building for melee bugs and gun bugs, only 1 required</t>
+    <t>Prerequisite structure for melee bugs and rifle bugs, only 1 required</t>
   </si>
   <si>
     <t>MiaoShu_FeiTa</t>
@@ -1689,7 +1567,7 @@
     <t>飞虫的前置建筑，只需1个就够了</t>
   </si>
   <si>
-    <t>Prerequisite building for flying bugs, only 1 required</t>
+    <t>Prerequisite structure for flying bugs, only 1 required</t>
   </si>
   <si>
     <t>MiaoShu_NiTaiYuan</t>
@@ -1698,7 +1576,7 @@
     <t>绿色坦克的前置建筑，只需1个就够了</t>
   </si>
   <si>
-    <t>Prerequisite building for green tanks, only 1 required</t>
+    <t>Prerequisite structure for green tanks, only 1 required</t>
   </si>
   <si>
     <t>MiaoShu_TaiSui</t>
@@ -1734,12 +1612,15 @@
     <t>苔蔓(wàn)</t>
   </si>
   <si>
-    <t>Moss Vines</t>
+    <t>Mossy Vines</t>
   </si>
   <si>
     <t>KeyFangDun</t>
   </si>
   <si>
+    <t>方墩</t>
+  </si>
+  <si>
     <t>Square Pillar</t>
   </si>
   <si>
@@ -1893,33 +1774,81 @@
     <t>KeyJiDi</t>
   </si>
   <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>Command Center</t>
+  </si>
+  <si>
     <t>KeyBingYing</t>
   </si>
   <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
     <t>KeyMinFang</t>
   </si>
   <si>
+    <t>民房</t>
+  </si>
+  <si>
     <t>Supply Depots</t>
   </si>
   <si>
     <t>KeyDiBao</t>
   </si>
   <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>Bunker</t>
+  </si>
+  <si>
     <t>KeyPaoTai</t>
   </si>
   <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>Turret</t>
+  </si>
+  <si>
     <t>KeyChongChao</t>
   </si>
   <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
     <t>KeyJiChang</t>
   </si>
   <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>Airfield</t>
+  </si>
+  <si>
     <t>KeyZhongCheChang</t>
   </si>
   <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>Heavy Vehicle Factory</t>
+  </si>
+  <si>
     <t>KeyChongYing</t>
   </si>
   <si>
+    <t>虫营</t>
+  </si>
+  <si>
     <t>Bug Barracks</t>
   </si>
   <si>
@@ -1935,6 +1864,9 @@
     <t>KeyNiTaiYuan</t>
   </si>
   <si>
+    <t>拟态源</t>
+  </si>
+  <si>
     <t>Mimic Source</t>
   </si>
   <si>
@@ -1944,7 +1876,7 @@
     <t>太岁</t>
   </si>
   <si>
-    <t>Giant Flesh Mass</t>
+    <t>Taisui</t>
   </si>
   <si>
     <t>KeyQiangChongGuai</t>
@@ -2061,7 +1993,7 @@
     <t>请点击地面放置建筑</t>
   </si>
   <si>
-    <t>Please click the ground to place the building</t>
+    <t>Please click the ground to place the structure</t>
   </si>
   <si>
     <t>QingDianJiYaoGenSuiDeMuBiaoDanWei</t>
@@ -2097,7 +2029,7 @@
     <t>请点击地面设置此建筑产出活动单位的集结点</t>
   </si>
   <si>
-    <t>Please click the ground to set the rally point for mobile units produced by this building</t>
+    <t>Please click the ground to set the rally point for mobile units produced by this structure</t>
   </si>
   <si>
     <t>QingZaiPingMuShangTuoDongYiKuangXuanDanWei</t>
@@ -3502,10 +3434,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C232"/>
+  <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C81" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4483,19 +4415,19 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" ht="28.5" spans="1:3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B89" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="18" t="s">
+      <c r="C89" s="28" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>261</v>
       </c>
       <c r="B90" t="s">
@@ -4506,7 +4438,7 @@
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>264</v>
       </c>
       <c r="B91" t="s">
@@ -4517,10 +4449,10 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C92" s="16" t="s">
@@ -4528,10 +4460,10 @@
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>271</v>
       </c>
       <c r="C93" s="16" t="s">
@@ -4567,18 +4499,18 @@
       <c r="B96" t="s">
         <v>280</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C96" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" ht="28.5" spans="1:3">
       <c r="A97" t="s">
         <v>282</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" s="9" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4600,7 +4532,7 @@
       <c r="B99" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="C99" s="16" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4611,7 +4543,7 @@
       <c r="B100" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="9" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4622,99 +4554,99 @@
       <c r="B101" t="s">
         <v>295</v>
       </c>
-      <c r="C101" s="16" t="s">
+      <c r="C101" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" t="s">
         <v>297</v>
       </c>
       <c r="B102" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="28" t="s">
+      <c r="C102" s="16" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
+    <row r="103" ht="42.75" spans="1:3">
+      <c r="A103" t="s">
         <v>300</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="16" t="s">
+      <c r="C103" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
+    <row r="104" ht="28.5" spans="1:3">
+      <c r="A104" t="s">
         <v>303</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C104" s="16" t="s">
+      <c r="C104" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
+    <row r="105" ht="28.5" spans="1:3">
+      <c r="A105" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C105" s="16" t="s">
+      <c r="C105" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
+    <row r="106" ht="28.5" spans="1:3">
+      <c r="A106" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="16" t="s">
+      <c r="C106" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" ht="28.5" spans="1:3">
       <c r="A107" t="s">
         <v>312</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="16" t="s">
+      <c r="C107" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" ht="42.75" spans="1:3">
       <c r="A108" t="s">
         <v>315</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="16" t="s">
+      <c r="C108" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" ht="42.75" spans="1:3">
       <c r="A109" t="s">
         <v>318</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="110" ht="28.5" spans="1:3">
+    <row r="110" ht="42.75" spans="1:3">
       <c r="A110" t="s">
         <v>321</v>
       </c>
@@ -4725,223 +4657,223 @@
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" ht="42.75" spans="1:3">
       <c r="A111" t="s">
         <v>324</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C111" s="16" t="s">
+      <c r="C111" s="9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="112" ht="42.75" spans="1:3">
+      <c r="A112" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="112" ht="28.5" spans="1:3">
-      <c r="A112" t="s">
+      <c r="B112" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="C112" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="16" t="s">
+    </row>
+    <row r="113" ht="42.75" spans="1:3">
+      <c r="A113" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="113" ht="28.5" spans="1:3">
-      <c r="A113" t="s">
+      <c r="B113" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="C113" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="9" t="s">
+    </row>
+    <row r="114" ht="42.75" spans="1:3">
+      <c r="A114" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+      <c r="B114" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C114" t="s">
+    </row>
+    <row r="115" ht="42.75" spans="1:3">
+      <c r="A115" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+      <c r="B115" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="16" t="s">
+    </row>
+    <row r="116" ht="28.5" spans="1:3">
+      <c r="A116" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="116" ht="42.75" spans="1:3">
-      <c r="A116" t="s">
+      <c r="B116" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="C116" s="9" t="s">
         <v>340</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="117" ht="28.5" spans="1:3">
       <c r="A117" t="s">
+        <v>341</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="C117" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C117" s="9" t="s">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="118" ht="28.5" spans="1:3">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>345</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="C118" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C118" s="9" t="s">
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="119" ht="28.5" spans="1:3">
-      <c r="A119" t="s">
+      <c r="B119" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="C119" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="9" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="120" ht="28.5" spans="1:3">
-      <c r="A120" t="s">
+      <c r="B120" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="C120" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C120" s="9" t="s">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="121" ht="42.75" spans="1:3">
-      <c r="A121" t="s">
+      <c r="B121" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="C121" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="C121" s="9" t="s">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="122" ht="42.75" spans="1:3">
-      <c r="A122" t="s">
+      <c r="B122" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="C122" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C122" s="9" t="s">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="123" ht="42.75" spans="1:3">
-      <c r="A123" t="s">
+      <c r="B123" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="C123" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C123" s="9" t="s">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="124" ht="42.75" spans="1:3">
-      <c r="A124" t="s">
+      <c r="B124" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="C124" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="125" ht="42.75" spans="1:3">
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>365</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="126" ht="42.75" spans="1:3">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>368</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="16" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="127" ht="42.75" spans="1:3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>371</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="9" t="s">
+      <c r="C127" s="16" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="128" ht="42.75" spans="1:3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="9" t="s">
+      <c r="C128" s="16" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="129" ht="28.5" spans="1:3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>377</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="C129" s="9" t="s">
+      <c r="C129" s="16" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="130" ht="28.5" spans="1:3">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>380</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="16" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4949,7 +4881,7 @@
       <c r="A131" t="s">
         <v>383</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="21" t="s">
         <v>384</v>
       </c>
       <c r="C131" s="16" t="s">
@@ -4960,7 +4892,7 @@
       <c r="A132" t="s">
         <v>386</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="21" t="s">
         <v>387</v>
       </c>
       <c r="C132" s="16" t="s">
@@ -4971,7 +4903,7 @@
       <c r="A133" t="s">
         <v>389</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="21" t="s">
         <v>390</v>
       </c>
       <c r="C133" s="16" t="s">
@@ -4982,7 +4914,7 @@
       <c r="A134" t="s">
         <v>392</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="21" t="s">
         <v>393</v>
       </c>
       <c r="C134" s="16" t="s">
@@ -4993,1078 +4925,935 @@
       <c r="A135" t="s">
         <v>395</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>396</v>
+      <c r="B135" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>398</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>384</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>401</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>402</v>
+        <v>397</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>398</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>404</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>401</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>407</v>
-      </c>
-      <c r="B139" s="5" t="s">
-        <v>408</v>
+        <v>403</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>404</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>410</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>411</v>
+        <v>406</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>413</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>414</v>
+        <v>408</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>409</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>419</v>
-      </c>
-      <c r="B143" s="22" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>415</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>422</v>
-      </c>
-      <c r="B144" s="21" t="s">
-        <v>423</v>
+        <v>417</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>418</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>425</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>426</v>
+        <v>420</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>428</v>
-      </c>
-      <c r="B146" s="21" t="s">
-        <v>429</v>
+        <v>421</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>422</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>431</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>432</v>
+        <v>424</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>425</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>434</v>
-      </c>
-      <c r="B148" s="21" t="s">
-        <v>420</v>
+        <v>427</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>428</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>435</v>
-      </c>
-      <c r="B149" s="21" t="s">
-        <v>423</v>
+        <v>430</v>
+      </c>
+      <c r="B149" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>436</v>
-      </c>
-      <c r="B150" s="21" t="s">
-        <v>437</v>
+        <v>433</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>434</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>439</v>
-      </c>
-      <c r="B151" s="21" t="s">
-        <v>440</v>
+        <v>436</v>
+      </c>
+      <c r="B151" s="20" t="s">
+        <v>437</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>442</v>
-      </c>
-      <c r="B152" s="21" t="s">
-        <v>443</v>
+        <v>439</v>
+      </c>
+      <c r="B152" s="20" t="s">
+        <v>440</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>445</v>
-      </c>
-      <c r="B153" s="21" t="s">
-        <v>446</v>
+        <v>442</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>443</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>445</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="C154" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B154" s="21" t="s">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="B155" s="23" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
+      <c r="C155" s="21" t="s">
         <v>450</v>
       </c>
-      <c r="B155" s="21" t="s">
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="23" t="s">
         <v>451</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="B156" s="23" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
+      <c r="C156" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="B156" s="20" t="s">
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="B157" s="24" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
+      <c r="C157" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="B157" s="20" t="s">
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="C157" s="16" t="s">
+      <c r="B158" s="24" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
+      <c r="C158" s="21" t="s">
         <v>459</v>
       </c>
-      <c r="B158" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>444</v>
-      </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" t="s">
+      <c r="A159" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C159" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="C159" s="16" t="s">
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="25" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
+      <c r="B160" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160" s="21" t="s">
         <v>463</v>
       </c>
-      <c r="B160" s="20" t="s">
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="B161" s="26" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
+      <c r="C161" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="B161" s="20" t="s">
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="C161" s="16" t="s">
+      <c r="B162" s="27" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
+      <c r="C162" s="21" t="s">
         <v>469</v>
       </c>
-      <c r="B162" s="20" t="s">
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="C162" s="16" t="s">
+      <c r="B163" s="26" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
+      <c r="C163" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="B163" s="20" t="s">
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="B164" s="26" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
+      <c r="C164" s="21" t="s">
         <v>475</v>
       </c>
-      <c r="B164" s="20" t="s">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="C164" s="16" t="s">
+      <c r="B165" s="26" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
+      <c r="C165" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="B165" s="20" t="s">
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="26" t="s">
         <v>479</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="B166" s="26" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
+      <c r="C166" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="B166" s="20" t="s">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="B167" s="26" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
+      <c r="C167" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="B167" s="20" t="s">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C167" s="16" t="s">
+      <c r="B168" s="26" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="23" t="s">
+      <c r="C168" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="B168" s="23" t="s">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="C168" s="21" t="s">
+      <c r="B169" s="26" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="23" t="s">
+      <c r="C169" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="B169" s="23" t="s">
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="26" t="s">
         <v>491</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="B170" s="26" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="24" t="s">
+      <c r="C170" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="B170" s="24" t="s">
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="C170" s="21" t="s">
+      <c r="B171" s="26" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="24" t="s">
+      <c r="C171" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="B171" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="C171" s="21" t="s">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="26" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="25" t="s">
+      <c r="B172" s="26" t="s">
         <v>498</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>301</v>
       </c>
       <c r="C172" s="21" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="B173" s="25" t="s">
-        <v>304</v>
+      <c r="B173" s="26" t="s">
+        <v>501</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="B175" s="27" t="s">
+      <c r="A175" s="26" t="s">
         <v>506</v>
       </c>
+      <c r="B175" s="26" t="s">
+        <v>507</v>
+      </c>
       <c r="C175" s="21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="B176" s="26" t="s">
+      <c r="A176" s="24" t="s">
         <v>509</v>
       </c>
+      <c r="B176" s="24" t="s">
+        <v>510</v>
+      </c>
       <c r="C176" s="21" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177" s="26" t="s">
-        <v>511</v>
-      </c>
-      <c r="B177" s="26" t="s">
+      <c r="A177" s="24" t="s">
         <v>512</v>
       </c>
+      <c r="B177" s="24" t="s">
+        <v>513</v>
+      </c>
       <c r="C177" s="21" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="26" t="s">
-        <v>514</v>
-      </c>
-      <c r="B178" s="26" t="s">
+      <c r="A178" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="C178" s="21" t="s">
+      <c r="B178" s="24" t="s">
         <v>516</v>
       </c>
+      <c r="C178" s="16" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="26" t="s">
-        <v>517</v>
-      </c>
-      <c r="B179" s="26" t="s">
+      <c r="A179" s="24" t="s">
         <v>518</v>
       </c>
+      <c r="B179" s="24" t="s">
+        <v>519</v>
+      </c>
       <c r="C179" s="21" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="B180" s="26" t="s">
+      <c r="A180" s="24" t="s">
         <v>521</v>
       </c>
+      <c r="B180" s="24" t="s">
+        <v>522</v>
+      </c>
       <c r="C180" s="21" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B181" s="26" t="s">
+      <c r="A181" s="24" t="s">
         <v>524</v>
       </c>
+      <c r="B181" s="24" t="s">
+        <v>525</v>
+      </c>
       <c r="C181" s="21" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B182" s="26" t="s">
+      <c r="A182" s="24" t="s">
         <v>527</v>
       </c>
+      <c r="B182" s="24" t="s">
+        <v>528</v>
+      </c>
       <c r="C182" s="21" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183" s="26" t="s">
-        <v>529</v>
-      </c>
-      <c r="B183" s="26" t="s">
+      <c r="A183" s="24" t="s">
         <v>530</v>
       </c>
+      <c r="B183" s="24" t="s">
+        <v>531</v>
+      </c>
       <c r="C183" s="21" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184" s="26" t="s">
-        <v>532</v>
-      </c>
-      <c r="B184" s="26" t="s">
+      <c r="A184" s="24" t="s">
         <v>533</v>
       </c>
+      <c r="B184" s="24" t="s">
+        <v>534</v>
+      </c>
       <c r="C184" s="21" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185" s="26" t="s">
-        <v>535</v>
-      </c>
-      <c r="B185" s="26" t="s">
+      <c r="A185" s="24" t="s">
         <v>536</v>
       </c>
+      <c r="B185" s="24" t="s">
+        <v>537</v>
+      </c>
       <c r="C185" s="21" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="26" t="s">
-        <v>538</v>
-      </c>
-      <c r="B186" s="26" t="s">
+      <c r="A186" s="24" t="s">
         <v>539</v>
       </c>
+      <c r="B186" s="24" t="s">
+        <v>540</v>
+      </c>
       <c r="C186" s="21" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187" s="26" t="s">
-        <v>541</v>
-      </c>
-      <c r="B187" s="26" t="s">
+      <c r="A187" s="24" t="s">
         <v>542</v>
       </c>
+      <c r="B187" s="24" t="s">
+        <v>543</v>
+      </c>
       <c r="C187" s="21" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="26" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="B189" s="24" t="s">
-        <v>256</v>
+      <c r="A189" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="B189" s="26" t="s">
+        <v>549</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>257</v>
+        <v>550</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="B190" s="24" t="s">
-        <v>262</v>
+      <c r="A190" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="B190" s="26" t="s">
+        <v>552</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>263</v>
+        <v>553</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="24" t="s">
-        <v>549</v>
-      </c>
-      <c r="B191" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>550</v>
+      <c r="A191" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="C191" s="21" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="B192" s="24" t="s">
-        <v>265</v>
+      <c r="A192" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="B192" s="26" t="s">
+        <v>558</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>266</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="B193" s="24" t="s">
-        <v>268</v>
+      <c r="A193" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="B193" s="26" t="s">
+        <v>561</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>269</v>
+        <v>562</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="B194" s="24" t="s">
-        <v>280</v>
+      <c r="A194" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="B194" s="26" t="s">
+        <v>564</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>281</v>
+        <v>565</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195" s="24" t="s">
-        <v>554</v>
-      </c>
-      <c r="B195" s="24" t="s">
-        <v>274</v>
+      <c r="A195" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>567</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>275</v>
+        <v>568</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="24" t="s">
-        <v>555</v>
-      </c>
-      <c r="B196" s="24" t="s">
-        <v>271</v>
+      <c r="A196" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>570</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>272</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197" s="24" t="s">
-        <v>556</v>
-      </c>
-      <c r="B197" s="24" t="s">
-        <v>283</v>
+      <c r="A197" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>573</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198" s="24" t="s">
-        <v>558</v>
-      </c>
-      <c r="B198" s="24" t="s">
-        <v>559</v>
+      <c r="A198" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>576</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199" s="24" t="s">
-        <v>561</v>
-      </c>
-      <c r="B199" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="C199" s="21" t="s">
-        <v>562</v>
+      <c r="A199" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B199" t="s">
+        <v>579</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="24" t="s">
-        <v>563</v>
-      </c>
-      <c r="B200" s="24" t="s">
-        <v>564</v>
-      </c>
-      <c r="C200" s="21" t="s">
-        <v>565</v>
+      <c r="A200" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B200" t="s">
+        <v>582</v>
+      </c>
+      <c r="C200" s="17" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201" s="26" t="s">
-        <v>566</v>
-      </c>
-      <c r="B201" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="C201" s="21" t="s">
-        <v>568</v>
+      <c r="A201" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="B201" t="s">
+        <v>585</v>
+      </c>
+      <c r="C201" s="17" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="26" t="s">
-        <v>569</v>
-      </c>
-      <c r="B202" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="C202" s="21" t="s">
-        <v>571</v>
+      <c r="A202" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B202" t="s">
+        <v>588</v>
+      </c>
+      <c r="C202" s="17" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203" s="26" t="s">
-        <v>572</v>
-      </c>
-      <c r="B203" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="C203" s="21" t="s">
-        <v>574</v>
+      <c r="A203" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B203" t="s">
+        <v>591</v>
+      </c>
+      <c r="C203" s="17" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="27" t="s">
-        <v>575</v>
-      </c>
-      <c r="B204" s="27" t="s">
-        <v>576</v>
-      </c>
-      <c r="C204" s="21" t="s">
-        <v>577</v>
+      <c r="A204" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B204" t="s">
+        <v>594</v>
+      </c>
+      <c r="C204" s="17" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205" s="26" t="s">
-        <v>578</v>
-      </c>
-      <c r="B205" s="26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C205" s="21" t="s">
-        <v>580</v>
+      <c r="A205" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B205" t="s">
+        <v>597</v>
+      </c>
+      <c r="C205" s="17" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="B206" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="C206" s="21" t="s">
-        <v>583</v>
+      <c r="A206" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B206" t="s">
+        <v>600</v>
+      </c>
+      <c r="C206" s="17" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="26" t="s">
-        <v>584</v>
-      </c>
-      <c r="B207" s="26" t="s">
-        <v>585</v>
-      </c>
-      <c r="C207" s="21" t="s">
-        <v>586</v>
+      <c r="A207" t="s">
+        <v>602</v>
+      </c>
+      <c r="B207" t="s">
+        <v>603</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208" s="26" t="s">
-        <v>587</v>
-      </c>
-      <c r="B208" s="26" t="s">
-        <v>588</v>
-      </c>
-      <c r="C208" s="21" t="s">
-        <v>589</v>
+      <c r="A208" t="s">
+        <v>605</v>
+      </c>
+      <c r="B208" t="s">
+        <v>606</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209" s="26" t="s">
-        <v>590</v>
-      </c>
-      <c r="B209" s="26" t="s">
-        <v>591</v>
-      </c>
-      <c r="C209" s="21" t="s">
-        <v>592</v>
+      <c r="A209" t="s">
+        <v>608</v>
+      </c>
+      <c r="B209" t="s">
+        <v>609</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210" s="26" t="s">
-        <v>593</v>
-      </c>
-      <c r="B210" s="26" t="s">
-        <v>594</v>
-      </c>
-      <c r="C210" s="21" t="s">
-        <v>595</v>
+      <c r="A210" t="s">
+        <v>611</v>
+      </c>
+      <c r="B210" t="s">
+        <v>612</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="26" t="s">
-        <v>596</v>
-      </c>
-      <c r="B211" s="26" t="s">
-        <v>597</v>
-      </c>
-      <c r="C211" s="21" t="s">
-        <v>598</v>
+      <c r="A211" t="s">
+        <v>614</v>
+      </c>
+      <c r="B211" t="s">
+        <v>615</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212" s="5" t="s">
-        <v>599</v>
+      <c r="A212" t="s">
+        <v>617</v>
       </c>
       <c r="B212" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213" s="5" t="s">
-        <v>602</v>
+      <c r="A213" t="s">
+        <v>620</v>
       </c>
       <c r="B213" t="s">
-        <v>603</v>
-      </c>
-      <c r="C213" s="17" t="s">
-        <v>604</v>
+        <v>621</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214" s="5" t="s">
-        <v>605</v>
+      <c r="A214" t="s">
+        <v>623</v>
       </c>
       <c r="B214" t="s">
-        <v>606</v>
-      </c>
-      <c r="C214" s="17" t="s">
-        <v>607</v>
+        <v>624</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="B215" t="s">
-        <v>609</v>
-      </c>
-      <c r="C215" s="17" t="s">
-        <v>610</v>
+        <v>627</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="B216" t="s">
-        <v>612</v>
-      </c>
-      <c r="C216" s="17" t="s">
-        <v>613</v>
+        <v>630</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="B217" t="s">
-        <v>615</v>
-      </c>
-      <c r="C217" s="17" t="s">
-        <v>616</v>
+        <v>633</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="5" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="B218" t="s">
-        <v>618</v>
-      </c>
-      <c r="C218" s="17" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="B219" t="s">
-        <v>621</v>
-      </c>
-      <c r="C219" s="17" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>623</v>
-      </c>
-      <c r="B220" t="s">
-        <v>624</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>626</v>
-      </c>
-      <c r="B221" t="s">
-        <v>627</v>
-      </c>
-      <c r="C221" s="16" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>629</v>
-      </c>
-      <c r="B222" t="s">
-        <v>630</v>
-      </c>
-      <c r="C222" s="16" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>632</v>
-      </c>
-      <c r="B223" t="s">
-        <v>633</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>635</v>
-      </c>
-      <c r="B224" t="s">
         <v>636</v>
       </c>
-      <c r="C224" s="16" t="s">
+      <c r="C218" s="16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
+    <row r="219" s="3" customFormat="1" spans="1:3">
+      <c r="A219" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B219" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="C225" s="16" t="s">
+      <c r="C219" s="8" t="s">
         <v>640</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>641</v>
-      </c>
-      <c r="B226" t="s">
-        <v>642</v>
-      </c>
-      <c r="C226" s="16" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>644</v>
-      </c>
-      <c r="B227" t="s">
-        <v>645</v>
-      </c>
-      <c r="C227" s="16" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B228" t="s">
-        <v>648</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="B229" t="s">
-        <v>651</v>
-      </c>
-      <c r="C229" s="16" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="B230" t="s">
-        <v>654</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B231" t="s">
-        <v>657</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="232" s="3" customFormat="1" spans="1:3">
-      <c r="A232" s="10" t="s">
-        <v>659</v>
-      </c>
-      <c r="B232" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="en-US" sheetId="1" r:id="rId1"/>
@@ -911,7 +911,7 @@
     <t>活动单位</t>
   </si>
   <si>
-    <t>Mobile Unit</t>
+    <t>Mobile Units</t>
   </si>
   <si>
     <t>KongXianGongChengCheGongChong</t>
@@ -971,7 +971,7 @@
     <t>取消选中</t>
   </si>
   <si>
-    <t>DeSelect</t>
+    <t>Deselect</t>
   </si>
   <si>
     <t>DeZhanJv</t>
@@ -1354,7 +1354,7 @@
     <t>毫秒</t>
   </si>
   <si>
-    <t>Millisecond</t>
+    <t>ms</t>
   </si>
   <si>
     <t>ChuShiHP</t>
@@ -1642,7 +1642,7 @@
     <t>工程车</t>
   </si>
   <si>
-    <t>Constr. Vehicle</t>
+    <t>Constru. Vehicle</t>
   </si>
   <si>
     <t>KeyQiangBing</t>
@@ -2499,13 +2499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2523,6 +2516,13 @@
       <sz val="10.5"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -3436,8 +3436,8 @@
   <sheetPr/>
   <dimension ref="A1:C219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="C150" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -5864,7 +5864,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="en-US" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="667">
   <si>
     <t>key</t>
   </si>
@@ -132,7 +132,7 @@
 &lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
   </si>
   <si>
-    <t>Multiplayer FFA (Desert)
+    <t>Free-for-all(Desert)
 &lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
   </si>
   <si>
@@ -391,7 +391,7 @@
     <t>&lt;b&gt;Music:&lt;/b&gt; EinhornN7 Xie Yubo (QQ 2990490699), Wuya Producer (QQ 2998975740), Dianbo Baoji (QQ 1106551898)
 &lt;b&gt;Homepage Background:&lt;/b&gt; Bu Wen Qing Yin (QQ 3969340418) &lt;b&gt;Levels:&lt;/b&gt; A Shrimp Under the Sun (QQ 1179331661)
 &lt;b&gt;3D Models:&lt;/b&gt; TripoAI, Hunyuan AI &lt;b&gt;Image Matting:&lt;/b&gt; Doubao AI &lt;b&gt;Ground Textures:&lt;/b&gt; Quark AI, Doubao AI
-&lt;b&gt;Avatar Images:&lt;/b&gt; Wen Xiaoyan AI &lt;b&gt;Music:&lt;/b&gt; SunoAI &lt;b&gt;Assisted Programming:&lt;/b&gt; Tongyi Lingma AI, Cursor AI
+&lt;b&gt;Avatar Images:&lt;/b&gt; ERNIE Bot AI &lt;b&gt;Music:&lt;/b&gt; SunoAI &lt;b&gt;Assisted Programming:&lt;/b&gt; Tongyi Lingma AI, Cursor AI
 &lt;b&gt;Rigging/Animation:&lt;/b&gt; Gu He (QQ 3223213062), mixamo.com
 &lt;b&gt;Rigging/Animation:&lt;/b&gt; Xiao Bai Ayi (QQ 3276812319), Jiu Li Qing An (QQ 284102069)
 &lt;b&gt;Rigging/Animation:&lt;/b&gt; Da Ci Hua (QQ 3029823814), Heng (QQ 2682677034)
@@ -923,8 +923,8 @@
   </si>
   <si>
     <t>Idle
-Engineer Vehicle
-Drone</t>
+Constu. Vehicle
+Worker Drone</t>
   </si>
   <si>
     <t>QuanBuZhanDouDanWei</t>
@@ -1642,7 +1642,7 @@
     <t>工程车</t>
   </si>
   <si>
-    <t>Constru. Vehicle</t>
+    <t>Construc. Vehicle</t>
   </si>
   <si>
     <t>KeyQiangBing</t>
@@ -1858,7 +1858,7 @@
     <t>飞塔</t>
   </si>
   <si>
-    <t>Anti-Air Tower</t>
+    <t>Air Tower</t>
   </si>
   <si>
     <t>KeyNiTaiYuan</t>
@@ -2238,6 +2238,84 @@
       <t xml:space="preserve"> to submit the waypoint list.</t>
     </r>
   </si>
+  <si>
+    <t>MeiYouKeYiDongDeZhanDouDanWei</t>
+  </si>
+  <si>
+    <t>没有可移动的战斗单位</t>
+  </si>
+  <si>
+    <t>No movable combat units</t>
+  </si>
+  <si>
+    <t>QingXianXuanZhongJianZhuDanWei</t>
+  </si>
+  <si>
+    <t>请先选中活动单位</t>
+  </si>
+  <si>
+    <t>Select Mobile Unit(s) first</t>
+  </si>
+  <si>
+    <t>QingXianXuanZhongTaiShui</t>
+  </si>
+  <si>
+    <t>请先选中太岁</t>
+  </si>
+  <si>
+    <t>Select a Taisui first</t>
+  </si>
+  <si>
+    <t>ZhanBaoBuCunZai</t>
+  </si>
+  <si>
+    <t>战报不存在</t>
+  </si>
+  <si>
+    <t>Battle Report does not exist</t>
+  </si>
+  <si>
+    <t>De</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 的 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">'s </t>
+  </si>
+  <si>
+    <t>JiBaiLe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 击败了 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Defeated </t>
+  </si>
+  <si>
+    <t>Unit Loss Ranking</t>
+  </si>
+  <si>
+    <t>GongSunShi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 共损失 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Losses </t>
+  </si>
+  <si>
+    <t>Unit Kill Ranking</t>
+  </si>
+  <si>
+    <t>GongJiBai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 共击败 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total Kills</t>
+  </si>
 </sst>
 </file>
 
@@ -2249,7 +2327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2361,6 +2439,11 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2499,6 +2582,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2510,19 +2606,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2852,134 +2935,134 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3050,7 +3133,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3434,10 +3521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C219"/>
+  <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C150" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4422,7 +4509,7 @@
       <c r="B89" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="29" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5854,6 +5941,127 @@
       </c>
       <c r="C219" s="8" t="s">
         <v>640</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>641</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="221" s="3" customFormat="1" spans="1:3">
+      <c r="A221" s="10" t="s">
+        <v>644</v>
+      </c>
+      <c r="B221" s="28" t="s">
+        <v>645</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="222" s="3" customFormat="1" spans="1:3">
+      <c r="A222" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B225" t="s">
+        <v>654</v>
+      </c>
+      <c r="C225" s="30" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B226" t="s">
+        <v>657</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -5864,7 +6072,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="668">
   <si>
     <t>key</t>
   </si>
@@ -893,7 +893,7 @@
     <t>框选</t>
   </si>
   <si>
-    <t>Box Selection</t>
+    <t>Box Select</t>
   </si>
   <si>
     <t>JianZhuDanWei</t>
@@ -1195,8 +1195,8 @@
   </si>
   <si>
     <t>Upgrade
-Rifle Bug
-Defense</t>
+Melee Bugs
+Attack</t>
   </si>
   <si>
     <t>ShengJiQiangChongFangYu</t>
@@ -1207,6 +1207,11 @@
 防御</t>
   </si>
   <si>
+    <t>Upgrade
+Rifle Bugs
+Defense</t>
+  </si>
+  <si>
     <t>ShengJiTanKeYiSu</t>
   </si>
   <si>
@@ -1450,7 +1455,7 @@
     <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
   </si>
   <si>
-    <t>Fires ultra-long range light spikes, which are blocked by obstacles.</t>
+    <t>Fires ultra-long range Light Orb, which are blocked by obstacles.</t>
   </si>
   <si>
     <t>MiaoShu_FangChong</t>
@@ -1732,7 +1737,7 @@
     <t>光刺</t>
   </si>
   <si>
-    <t>Light Spiker</t>
+    <t>Light Orb</t>
   </si>
   <si>
     <t>KeyFangChong</t>
@@ -2582,12 +2587,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -2605,6 +2604,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3523,8 +3528,8 @@
   <sheetPr/>
   <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C30" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4752,1228 +4757,1228 @@
         <v>325</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" ht="42.75" spans="1:3">
       <c r="A112" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="113" ht="42.75" spans="1:3">
       <c r="A113" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="114" ht="42.75" spans="1:3">
       <c r="A114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="115" ht="42.75" spans="1:3">
       <c r="A115" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="116" ht="28.5" spans="1:3">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="117" ht="28.5" spans="1:3">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B120" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B129" s="21" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B130" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B132" s="21" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B134" s="21" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B135" s="21" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B143" s="20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B144" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B146" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B147" s="20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B148" s="20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B150" s="20" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="24" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B157" s="24" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="24" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B158" s="24" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="25" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B159" s="25" t="s">
         <v>262</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="25" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>265</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B162" s="27" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="26" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B163" s="26" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="26" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="26" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="26" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="C171" s="21" t="s">
         <v>496</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="26" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="26" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="24" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B176" s="24" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="24" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B177" s="24" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="24" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B178" s="24" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="24" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B179" s="24" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B180" s="24" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B182" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B183" s="24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B184" s="24" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="24" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B185" s="24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B186" s="24" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="24" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B187" s="24" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="26" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="26" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="26" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="27" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="26" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B193" s="26" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="26" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="26" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B195" s="26" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="26" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="26" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="5" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B199" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B200" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B201" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="5" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B202" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B203" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B204" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="5" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B205" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="5" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B206" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C206" s="17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B207" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B208" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B209" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B210" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B211" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B212" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B213" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B214" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="5" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B215" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="5" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B216" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="5" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B217" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="5" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B218" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="219" s="3" customFormat="1" spans="1:3">
       <c r="A219" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C219" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="221" s="3" customFormat="1" spans="1:3">
       <c r="A221" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="222" s="3" customFormat="1" spans="1:3">
       <c r="A222" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -5989,35 +5994,35 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="5" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B225" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B226" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -6028,18 +6033,18 @@
         <v>250</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -6050,18 +6055,18 @@
         <v>253</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="5" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -6072,7 +6077,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -1111,7 +1111,8 @@
 集结点</t>
   </si>
   <si>
-    <t>Constrctr
+    <t>Constr.
+Vehicle
 Rally
 Point</t>
   </si>
@@ -3528,8 +3529,8 @@
   <sheetPr/>
   <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4661,7 +4662,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="103" ht="42.75" spans="1:3">
+    <row r="103" ht="57" spans="1:3">
       <c r="A103" t="s">
         <v>300</v>
       </c>
@@ -6077,7 +6078,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -71,7 +71,7 @@
     <t>登录正式服</t>
   </si>
   <si>
-    <t>Main Svr</t>
+    <t>Main Server</t>
   </si>
   <si>
     <t>TestSvr</t>
@@ -80,7 +80,7 @@
     <t>登录测试服</t>
   </si>
   <si>
-    <t>Test Svr</t>
+    <t>Test Server</t>
   </si>
   <si>
     <t>urlNotice</t>
@@ -2595,6 +2595,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2605,12 +2611,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3529,8 +3529,8 @@
   <sheetPr/>
   <dimension ref="A1:C230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C83" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6078,7 +6078,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C2 A4:C6" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C4 A5:B6 A1:C2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="753">
   <si>
     <t>key</t>
   </si>
@@ -47,15 +47,6 @@
     <t>en-US</t>
   </si>
   <si>
-    <t>Loading</t>
-  </si>
-  <si>
-    <t>加载中……</t>
-  </si>
-  <si>
-    <t>Loading...</t>
-  </si>
-  <si>
     <t>GameName</t>
   </si>
   <si>
@@ -99,6 +90,12 @@
   </si>
   <si>
     <t>即时战略指挥公告/公告左英文.txt</t>
+  </si>
+  <si>
+    <t>LoginTestSvr</t>
+  </si>
+  <si>
+    <t>登录测试体验服</t>
   </si>
   <si>
     <t>JianKangYouXiZhongDao</t>
@@ -125,61 +122,6 @@
 &lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
   </si>
   <si>
-    <t>DuoWanJiaHunZhan_ShaMo</t>
-  </si>
-  <si>
-    <t>多玩家混战（沙漠）
-&lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>Free-for-all(Desert)
-&lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>YiDaYi</t>
-  </si>
-  <si>
-    <t>一打一（我是房主）
-&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>1v1 (You're the Host)
-&lt;size=10&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>ZhongYangFangShou_WanJiaHeZuo</t>
-  </si>
-  <si>
-    <t>中央防守 玩家合作（我是房主）
-&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>Central Defense - Co-op (You're the Host)
-&lt;size=10&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>JiaRuDuoRenZhanJu</t>
-  </si>
-  <si>
-    <t>加入其他玩家创建的多人战局
-&lt;size=12&gt;挑战其他玩家&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>Join Other Players' Multiplayer Matches
-&lt;size=12&gt;Challenge other players!&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>SiFangDuiZhan</t>
-  </si>
-  <si>
-    <t>四方对战（我是房主）
-&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
-  </si>
-  <si>
-    <t>4-Way Battle (Host)
-&lt;size=12&gt;Others may join your match. Match ends when you leave.&lt;/size&gt;</t>
-  </si>
-  <si>
     <t>LeaveScene</t>
   </si>
   <si>
@@ -189,24 +131,6 @@
     <t>Leave Scene</t>
   </si>
   <si>
-    <t>RenZaiXian</t>
-  </si>
-  <si>
-    <t>人在线</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> players online</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>Unit(s)</t>
-  </si>
-  <si>
     <t>InputChat</t>
   </si>
   <si>
@@ -237,72 +161,10 @@
     <t>urlGameStrategy</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>即时战略指挥攻略/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>攻略</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.txt</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>即时战略指挥攻略/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>攻略英文</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="0"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.txt</t>
-    </r>
+    <t>即时战略指挥攻略/攻略.txt</t>
+  </si>
+  <si>
+    <t>即时战略指挥攻略/攻略英文.txt</t>
   </si>
   <si>
     <t>ConnectSuccess</t>
@@ -330,15 +192,6 @@
   </si>
   <si>
     <t>Connection error. You may try again.</t>
-  </si>
-  <si>
-    <t>ConnectClosed</t>
-  </si>
-  <si>
-    <t>连接已断开，已回到登录场景</t>
-  </si>
-  <si>
-    <t>Connection lost, returned to the login scene.</t>
   </si>
   <si>
     <t>PleaseInputNickname</t>
@@ -414,6 +267,24 @@
     <t>Enter nickname…</t>
   </si>
   <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>加载中……</t>
+  </si>
+  <si>
+    <t>Loading...</t>
+  </si>
+  <si>
+    <t>ConnectClosed</t>
+  </si>
+  <si>
+    <t>连接已断开，已回到登录场景</t>
+  </si>
+  <si>
+    <t>Connection lost, returned to the login scene.</t>
+  </si>
+  <si>
     <t>SinglePlayerBattle</t>
   </si>
   <si>
@@ -447,6 +318,15 @@
 &lt;size=9&gt;Song Name, Composer, Copyright&lt;/size&gt;</t>
   </si>
   <si>
+    <t>RenZaiXian</t>
+  </si>
+  <si>
+    <t>人在线</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> players online</t>
+  </si>
+  <si>
     <t>BackToPreMenu</t>
   </si>
   <si>
@@ -486,22 +366,7 @@
     <t>AuthorWuYaProducer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌鸦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Producer(QQ 2998975740)</t>
-    </r>
+    <t>乌鸦Producer(QQ 2998975740)</t>
   </si>
   <si>
     <t>Wuya Producer (QQ 2998975740)</t>
@@ -510,30 +375,7 @@
     <t>AuthorXieYuBai</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>EinhornN7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>獬羽柏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(QQ 2990490699)</t>
-    </r>
+    <t>EinhornN7獬羽柏(QQ 2990490699)</t>
   </si>
   <si>
     <t>EinhornN7 Xie Yubo (QQ 2990490699)</t>
@@ -542,22 +384,7 @@
     <t>AuthorDianBoBaoji</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电波暴击</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(QQ 1106551898)</t>
-    </r>
+    <t>电波暴击(QQ 1106551898)</t>
   </si>
   <si>
     <t>Dianbo Baoji (QQ 1106551898)</t>
@@ -740,6 +567,77 @@
     <t>Insectoids</t>
   </si>
   <si>
+    <t>YiDaYi</t>
+  </si>
+  <si>
+    <t>一打一（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>1v1 (You're the Host)
+&lt;size=10&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>DuoWanJiaHunZhan_ShaMo</t>
+  </si>
+  <si>
+    <t>多玩家混战（沙漠）
+&lt;size=10&gt;看30秒广告送10单位和1000资源，提前关闭广告送2单位和80资源&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Free-for-all(Desert)
+&lt;size=10&gt;All players are enemies&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>ZhongYangFangShou</t>
+  </si>
+  <si>
+    <t>中央防守 玩家合作（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Central Defense - Co-op (You're the Host)
+&lt;size=12&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>JiaRuDuoRenZhanJu</t>
+  </si>
+  <si>
+    <t>加入其他玩家创建的多人战局
+&lt;size=12&gt;挑战其他玩家&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Join Other Players' Multiplayer Matches
+&lt;size=12&gt;Challenge other players!&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>SiFangDuiZhan</t>
+  </si>
+  <si>
+    <t>四方对战（我是房主）
+&lt;size=12&gt;其他玩家可加入您的战局，您退出场景就会结束战局&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>4-Way Battle (Host)
+&lt;size=12&gt;Others may join your match. Match ends when you leave.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>ZhongYangFangShou_WanJiaHeZuo</t>
+  </si>
+  <si>
+    <t>Central Defense - Co-op (You're the Host)
+&lt;size=10&gt;Other players can join your match. The match ends if you leave the scene.&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>FanKongJiangZhan_Ren</t>
+  </si>
+  <si>
+    <t>反空降战（人）</t>
+  </si>
+  <si>
+    <t>Anti-Airborne Warfare (Human)</t>
+  </si>
+  <si>
     <t>DanWeiJieShao_Ren</t>
   </si>
   <si>
@@ -749,15 +647,6 @@
     <t>Unit Introduction (Human)</t>
   </si>
   <si>
-    <t>FanKongJiangZhan_Ren</t>
-  </si>
-  <si>
-    <t>反空降战（人）</t>
-  </si>
-  <si>
-    <t>Anti-Airborne Warfare (Human)</t>
-  </si>
-  <si>
     <t>FangKongZhan_Ren</t>
   </si>
   <si>
@@ -885,6 +774,17 @@
   </si>
   <si>
     <t>输</t>
+  </si>
+  <si>
+    <t>TaiSui</t>
+  </si>
+  <si>
+    <t>太
+岁</t>
+  </si>
+  <si>
+    <t>Tai-
+sui</t>
   </si>
   <si>
     <t>KuangXuan</t>
@@ -953,7 +853,7 @@
     <t>损失单位排行</t>
   </si>
   <si>
-    <t>Loss Ranking</t>
+    <t>Unit Loss Ranking</t>
   </si>
   <si>
     <t>JiBaiDanWeiPaiHang</t>
@@ -962,7 +862,127 @@
     <t>击败单位排行</t>
   </si>
   <si>
-    <t>Dest. Rank</t>
+    <t>Unit Kill Ranking</t>
+  </si>
+  <si>
+    <t>JiDi</t>
+  </si>
+  <si>
+    <t>基地</t>
+  </si>
+  <si>
+    <t>Command Center</t>
+  </si>
+  <si>
+    <t>MinFang</t>
+  </si>
+  <si>
+    <t>民房</t>
+  </si>
+  <si>
+    <t>Civilian
+Building</t>
+  </si>
+  <si>
+    <t>BingYing</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>Barracks</t>
+  </si>
+  <si>
+    <t>DiBao</t>
+  </si>
+  <si>
+    <t>地堡</t>
+  </si>
+  <si>
+    <t>Bunker</t>
+  </si>
+  <si>
+    <t>PaoTai</t>
+  </si>
+  <si>
+    <t>炮台</t>
+  </si>
+  <si>
+    <t>Turret</t>
+  </si>
+  <si>
+    <t>ZhongCheChang</t>
+  </si>
+  <si>
+    <t>重车厂</t>
+  </si>
+  <si>
+    <t>Heavy Vehicle Factory</t>
+  </si>
+  <si>
+    <t>JiChang</t>
+  </si>
+  <si>
+    <t>机场</t>
+  </si>
+  <si>
+    <t>Airfield</t>
+  </si>
+  <si>
+    <t>FangDun</t>
+  </si>
+  <si>
+    <t>方墩</t>
+  </si>
+  <si>
+    <t>Square Pillbox</t>
+  </si>
+  <si>
+    <t>ChongChao</t>
+  </si>
+  <si>
+    <t>虫巢</t>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
+    <t>ChongYing</t>
+  </si>
+  <si>
+    <t>虫营</t>
+  </si>
+  <si>
+    <t>Insectoid Barracks</t>
+  </si>
+  <si>
+    <t>NiTaiYuan</t>
+  </si>
+  <si>
+    <t>拟态源</t>
+  </si>
+  <si>
+    <t>Mimicry Source</t>
+  </si>
+  <si>
+    <t>FeiTa</t>
+  </si>
+  <si>
+    <t>飞
+塔</t>
+  </si>
+  <si>
+    <t>Flying
+Tower</t>
+  </si>
+  <si>
+    <t>DeZhanJv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 的战局</t>
+  </si>
+  <si>
+    <t>'s matches</t>
   </si>
   <si>
     <t>QuXiaoXuanZhong</t>
@@ -974,15 +994,6 @@
     <t>Deselect</t>
   </si>
   <si>
-    <t>DeZhanJv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 的战局</t>
-  </si>
-  <si>
-    <t>'s matches</t>
-  </si>
-  <si>
     <t>JingTiKuang</t>
   </si>
   <si>
@@ -1026,6 +1037,9 @@
   </si>
   <si>
     <t>Cancel</t>
+  </si>
+  <si>
+    <t>LoginMainSvr</t>
   </si>
   <si>
     <t>QueDing</t>
@@ -1282,6 +1296,15 @@
 Unit</t>
   </si>
   <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>Unit(s)</t>
+  </si>
+  <si>
     <t>ZaiKanKan</t>
   </si>
   <si>
@@ -1435,573 +1458,837 @@
     <t>Can fly over obstacles</t>
   </si>
   <si>
+    <t>MiaoShu_YouChong</t>
+  </si>
+  <si>
+    <t>可蜕变为其它活动单位</t>
+  </si>
+  <si>
+    <t>Can metamorphose into other mobile units</t>
+  </si>
+  <si>
+    <t>MiaoShu_LvSeTanKe</t>
+  </si>
+  <si>
+    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
+  </si>
+  <si>
+    <t>Fires ultra-long range Light Orb, which are blocked by obstacles.</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangChong</t>
+  </si>
+  <si>
+    <t>可增加活动单位上限</t>
+  </si>
+  <si>
+    <t>Increases mobile unit cap</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiChong</t>
+  </si>
+  <si>
+    <t>可飞跃障碍物</t>
+  </si>
+  <si>
+    <t>MiaoShu_YiLiaoBing</t>
+  </si>
+  <si>
+    <t>可给友方单位恢复HP</t>
+  </si>
+  <si>
+    <t>Restores HP to allied units</t>
+  </si>
+  <si>
+    <t>MiaoShu_FangKongBing</t>
+  </si>
+  <si>
+    <t>远程对空范围攻击，爆炸溅射会伤害己方单位，不可对地攻击</t>
+  </si>
+  <si>
+    <t>Ranged anti-air area attack, explosion splash damage harms allied units, cannot attack ground targets.</t>
+  </si>
+  <si>
+    <t>MiaoShu_JiDi</t>
+  </si>
+  <si>
+    <t>可产出工程车</t>
+  </si>
+  <si>
+    <t>Produces engineering vehicles</t>
+  </si>
+  <si>
+    <t>MiaoShu_BingYing</t>
+  </si>
+  <si>
+    <t>可产出枪兵和近战兵</t>
+  </si>
+  <si>
+    <t>Produces riflemen and melee infantry</t>
+  </si>
+  <si>
+    <t>MiaoShu_DiBao</t>
+  </si>
+  <si>
+    <t>高HP，可派遣步兵进入地堡</t>
+  </si>
+  <si>
+    <t>High HP, allows infantry to garrison inside the bunker</t>
+  </si>
+  <si>
+    <t>MiaoShu_PaoTai</t>
+  </si>
+  <si>
+    <t>克制除了坦克以外的一切单位</t>
+  </si>
+  <si>
+    <t>Effective against all units except tanks</t>
+  </si>
+  <si>
+    <t>MiaoShu_ChongChao</t>
+  </si>
+  <si>
+    <t>可产出幼虫</t>
+  </si>
+  <si>
+    <t>Produces larvae</t>
+  </si>
+  <si>
+    <t>MiaoShu_JiChang</t>
+  </si>
+  <si>
+    <t>可产出飞机</t>
+  </si>
+  <si>
+    <t>Produces aircraft</t>
+  </si>
+  <si>
+    <t>MiaoShu_ZhongCheChang</t>
+  </si>
+  <si>
+    <t>可产出三色坦克</t>
+  </si>
+  <si>
+    <t>Produces three-color tanks</t>
+  </si>
+  <si>
+    <t>MiaoShu_ChongYing</t>
+  </si>
+  <si>
+    <t>近战虫和枪虫的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>Prerequisite structure for melee bugs and rifle bugs, only 1 required</t>
+  </si>
+  <si>
+    <t>MiaoShu_FeiTa</t>
+  </si>
+  <si>
+    <t>飞虫的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>Prerequisite structure for flying bugs, only 1 required</t>
+  </si>
+  <si>
+    <t>MiaoShu_NiTaiYuan</t>
+  </si>
+  <si>
+    <t>绿色坦克的前置建筑，只需1个就够了</t>
+  </si>
+  <si>
+    <t>Prerequisite structure for green tanks, only 1 required</t>
+  </si>
+  <si>
+    <t>MiaoShu_TaiSui</t>
+  </si>
+  <si>
+    <t>可扩张苔蔓(wàn)，扩张完成后可分裂另一个太岁</t>
+  </si>
+  <si>
+    <t>Can spread creep, splits into another Taisui upon completion of spread</t>
+  </si>
+  <si>
+    <t>Key特效</t>
+  </si>
+  <si>
+    <t>特效</t>
+  </si>
+  <si>
+    <t>Special Effects</t>
+  </si>
+  <si>
+    <t>Key视口</t>
+  </si>
+  <si>
+    <t>视口</t>
+  </si>
+  <si>
+    <t>Viewport</t>
+  </si>
+  <si>
+    <t>Key苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>苔蔓(wàn)</t>
+  </si>
+  <si>
+    <t>Moss Vines</t>
+  </si>
+  <si>
+    <t>Key工程车</t>
+  </si>
+  <si>
+    <t>工程车</t>
+  </si>
+  <si>
+    <t>Construction Vehicle</t>
+  </si>
+  <si>
+    <t>Key枪兵</t>
+  </si>
+  <si>
+    <t>枪兵</t>
+  </si>
+  <si>
+    <t>Rifleman</t>
+  </si>
+  <si>
+    <t>Key近战兵</t>
+  </si>
+  <si>
+    <t>近战兵</t>
+  </si>
+  <si>
+    <t>Melee Infantry</t>
+  </si>
+  <si>
+    <t>Key三色坦克</t>
+  </si>
+  <si>
+    <t>三色坦克</t>
+  </si>
+  <si>
+    <t>Tricolor Tank</t>
+  </si>
+  <si>
+    <t>Key工虫</t>
+  </si>
+  <si>
+    <t>工虫</t>
+  </si>
+  <si>
+    <t>Worker Larva</t>
+  </si>
+  <si>
+    <t>Key飞机</t>
+  </si>
+  <si>
+    <t>飞机</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Key枪虫</t>
+  </si>
+  <si>
+    <t>枪虫</t>
+  </si>
+  <si>
+    <t>Rifle Bug</t>
+  </si>
+  <si>
+    <t>Key近战虫</t>
+  </si>
+  <si>
+    <t>近战虫</t>
+  </si>
+  <si>
+    <t>Melee Bug</t>
+  </si>
+  <si>
+    <t>Key幼虫</t>
+  </si>
+  <si>
+    <t>幼虫</t>
+  </si>
+  <si>
+    <t>Larva</t>
+  </si>
+  <si>
+    <t>Key绿色坦克</t>
+  </si>
+  <si>
+    <t>绿色坦克</t>
+  </si>
+  <si>
+    <t>Green Tank</t>
+  </si>
+  <si>
+    <t>Key光刺</t>
+  </si>
+  <si>
+    <t>光刺</t>
+  </si>
+  <si>
+    <t>Light Spiker</t>
+  </si>
+  <si>
+    <t>Key房虫</t>
+  </si>
+  <si>
+    <t>房虫</t>
+  </si>
+  <si>
+    <t>Population Drone</t>
+  </si>
+  <si>
+    <t>Key飞虫</t>
+  </si>
+  <si>
+    <t>飞虫</t>
+  </si>
+  <si>
+    <t>Flying Bug</t>
+  </si>
+  <si>
+    <t>Key医疗兵</t>
+  </si>
+  <si>
+    <t>医疗兵</t>
+  </si>
+  <si>
+    <t>Medic</t>
+  </si>
+  <si>
+    <t>Key防空兵</t>
+  </si>
+  <si>
+    <t>防空兵</t>
+  </si>
+  <si>
+    <t>Anti-Air Trooper</t>
+  </si>
+  <si>
+    <t>Key飞塔</t>
+  </si>
+  <si>
+    <t>飞塔</t>
+  </si>
+  <si>
+    <t>Anti-Air Tower</t>
+  </si>
+  <si>
+    <t>Key太岁</t>
+  </si>
+  <si>
+    <t>太岁</t>
+  </si>
+  <si>
+    <t>Giant Flesh Mass</t>
+  </si>
+  <si>
+    <t>Key枪虫怪</t>
+  </si>
+  <si>
+    <t>枪虫怪</t>
+  </si>
+  <si>
+    <t>Rifle Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key近战虫怪</t>
+  </si>
+  <si>
+    <t>近战虫怪</t>
+  </si>
+  <si>
+    <t>Melee Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key工虫怪</t>
+  </si>
+  <si>
+    <t>工虫怪</t>
+  </si>
+  <si>
+    <t>Worker Mutant</t>
+  </si>
+  <si>
+    <t>Key枪兵怪</t>
+  </si>
+  <si>
+    <t>枪兵怪</t>
+  </si>
+  <si>
+    <t>Rifleman Mutant</t>
+  </si>
+  <si>
+    <t>Key近战兵怪</t>
+  </si>
+  <si>
+    <t>近战兵怪</t>
+  </si>
+  <si>
+    <t>Melee Infantry Mutant</t>
+  </si>
+  <si>
+    <t>Key工程车怪</t>
+  </si>
+  <si>
+    <t>工程车怪</t>
+  </si>
+  <si>
+    <t>Constructor Mutant</t>
+  </si>
+  <si>
+    <t>Key幼虫怪</t>
+  </si>
+  <si>
+    <t>幼虫怪</t>
+  </si>
+  <si>
+    <t>Larva Mutant</t>
+  </si>
+  <si>
+    <t>Key飞虫怪</t>
+  </si>
+  <si>
+    <t>飞虫怪</t>
+  </si>
+  <si>
+    <t>Flying Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key绿色坦克怪</t>
+  </si>
+  <si>
+    <t>绿色坦克怪</t>
+  </si>
+  <si>
+    <t>Green Tank Mutant</t>
+  </si>
+  <si>
+    <t>Key房虫怪</t>
+  </si>
+  <si>
+    <t>房虫怪</t>
+  </si>
+  <si>
+    <t>Hive Bug Mutant</t>
+  </si>
+  <si>
+    <t>Key防空兵怪</t>
+  </si>
+  <si>
+    <t>防空兵怪</t>
+  </si>
+  <si>
+    <t>Anti-Air Trooper Mutant</t>
+  </si>
+  <si>
     <t>MiaoShu_QiangChong</t>
   </si>
   <si>
     <t>MiaoShu_JinZhanChong</t>
   </si>
   <si>
-    <t>MiaoShu_YouChong</t>
-  </si>
-  <si>
-    <t>可蜕变为其它活动单位</t>
-  </si>
-  <si>
-    <t>Can metamorphose into other mobile units</t>
-  </si>
-  <si>
-    <t>MiaoShu_LvSeTanKe</t>
-  </si>
-  <si>
-    <t>超远距离发射光刺，光刺会遭到障碍物阻挡。</t>
-  </si>
-  <si>
-    <t>Fires ultra-long range Light Orb, which are blocked by obstacles.</t>
-  </si>
-  <si>
-    <t>MiaoShu_FangChong</t>
-  </si>
-  <si>
-    <t>可增加活动单位上限</t>
-  </si>
-  <si>
-    <t>Increases mobile unit cap</t>
-  </si>
-  <si>
-    <t>MiaoShu_FeiChong</t>
-  </si>
-  <si>
-    <t>可飞跃障碍物</t>
-  </si>
-  <si>
-    <t>MiaoShu_YiLiaoBing</t>
-  </si>
-  <si>
-    <t>可给友方单位恢复HP</t>
-  </si>
-  <si>
-    <t>Restores HP to allied units</t>
-  </si>
-  <si>
-    <t>MiaoShu_FangKongBing</t>
-  </si>
-  <si>
-    <t>远程对空范围攻击，爆炸溅射会伤害己方单位，不可对地攻击</t>
-  </si>
-  <si>
-    <t>Ranged anti-air area attack, explosion splash damage harms allied units, cannot attack ground targets.</t>
-  </si>
-  <si>
-    <t>MiaoShu_JiDi</t>
-  </si>
-  <si>
-    <t>可产出工程车</t>
-  </si>
-  <si>
-    <t>Produces engineering vehicles</t>
-  </si>
-  <si>
-    <t>MiaoShu_BingYing</t>
-  </si>
-  <si>
-    <t>可产出枪兵和近战兵</t>
-  </si>
-  <si>
-    <t>Produces riflemen and melee infantry</t>
-  </si>
-  <si>
     <t>MiaoShu_MinFang</t>
   </si>
   <si>
-    <t>MiaoShu_DiBao</t>
-  </si>
-  <si>
-    <t>高HP，可派遣步兵进入地堡</t>
-  </si>
-  <si>
-    <t>High HP, allows infantry to garrison inside the bunker</t>
-  </si>
-  <si>
-    <t>MiaoShu_PaoTai</t>
-  </si>
-  <si>
-    <t>克制除了坦克以外的一切单位</t>
-  </si>
-  <si>
-    <t>Effective against all units except tanks</t>
-  </si>
-  <si>
-    <t>MiaoShu_ChongChao</t>
-  </si>
-  <si>
-    <t>可产出幼虫</t>
-  </si>
-  <si>
-    <t>Produces larvae</t>
-  </si>
-  <si>
-    <t>MiaoShu_JiChang</t>
-  </si>
-  <si>
-    <t>可产出飞机</t>
-  </si>
-  <si>
-    <t>Produces aircraft</t>
-  </si>
-  <si>
-    <t>MiaoShu_ZhongCheChang</t>
-  </si>
-  <si>
-    <t>可产出三色坦克</t>
-  </si>
-  <si>
-    <t>Produces three-color tanks</t>
-  </si>
-  <si>
-    <t>MiaoShu_ChongYing</t>
-  </si>
-  <si>
-    <t>近战虫和枪虫的前置建筑，只需1个就够了</t>
-  </si>
-  <si>
-    <t>Prerequisite structure for melee bugs and rifle bugs, only 1 required</t>
-  </si>
-  <si>
-    <t>MiaoShu_FeiTa</t>
-  </si>
-  <si>
-    <t>飞虫的前置建筑，只需1个就够了</t>
-  </si>
-  <si>
-    <t>Prerequisite structure for flying bugs, only 1 required</t>
-  </si>
-  <si>
-    <t>MiaoShu_NiTaiYuan</t>
-  </si>
-  <si>
-    <t>绿色坦克的前置建筑，只需1个就够了</t>
-  </si>
-  <si>
-    <t>Prerequisite structure for green tanks, only 1 required</t>
-  </si>
-  <si>
-    <t>MiaoShu_TaiSui</t>
-  </si>
-  <si>
-    <t>可扩张苔蔓(wàn)，扩张完成后可分裂另一个太岁</t>
-  </si>
-  <si>
-    <t>Can spread creep, splits into another Taisui upon completion of spread</t>
+    <t>Key方墩</t>
+  </si>
+  <si>
+    <t>Square Pillar</t>
+  </si>
+  <si>
+    <t>Key晶体矿</t>
+  </si>
+  <si>
+    <t>Crystal Ore</t>
+  </si>
+  <si>
+    <t>Key燃气矿</t>
+  </si>
+  <si>
+    <t>Gas Ore</t>
+  </si>
+  <si>
+    <t>Key基地</t>
+  </si>
+  <si>
+    <t>Key兵营</t>
+  </si>
+  <si>
+    <t>Key民房</t>
+  </si>
+  <si>
+    <t>Supply Depots</t>
+  </si>
+  <si>
+    <t>Key地堡</t>
+  </si>
+  <si>
+    <t>Key炮台</t>
+  </si>
+  <si>
+    <t>Key虫巢</t>
+  </si>
+  <si>
+    <t>Key机场</t>
+  </si>
+  <si>
+    <t>Key重车厂</t>
+  </si>
+  <si>
+    <t>Key虫营</t>
+  </si>
+  <si>
+    <t>Bug Barracks</t>
+  </si>
+  <si>
+    <t>Key拟态源</t>
+  </si>
+  <si>
+    <t>Mimic Source</t>
+  </si>
+  <si>
+    <t>Mi_Miao</t>
+  </si>
+  <si>
+    <t>米/秒</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiJianZhu</t>
+  </si>
+  <si>
+    <t>请点击地面放置建筑</t>
+  </si>
+  <si>
+    <t>Please click the ground to place the structure</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiXunLvDian</t>
+  </si>
+  <si>
+    <t>请点击地面设置巡逻点</t>
+  </si>
+  <si>
+    <t>Please click the ground to set the patrol point</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiQiangZouXingDiMuDi</t>
+  </si>
+  <si>
+    <t>强行走过程不会攻击敌人，请点击地面确定目的地</t>
+  </si>
+  <si>
+    <t>Forced movement will not attack enemies. Please click the ground to confirm the destination</t>
+  </si>
+  <si>
+    <t>QingDianJiDiMianZhiZhiSheZhiCiJianZhuChanChuHuoDongDanWeiDeJiJiDian</t>
+  </si>
+  <si>
+    <t>请点击地面设置此建筑产出活动单位的集结点</t>
+  </si>
+  <si>
+    <t>Please click the ground to set the rally point for mobile units produced by this structure</t>
+  </si>
+  <si>
+    <t>QingZaiPingMuShangTuoDongYiKuangXuanDanWei</t>
+  </si>
+  <si>
+    <t>请在屏幕上拖动以框选单位</t>
+  </si>
+  <si>
+    <t>Please drag on the screen to select units</t>
+  </si>
+  <si>
+    <t>QingZaiXuanZhongTaiShuiDeTaiManWanShangFangZhiFenLieDeTaiShui</t>
+  </si>
+  <si>
+    <t>请在选中太岁的苔蔓(wàn)上放置分裂的太岁</t>
+  </si>
+  <si>
+    <t>Please place the split Taisui on the creep of the selected Taisui</t>
+  </si>
+  <si>
+    <t>SheZhi</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>JingTouTouYing</t>
+  </si>
+  <si>
+    <t>镜头投影</t>
+  </si>
+  <si>
+    <t>Camera Projection</t>
+  </si>
+  <si>
+    <t>KuangXuanMoShi</t>
+  </si>
+  <si>
+    <t>框选模式</t>
+  </si>
+  <si>
+    <t>Selection Box Mode</t>
+  </si>
+  <si>
+    <t>ShiKouFangDa</t>
+  </si>
+  <si>
+    <t>视口放大</t>
+  </si>
+  <si>
+    <t>Viewport Zoom In</t>
+  </si>
+  <si>
+    <t>ShiKouSuoXiao</t>
+  </si>
+  <si>
+    <t>视口缩小</t>
+  </si>
+  <si>
+    <t>Viewport Zoom Out</t>
+  </si>
+  <si>
+    <t>DianJiZhuiJiaZuanZhong</t>
+  </si>
+  <si>
+    <t>点击单位都是追加选中</t>
+  </si>
+  <si>
+    <t>Clicking Units Adds to Selection</t>
+  </si>
+  <si>
+    <t>XianShiMingZi</t>
+  </si>
+  <si>
+    <t>显示名字</t>
+  </si>
+  <si>
+    <t>Show Names</t>
+  </si>
+  <si>
+    <t>MingZiXianShiDanWeiLeiXing</t>
+  </si>
+  <si>
+    <t>名字里显示单位类型</t>
+  </si>
+  <si>
+    <t>Display Unit Type in Names</t>
+  </si>
+  <si>
+    <t>LingXingKuangXuan</t>
+  </si>
+  <si>
+    <t>菱形框选</t>
+  </si>
+  <si>
+    <t>Diamond Selection</t>
+  </si>
+  <si>
+    <t>ZhengJuXingKuangXuan</t>
+  </si>
+  <si>
+    <t>正矩形框选</t>
+  </si>
+  <si>
+    <t>Square Selection</t>
+  </si>
+  <si>
+    <t>MoShi</t>
+  </si>
+  <si>
+    <t>模式</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>YiQieHuanDao</t>
+  </si>
+  <si>
+    <t>已切换到</t>
+  </si>
+  <si>
+    <t>Switched to</t>
+  </si>
+  <si>
+    <t>YiTianJiaWeiXunLvDian</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 已添加为巡逻点，请继续点击地面添加巡逻点，或点击“确定”提交巡逻点列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> waypoint added. Continue clicking the ground to add more waypoints, or click Confirm to submit the waypoint list.</t>
   </si>
   <si>
     <t>KeyTeXiao</t>
   </si>
   <si>
-    <t>特效</t>
-  </si>
-  <si>
-    <t>Special Effects</t>
-  </si>
-  <si>
     <t>KeyShiKou</t>
   </si>
   <si>
-    <t>视口</t>
-  </si>
-  <si>
-    <t>Viewport</t>
-  </si>
-  <si>
     <t>KeyTaiWan</t>
   </si>
   <si>
-    <t>苔蔓(wàn)</t>
-  </si>
-  <si>
     <t>Mossy Vines</t>
   </si>
   <si>
     <t>KeyFangDun</t>
   </si>
   <si>
-    <t>方墩</t>
-  </si>
-  <si>
-    <t>Square Pillar</t>
-  </si>
-  <si>
     <t>KeyJingTiKuang</t>
   </si>
   <si>
-    <t>Crystal Ore</t>
-  </si>
-  <si>
     <t>KeyRanQiKuang</t>
   </si>
   <si>
-    <t>Gas Ore</t>
-  </si>
-  <si>
     <t>KeyGongChengChe</t>
   </si>
   <si>
-    <t>工程车</t>
-  </si>
-  <si>
     <t>Construc. Vehicle</t>
   </si>
   <si>
     <t>KeyQiangBing</t>
   </si>
   <si>
-    <t>枪兵</t>
-  </si>
-  <si>
-    <t>Rifleman</t>
-  </si>
-  <si>
     <t>KeyJinZhanBing</t>
   </si>
   <si>
-    <t>近战兵</t>
-  </si>
-  <si>
-    <t>Melee Infantry</t>
-  </si>
-  <si>
     <t>KeySanSeTanKe</t>
   </si>
   <si>
-    <t>三色坦克</t>
-  </si>
-  <si>
-    <t>Tricolor Tank</t>
-  </si>
-  <si>
     <t>KeyGongChong</t>
   </si>
   <si>
-    <t>工虫</t>
-  </si>
-  <si>
     <t>Worker Drone</t>
   </si>
   <si>
     <t>KeyFeiJi</t>
   </si>
   <si>
-    <t>飞机</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
     <t>KeyQiangChong</t>
   </si>
   <si>
-    <t>枪虫</t>
-  </si>
-  <si>
-    <t>Rifle Bug</t>
-  </si>
-  <si>
     <t>KeyJinZhanChong</t>
   </si>
   <si>
-    <t>近战虫</t>
-  </si>
-  <si>
-    <t>Melee Bug</t>
-  </si>
-  <si>
     <t>KeyYouChong</t>
   </si>
   <si>
-    <t>幼虫</t>
-  </si>
-  <si>
-    <t>Larva</t>
-  </si>
-  <si>
     <t>KeyLvSeTanKe</t>
   </si>
   <si>
-    <t>绿色坦克</t>
-  </si>
-  <si>
-    <t>Green Tank</t>
-  </si>
-  <si>
     <t>KeyGuangCi</t>
   </si>
   <si>
-    <t>光刺</t>
-  </si>
-  <si>
     <t>Light Orb</t>
   </si>
   <si>
     <t>KeyFangChong</t>
   </si>
   <si>
-    <t>房虫</t>
-  </si>
-  <si>
     <t>Popul. Drone</t>
   </si>
   <si>
     <t>KeyFeiChong</t>
   </si>
   <si>
-    <t>飞虫</t>
-  </si>
-  <si>
-    <t>Flying Bug</t>
-  </si>
-  <si>
     <t>KeyYiLiaoBing</t>
   </si>
   <si>
-    <t>医疗兵</t>
-  </si>
-  <si>
-    <t>Medic</t>
-  </si>
-  <si>
     <t>KeyFangKongBing</t>
   </si>
   <si>
-    <t>防空兵</t>
-  </si>
-  <si>
-    <t>Anti-Air Trooper</t>
-  </si>
-  <si>
     <t>KeyJiDi</t>
   </si>
   <si>
-    <t>基地</t>
-  </si>
-  <si>
-    <t>Command Center</t>
-  </si>
-  <si>
     <t>KeyBingYing</t>
   </si>
   <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>Barracks</t>
-  </si>
-  <si>
     <t>KeyMinFang</t>
   </si>
   <si>
-    <t>民房</t>
-  </si>
-  <si>
-    <t>Supply Depots</t>
-  </si>
-  <si>
     <t>KeyDiBao</t>
   </si>
   <si>
-    <t>地堡</t>
-  </si>
-  <si>
-    <t>Bunker</t>
-  </si>
-  <si>
     <t>KeyPaoTai</t>
   </si>
   <si>
-    <t>炮台</t>
-  </si>
-  <si>
-    <t>Turret</t>
-  </si>
-  <si>
     <t>KeyChongChao</t>
   </si>
   <si>
-    <t>虫巢</t>
-  </si>
-  <si>
-    <t>Hive</t>
-  </si>
-  <si>
     <t>KeyJiChang</t>
   </si>
   <si>
-    <t>机场</t>
-  </si>
-  <si>
-    <t>Airfield</t>
-  </si>
-  <si>
     <t>KeyZhongCheChang</t>
   </si>
   <si>
-    <t>重车厂</t>
-  </si>
-  <si>
-    <t>Heavy Vehicle Factory</t>
-  </si>
-  <si>
     <t>KeyChongYing</t>
   </si>
   <si>
-    <t>虫营</t>
-  </si>
-  <si>
-    <t>Bug Barracks</t>
-  </si>
-  <si>
     <t>KeyFeiTa</t>
   </si>
   <si>
-    <t>飞塔</t>
-  </si>
-  <si>
     <t>Air Tower</t>
   </si>
   <si>
     <t>KeyNiTaiYuan</t>
   </si>
   <si>
-    <t>拟态源</t>
-  </si>
-  <si>
-    <t>Mimic Source</t>
-  </si>
-  <si>
     <t>KeyTaiSui</t>
   </si>
   <si>
-    <t>太岁</t>
-  </si>
-  <si>
     <t>Taisui</t>
   </si>
   <si>
     <t>KeyQiangChongGuai</t>
   </si>
   <si>
-    <t>枪虫怪</t>
-  </si>
-  <si>
-    <t>Rifle Bug Mutant</t>
-  </si>
-  <si>
     <t>KeyJinZhanCHongGuai</t>
   </si>
   <si>
-    <t>近战虫怪</t>
-  </si>
-  <si>
-    <t>Melee Bug Mutant</t>
-  </si>
-  <si>
     <t>KeyGongChongGuai</t>
   </si>
   <si>
-    <t>工虫怪</t>
-  </si>
-  <si>
-    <t>Worker Mutant</t>
-  </si>
-  <si>
     <t>KeyQiangBingGuai</t>
   </si>
   <si>
-    <t>枪兵怪</t>
-  </si>
-  <si>
-    <t>Rifleman Mutant</t>
-  </si>
-  <si>
     <t>KeyJinZhanBingGuai</t>
   </si>
   <si>
-    <t>近战兵怪</t>
-  </si>
-  <si>
-    <t>Melee Infantry Mutant</t>
-  </si>
-  <si>
     <t>KeyGongChengCheGuai</t>
   </si>
   <si>
-    <t>工程车怪</t>
-  </si>
-  <si>
-    <t>Constructor Mutant</t>
-  </si>
-  <si>
     <t>KeyYouChongGuai</t>
   </si>
   <si>
-    <t>幼虫怪</t>
-  </si>
-  <si>
-    <t>Larva Mutant</t>
-  </si>
-  <si>
     <t>KeyFeiChongGuai</t>
   </si>
   <si>
-    <t>飞虫怪</t>
-  </si>
-  <si>
-    <t>Flying Bug Mutant</t>
-  </si>
-  <si>
     <t>KeyLvSeTanKeGuai</t>
   </si>
   <si>
-    <t>绿色坦克怪</t>
-  </si>
-  <si>
-    <t>Green Tank Mutant</t>
-  </si>
-  <si>
     <t>KeyFangChongGuai</t>
   </si>
   <si>
-    <t>房虫怪</t>
-  </si>
-  <si>
     <t>PopuLifter Drone Mutant</t>
   </si>
   <si>
     <t>KeyFangKongBingGuai</t>
   </si>
   <si>
-    <t>防空兵怪</t>
-  </si>
-  <si>
-    <t>Anti-Air Trooper Mutant</t>
-  </si>
-  <si>
-    <t>Mi_Miao</t>
-  </si>
-  <si>
-    <t>米/秒</t>
-  </si>
-  <si>
-    <t>m/s</t>
-  </si>
-  <si>
-    <t>QingDianJiDiMianZhiZhiJianZhu</t>
-  </si>
-  <si>
-    <t>请点击地面放置建筑</t>
-  </si>
-  <si>
-    <t>Please click the ground to place the structure</t>
-  </si>
-  <si>
     <t>QingDianJiYaoGenSuiDeMuBiaoDanWei</t>
   </si>
   <si>
@@ -2011,240 +2298,6 @@
     <t>Please click the target unit to follow</t>
   </si>
   <si>
-    <t>QingDianJiDiMianZhiZhiXunLvDian</t>
-  </si>
-  <si>
-    <t>请点击地面设置巡逻点</t>
-  </si>
-  <si>
-    <t>Please click the ground to set the patrol point</t>
-  </si>
-  <si>
-    <t>QingDianJiDiMianZhiZhiQiangZouXingDiMuDi</t>
-  </si>
-  <si>
-    <t>强行走过程不会攻击敌人，请点击地面确定目的地</t>
-  </si>
-  <si>
-    <t>Forced movement will not attack enemies. Please click the ground to confirm the destination</t>
-  </si>
-  <si>
-    <t>QingDianJiDiMianZhiZhiSheZhiCiJianZhuChanChuHuoDongDanWeiDeJiJiDian</t>
-  </si>
-  <si>
-    <t>请点击地面设置此建筑产出活动单位的集结点</t>
-  </si>
-  <si>
-    <t>Please click the ground to set the rally point for mobile units produced by this structure</t>
-  </si>
-  <si>
-    <t>QingZaiPingMuShangTuoDongYiKuangXuanDanWei</t>
-  </si>
-  <si>
-    <t>请在屏幕上拖动以框选单位</t>
-  </si>
-  <si>
-    <t>Please drag on the screen to select units</t>
-  </si>
-  <si>
-    <t>QingZaiXuanZhongTaiShuiDeTaiManWanShangFangZhiFenLieDeTaiShui</t>
-  </si>
-  <si>
-    <t>请在选中太岁的苔蔓(wàn)上放置分裂的太岁</t>
-  </si>
-  <si>
-    <t>Please place the split Taisui on the creep of the selected Taisui</t>
-  </si>
-  <si>
-    <t>SheZhi</t>
-  </si>
-  <si>
-    <t>设置</t>
-  </si>
-  <si>
-    <t>Settings</t>
-  </si>
-  <si>
-    <t>JingTouTouYing</t>
-  </si>
-  <si>
-    <t>镜头投影</t>
-  </si>
-  <si>
-    <t>Camera Projection</t>
-  </si>
-  <si>
-    <t>KuangXuanMoShi</t>
-  </si>
-  <si>
-    <t>框选模式</t>
-  </si>
-  <si>
-    <t>Selection Box Mode</t>
-  </si>
-  <si>
-    <t>ShiKouFangDa</t>
-  </si>
-  <si>
-    <t>视口放大</t>
-  </si>
-  <si>
-    <t>Viewport Zoom In</t>
-  </si>
-  <si>
-    <t>ShiKouSuoXiao</t>
-  </si>
-  <si>
-    <t>视口缩小</t>
-  </si>
-  <si>
-    <t>Viewport Zoom Out</t>
-  </si>
-  <si>
-    <t>DianJiZhuiJiaZuanZhong</t>
-  </si>
-  <si>
-    <t>点击单位都是追加选中</t>
-  </si>
-  <si>
-    <t>Clicking Units Adds to Selection</t>
-  </si>
-  <si>
-    <t>XianShiMingZi</t>
-  </si>
-  <si>
-    <t>显示名字</t>
-  </si>
-  <si>
-    <t>Show Names</t>
-  </si>
-  <si>
-    <t>MingZiXianShiDanWeiLeiXing</t>
-  </si>
-  <si>
-    <t>名字里显示单位类型</t>
-  </si>
-  <si>
-    <t>Display Unit Type in Names</t>
-  </si>
-  <si>
-    <t>LingXingKuangXuan</t>
-  </si>
-  <si>
-    <t>菱形框选</t>
-  </si>
-  <si>
-    <t>Diamond Selection</t>
-  </si>
-  <si>
-    <t>ZhengJuXingKuangXuan</t>
-  </si>
-  <si>
-    <t>正矩形框选</t>
-  </si>
-  <si>
-    <t>Square Selection</t>
-  </si>
-  <si>
-    <t>MoShi</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>YiQieHuanDao</t>
-  </si>
-  <si>
-    <t>已切换到</t>
-  </si>
-  <si>
-    <t>Switched to</t>
-  </si>
-  <si>
-    <t>YiTianJiaWeiXunLvDian</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 已添加为巡逻点，请继续点击地面添加巡逻点，或点击</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>确定</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <rFont val="Consolas"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10.5"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>提交巡逻点列表</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> waypoint added. Continue clicking the ground to add more waypoints, or click </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Confirm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> to submit the waypoint list.</t>
-    </r>
-  </si>
-  <si>
     <t>MeiYouKeYiDongDeZhanDouDanWei</t>
   </si>
   <si>
@@ -2299,7 +2352,13 @@
     <t xml:space="preserve"> Defeated </t>
   </si>
   <si>
-    <t>Unit Loss Ranking</t>
+    <t>BeiJiBaiDanWeiShu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 被击败单位数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Units Lost </t>
   </si>
   <si>
     <t>GongSunShi</t>
@@ -2311,7 +2370,13 @@
     <t xml:space="preserve"> Total Losses </t>
   </si>
   <si>
-    <t>Unit Kill Ranking</t>
+    <t>JiBaiDanWeiShu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 击败单位数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of Units Killed </t>
   </si>
   <si>
     <t>GongJiBai</t>
@@ -2321,6 +2386,16 @@
   </si>
   <si>
     <t xml:space="preserve"> Total Kills</t>
+  </si>
+  <si>
+    <t>KuangXuanXiangQiang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 在屏幕上拖动出一个方框，选中框内所有的活动单位。&lt;br/&gt;  在左边的设置按钮（齿轮图标）里可以在&lt;color=#a0ff50&gt;正矩形框选&lt;/color&gt;模式和&lt;color=#a0ff50&gt;菱形框选&lt;/color&gt;模式之间切换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Drag a box on the screen to select all active units within it.
+  You can switch between &lt;color=#a0ff50&gt;Axis-Aligned Bounding Box&lt;/color&gt; mode and &lt;color=#a0ff50&gt;Diamond-Shaped Box&lt;/color&gt; mode in the settings button (gear icon) on the left.</t>
   </si>
 </sst>
 </file>
@@ -2333,81 +2408,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFE394DC"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFE394DC"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2417,39 +2424,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="4"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2587,45 +2567,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10.5"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2923,227 +2871,156 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3527,17 +3404,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B280" workbookViewId="0">
+      <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="67.625" customWidth="1"/>
-    <col min="2" max="2" width="161.75" customWidth="1"/>
-    <col min="3" max="3" width="138.625" customWidth="1"/>
+    <col min="1" max="1" width="74.875" customWidth="1"/>
+    <col min="2" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3562,14 +3438,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3606,793 +3482,793 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="42.75" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="8" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="215.25" spans="1:3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="4" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" customFormat="1" ht="28.5" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="B32" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="9" t="s">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" ht="28.5" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="B33" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="9" t="s">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" ht="28.5" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="9" t="s">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:3">
-      <c r="A35" s="10" t="s">
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="11" t="s">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:3">
-      <c r="A36" s="3" t="s">
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="C36" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="11" t="s">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="11" t="s">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:3">
-      <c r="A38" s="13" t="s">
+      <c r="B38" t="s">
         <v>111</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" t="s">
         <v>112</v>
       </c>
-      <c r="C38" s="11" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A39" s="13" t="s">
+      <c r="B39" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="11" t="s">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A40" s="3" t="s">
+      <c r="B40" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="11" t="s">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="41" s="3" customFormat="1" ht="17.25" spans="1:3">
-      <c r="A41" s="3" t="s">
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="11" t="s">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:3">
-      <c r="A42" s="3" t="s">
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" t="s">
         <v>124</v>
       </c>
-      <c r="C42" s="11" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:3">
-      <c r="A43" s="3" t="s">
+      <c r="B43" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="11" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:3">
-      <c r="A44" s="3" t="s">
+      <c r="B44" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="11" t="s">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:3">
-      <c r="A45" s="3" t="s">
+      <c r="B45" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="C45" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="11" t="s">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:3">
-      <c r="A46" s="3" t="s">
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="B47" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:3">
-      <c r="A47" s="3" t="s">
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B48" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:3">
-      <c r="A48" s="3" t="s">
+      <c r="B49" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C49" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="11" t="s">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:3">
-      <c r="A49" s="3" t="s">
+      <c r="B50" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="B51" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:3">
-      <c r="A50" s="3" t="s">
+      <c r="C51" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="12" t="s">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="B52" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:3">
-      <c r="A51" s="3" t="s">
+      <c r="C52" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="12" t="s">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:3">
-      <c r="A52" s="3" t="s">
+      <c r="B53" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="C53" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:3">
-      <c r="A53" s="3" t="s">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>154</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B54" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:3">
-      <c r="A54" s="3" t="s">
+      <c r="C54" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="12" t="s">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="B55" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="C55" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="12" t="s">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="B56" t="s">
         <v>161</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="16" t="s">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="B57" t="s">
         <v>164</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="16" t="s">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="B58" t="s">
         <v>167</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>168</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
         <v>170</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>171</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
         <v>173</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>174</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
         <v>176</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
         <v>179</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>180</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" t="s">
         <v>182</v>
-      </c>
-      <c r="B63" t="s">
-        <v>183</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" t="s">
         <v>185</v>
-      </c>
-      <c r="B64" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
         <v>188</v>
-      </c>
-      <c r="B65" t="s">
-        <v>189</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>189</v>
+      </c>
+      <c r="B66" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" t="s">
         <v>191</v>
-      </c>
-      <c r="B66" t="s">
-        <v>192</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" t="s">
         <v>194</v>
-      </c>
-      <c r="B67" t="s">
-        <v>195</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" t="s">
         <v>197</v>
-      </c>
-      <c r="B68" t="s">
-        <v>198</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" t="s">
         <v>200</v>
-      </c>
-      <c r="B69" t="s">
-        <v>201</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" t="s">
         <v>203</v>
-      </c>
-      <c r="B70" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" t="s">
         <v>206</v>
-      </c>
-      <c r="B71" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" t="s">
         <v>209</v>
-      </c>
-      <c r="B72" t="s">
-        <v>210</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
         <v>212</v>
-      </c>
-      <c r="B73" t="s">
-        <v>213</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>213</v>
+      </c>
+      <c r="B74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C74" t="s">
         <v>215</v>
-      </c>
-      <c r="B74" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
         <v>218</v>
-      </c>
-      <c r="B75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" t="s">
         <v>221</v>
-      </c>
-      <c r="B76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" t="s">
         <v>224</v>
-      </c>
-      <c r="B77" t="s">
-        <v>225</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
         <v>227</v>
@@ -4400,650 +4276,650 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" t="s">
         <v>229</v>
       </c>
-      <c r="B79" t="s">
-        <v>230</v>
-      </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
         <v>231</v>
       </c>
-      <c r="B80" t="s">
-        <v>232</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>233</v>
+      <c r="C80" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" t="s">
         <v>234</v>
-      </c>
-      <c r="B81" t="s">
-        <v>235</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>235</v>
+      </c>
+      <c r="B82" t="s">
+        <v>236</v>
+      </c>
+      <c r="C82" t="s">
         <v>237</v>
       </c>
-      <c r="B82" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="B83" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="83" ht="42.75" spans="1:3">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
         <v>240</v>
       </c>
-      <c r="B83" s="9" t="s">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
         <v>241</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="B84" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="84" ht="28.5" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
         <v>243</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B85" t="s">
+        <v>245</v>
+      </c>
+      <c r="C85" t="s">
         <v>246</v>
-      </c>
-      <c r="B85" t="s">
-        <v>247</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" t="s">
+        <v>248</v>
+      </c>
+      <c r="C86" t="s">
         <v>249</v>
-      </c>
-      <c r="B86" t="s">
-        <v>250</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+      <c r="C87" t="s">
         <v>252</v>
-      </c>
-      <c r="B87" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="C88" t="s">
         <v>255</v>
       </c>
-      <c r="B88" t="s">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
         <v>256</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="B89" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
+      <c r="C89" t="s">
         <v>258</v>
       </c>
-      <c r="B89" t="s">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="B90" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="5" t="s">
+      <c r="C90" t="s">
         <v>261</v>
       </c>
-      <c r="B90" t="s">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>262</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="B91" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="5" t="s">
+      <c r="C91" t="s">
         <v>264</v>
       </c>
-      <c r="B91" t="s">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
         <v>265</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="B92" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
+      <c r="C92" t="s">
         <v>267</v>
       </c>
-      <c r="B92" s="5" t="s">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>268</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="B93" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
+      <c r="C93" t="s">
         <v>270</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" t="s">
         <v>273</v>
-      </c>
-      <c r="B94" t="s">
-        <v>274</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C95" t="s">
         <v>276</v>
-      </c>
-      <c r="B95" t="s">
-        <v>277</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>277</v>
+      </c>
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+      <c r="C96" t="s">
         <v>279</v>
       </c>
-      <c r="B96" t="s">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>280</v>
       </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="97" ht="28.5" spans="1:3">
-      <c r="A97" t="s">
+      <c r="C97" t="s">
         <v>282</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>283</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
         <v>285</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>286</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="B99" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="99" ht="28.5" spans="1:3">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="9" t="s">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>289</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="B100" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="100" ht="28.5" spans="1:3">
-      <c r="A100" t="s">
+      <c r="C100" t="s">
         <v>291</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" t="s">
         <v>294</v>
-      </c>
-      <c r="B101" t="s">
-        <v>295</v>
-      </c>
-      <c r="C101" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" t="s">
         <v>297</v>
       </c>
-      <c r="B102" t="s">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>298</v>
       </c>
-      <c r="C102" s="16" t="s">
+      <c r="B103" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="103" ht="57" spans="1:3">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
         <v>300</v>
       </c>
-      <c r="B103" s="9" t="s">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="9" t="s">
+      <c r="B104" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="104" ht="28.5" spans="1:3">
-      <c r="A104" t="s">
+      <c r="C104" t="s">
         <v>303</v>
       </c>
-      <c r="B104" s="9" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>304</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="B105" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="105" ht="28.5" spans="1:3">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
         <v>306</v>
       </c>
-      <c r="B105" s="9" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>307</v>
       </c>
-      <c r="C105" s="9" t="s">
+      <c r="B106" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="106" ht="28.5" spans="1:3">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
         <v>309</v>
       </c>
-      <c r="B106" s="9" t="s">
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>310</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="B107" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="107" ht="28.5" spans="1:3">
-      <c r="A107" t="s">
+      <c r="C107" t="s">
         <v>312</v>
       </c>
-      <c r="B107" s="9" t="s">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>313</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="B108" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="108" ht="42.75" spans="1:3">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
         <v>315</v>
       </c>
-      <c r="B108" s="9" t="s">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>316</v>
       </c>
-      <c r="C108" s="9" t="s">
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="109" ht="42.75" spans="1:3">
-      <c r="A109" t="s">
+      <c r="B110" t="s">
         <v>318</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="C110" t="s">
         <v>319</v>
       </c>
-      <c r="C109" s="9" t="s">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="110" ht="42.75" spans="1:3">
-      <c r="A110" t="s">
+      <c r="B111" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="C111" t="s">
         <v>322</v>
       </c>
-      <c r="C110" s="9" t="s">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="111" ht="42.75" spans="1:3">
-      <c r="A111" t="s">
+      <c r="B112" t="s">
         <v>324</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="C112" t="s">
         <v>325</v>
       </c>
-      <c r="C111" s="9" t="s">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="112" ht="42.75" spans="1:3">
-      <c r="A112" t="s">
+      <c r="B113" t="s">
         <v>327</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="C113" t="s">
         <v>328</v>
       </c>
-      <c r="C112" s="9" t="s">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="113" ht="42.75" spans="1:3">
-      <c r="A113" t="s">
+      <c r="B114" t="s">
         <v>330</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="C114" t="s">
         <v>331</v>
       </c>
-      <c r="C113" s="9" t="s">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="114" ht="42.75" spans="1:3">
-      <c r="A114" t="s">
+      <c r="B115" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="C115" t="s">
         <v>334</v>
       </c>
-      <c r="C114" s="9" t="s">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="115" ht="42.75" spans="1:3">
-      <c r="A115" t="s">
+      <c r="B116" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="C116" t="s">
         <v>337</v>
       </c>
-      <c r="C115" s="9" t="s">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="116" ht="28.5" spans="1:3">
-      <c r="A116" t="s">
+      <c r="B117" t="s">
         <v>339</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="C117" t="s">
         <v>340</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="117" ht="28.5" spans="1:3">
-      <c r="A117" t="s">
-        <v>342</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>346</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="C118" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>348</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>350</v>
+        <v>344</v>
+      </c>
+      <c r="B119" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>351</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>353</v>
+        <v>347</v>
+      </c>
+      <c r="B120" t="s">
+        <v>348</v>
+      </c>
+      <c r="C120" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>354</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>356</v>
+        <v>350</v>
+      </c>
+      <c r="B121" t="s">
+        <v>351</v>
+      </c>
+      <c r="C121" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>357</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>359</v>
+        <v>353</v>
+      </c>
+      <c r="B122" t="s">
+        <v>354</v>
+      </c>
+      <c r="C122" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>360</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="B123" t="s">
+        <v>357</v>
+      </c>
+      <c r="C123" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>363</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>365</v>
+        <v>359</v>
+      </c>
+      <c r="B124" t="s">
+        <v>360</v>
+      </c>
+      <c r="C124" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>366</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>368</v>
+        <v>362</v>
+      </c>
+      <c r="B125" t="s">
+        <v>363</v>
+      </c>
+      <c r="C125" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>369</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>371</v>
+        <v>365</v>
+      </c>
+      <c r="B126" t="s">
+        <v>366</v>
+      </c>
+      <c r="C126" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>372</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>374</v>
+        <v>368</v>
+      </c>
+      <c r="B127" t="s">
+        <v>369</v>
+      </c>
+      <c r="C127" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>375</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>377</v>
+        <v>371</v>
+      </c>
+      <c r="B128" t="s">
+        <v>372</v>
+      </c>
+      <c r="C128" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>378</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>380</v>
+        <v>374</v>
+      </c>
+      <c r="B129" t="s">
+        <v>375</v>
+      </c>
+      <c r="C129" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>381</v>
-      </c>
-      <c r="B130" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>383</v>
+        <v>377</v>
+      </c>
+      <c r="B130" t="s">
+        <v>378</v>
+      </c>
+      <c r="C130" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>384</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
+      </c>
+      <c r="B131" t="s">
+        <v>381</v>
+      </c>
+      <c r="C131" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>387</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>389</v>
+        <v>383</v>
+      </c>
+      <c r="B132" t="s">
+        <v>384</v>
+      </c>
+      <c r="C132" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>390</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>392</v>
+        <v>386</v>
+      </c>
+      <c r="B133" t="s">
+        <v>387</v>
+      </c>
+      <c r="C133" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>393</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>395</v>
+        <v>389</v>
+      </c>
+      <c r="B134" t="s">
+        <v>390</v>
+      </c>
+      <c r="C134" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>396</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>383</v>
+        <v>392</v>
+      </c>
+      <c r="B135" t="s">
+        <v>393</v>
+      </c>
+      <c r="C135" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>395</v>
+      </c>
+      <c r="B136" t="s">
+        <v>396</v>
+      </c>
+      <c r="C136" t="s">
         <v>397</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>398</v>
       </c>
-      <c r="B137" s="21" t="s">
+      <c r="B137" t="s">
         <v>399</v>
       </c>
-      <c r="C137" s="16" t="s">
+      <c r="C137" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5051,10 +4927,10 @@
       <c r="A138" t="s">
         <v>401</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" t="s">
         <v>402</v>
       </c>
-      <c r="C138" s="16" t="s">
+      <c r="C138" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5062,10 +4938,10 @@
       <c r="A139" t="s">
         <v>404</v>
       </c>
-      <c r="B139" s="21" t="s">
+      <c r="B139" t="s">
         <v>405</v>
       </c>
-      <c r="C139" s="16" t="s">
+      <c r="C139" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5073,1012 +4949,1668 @@
       <c r="A140" t="s">
         <v>407</v>
       </c>
-      <c r="B140" s="21" t="s">
+      <c r="B140" t="s">
         <v>408</v>
       </c>
-      <c r="C140" s="16" t="s">
-        <v>395</v>
+      <c r="C140" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>409</v>
-      </c>
-      <c r="B141" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="C141" s="16" t="s">
+      <c r="B141" t="s">
         <v>411</v>
+      </c>
+      <c r="C141" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>412</v>
-      </c>
-      <c r="B142" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="C142" s="16" t="s">
+      <c r="B142" t="s">
         <v>414</v>
+      </c>
+      <c r="C142" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>415</v>
-      </c>
-      <c r="B143" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="C143" s="16" t="s">
+      <c r="B143" t="s">
         <v>417</v>
+      </c>
+      <c r="C143" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>418</v>
-      </c>
-      <c r="B144" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="C144" s="16" t="s">
+      <c r="B144" t="s">
         <v>420</v>
+      </c>
+      <c r="C144" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>421</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>406</v>
+        <v>422</v>
+      </c>
+      <c r="B145" t="s">
+        <v>423</v>
+      </c>
+      <c r="C145" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>422</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="B146" t="s">
+        <v>426</v>
+      </c>
+      <c r="C146" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>425</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="B147" t="s">
+        <v>429</v>
+      </c>
+      <c r="C147" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>428</v>
-      </c>
-      <c r="B148" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="B148" t="s">
+        <v>432</v>
+      </c>
+      <c r="C148" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>431</v>
-      </c>
-      <c r="B149" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>433</v>
+        <v>434</v>
+      </c>
+      <c r="B149" t="s">
+        <v>435</v>
+      </c>
+      <c r="C149" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>434</v>
-      </c>
-      <c r="B150" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="B150" t="s">
+        <v>438</v>
+      </c>
+      <c r="C150" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>437</v>
-      </c>
-      <c r="B151" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="B151" t="s">
+        <v>441</v>
+      </c>
+      <c r="C151" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>440</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="B152" t="s">
+        <v>444</v>
+      </c>
+      <c r="C152" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>443</v>
-      </c>
-      <c r="B153" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="B153" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>446</v>
-      </c>
-      <c r="B154" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="B154" t="s">
+        <v>450</v>
+      </c>
+      <c r="C154" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>451</v>
+      </c>
+      <c r="B155" t="s">
+        <v>452</v>
+      </c>
+      <c r="C155" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>454</v>
+      </c>
+      <c r="B156" t="s">
+        <v>455</v>
+      </c>
+      <c r="C156" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>457</v>
+      </c>
+      <c r="B157" t="s">
+        <v>458</v>
+      </c>
+      <c r="C157" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>460</v>
+      </c>
+      <c r="B158" t="s">
+        <v>461</v>
+      </c>
+      <c r="C158" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>463</v>
+      </c>
+      <c r="B159" t="s">
+        <v>464</v>
+      </c>
+      <c r="C159" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>466</v>
+      </c>
+      <c r="B160" t="s">
+        <v>467</v>
+      </c>
+      <c r="C160" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>469</v>
+      </c>
+      <c r="B161" t="s">
+        <v>470</v>
+      </c>
+      <c r="C161" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>472</v>
+      </c>
+      <c r="B162" t="s">
+        <v>473</v>
+      </c>
+      <c r="C162" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>475</v>
+      </c>
+      <c r="B163" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>478</v>
+      </c>
+      <c r="B164" t="s">
+        <v>479</v>
+      </c>
+      <c r="C164" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>481</v>
+      </c>
+      <c r="B165" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>484</v>
+      </c>
+      <c r="B166" t="s">
+        <v>485</v>
+      </c>
+      <c r="C166" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>487</v>
+      </c>
+      <c r="B167" t="s">
+        <v>488</v>
+      </c>
+      <c r="C167" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>490</v>
+      </c>
+      <c r="B168" t="s">
+        <v>491</v>
+      </c>
+      <c r="C168" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>493</v>
+      </c>
+      <c r="B169" t="s">
+        <v>494</v>
+      </c>
+      <c r="C169" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>496</v>
+      </c>
+      <c r="B170" t="s">
+        <v>497</v>
+      </c>
+      <c r="C170" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>499</v>
+      </c>
+      <c r="B171" t="s">
+        <v>500</v>
+      </c>
+      <c r="C171" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>502</v>
+      </c>
+      <c r="B172" t="s">
+        <v>503</v>
+      </c>
+      <c r="C172" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>505</v>
+      </c>
+      <c r="B173" t="s">
+        <v>506</v>
+      </c>
+      <c r="C173" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>508</v>
+      </c>
+      <c r="B174" t="s">
+        <v>509</v>
+      </c>
+      <c r="C174" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>511</v>
+      </c>
+      <c r="B175" t="s">
+        <v>512</v>
+      </c>
+      <c r="C175" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>514</v>
+      </c>
+      <c r="B176" t="s">
+        <v>515</v>
+      </c>
+      <c r="C176" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>517</v>
+      </c>
+      <c r="B177" t="s">
+        <v>518</v>
+      </c>
+      <c r="C177" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>520</v>
+      </c>
+      <c r="B178" t="s">
+        <v>521</v>
+      </c>
+      <c r="C178" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>523</v>
+      </c>
+      <c r="B179" t="s">
+        <v>524</v>
+      </c>
+      <c r="C179" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>526</v>
+      </c>
+      <c r="B180" t="s">
+        <v>527</v>
+      </c>
+      <c r="C180" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>529</v>
+      </c>
+      <c r="B181" t="s">
+        <v>530</v>
+      </c>
+      <c r="C181" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>532</v>
+      </c>
+      <c r="B182" t="s">
+        <v>533</v>
+      </c>
+      <c r="C182" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>535</v>
+      </c>
+      <c r="B183" t="s">
+        <v>536</v>
+      </c>
+      <c r="C183" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>538</v>
+      </c>
+      <c r="B184" t="s">
+        <v>539</v>
+      </c>
+      <c r="C184" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>541</v>
+      </c>
+      <c r="B185" t="s">
+        <v>542</v>
+      </c>
+      <c r="C185" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>544</v>
+      </c>
+      <c r="B186" t="s">
+        <v>545</v>
+      </c>
+      <c r="C186" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>547</v>
+      </c>
+      <c r="B187" t="s">
+        <v>548</v>
+      </c>
+      <c r="C187" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>550</v>
+      </c>
+      <c r="B188" t="s">
+        <v>551</v>
+      </c>
+      <c r="C188" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>553</v>
+      </c>
+      <c r="B189" t="s">
+        <v>554</v>
+      </c>
+      <c r="C189" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>556</v>
+      </c>
+      <c r="B190" t="s">
+        <v>557</v>
+      </c>
+      <c r="C190" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>559</v>
+      </c>
+      <c r="B191" t="s">
+        <v>560</v>
+      </c>
+      <c r="C191" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>562</v>
+      </c>
+      <c r="B192" t="s">
+        <v>563</v>
+      </c>
+      <c r="C192" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>565</v>
+      </c>
+      <c r="B193" t="s">
+        <v>566</v>
+      </c>
+      <c r="C193" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>568</v>
+      </c>
+      <c r="B194" t="s">
+        <v>569</v>
+      </c>
+      <c r="C194" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>571</v>
+      </c>
+      <c r="B195" t="s">
+        <v>572</v>
+      </c>
+      <c r="C195" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>574</v>
+      </c>
+      <c r="B196" t="s">
+        <v>575</v>
+      </c>
+      <c r="C196" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>577</v>
+      </c>
+      <c r="B197" t="s">
+        <v>578</v>
+      </c>
+      <c r="C197" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>580</v>
+      </c>
+      <c r="B198" t="s">
+        <v>581</v>
+      </c>
+      <c r="C198" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>583</v>
+      </c>
+      <c r="B199" t="s">
+        <v>426</v>
+      </c>
+      <c r="C199" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>584</v>
+      </c>
+      <c r="B200" t="s">
+        <v>429</v>
+      </c>
+      <c r="C200" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>585</v>
+      </c>
+      <c r="B201" t="s">
         <v>447</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="C201" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="B155" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="C155" s="21" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="23" t="s">
-        <v>452</v>
-      </c>
-      <c r="B156" s="23" t="s">
-        <v>453</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="B157" s="24" t="s">
-        <v>456</v>
-      </c>
-      <c r="C157" s="21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="B158" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="C158" s="21" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="B159" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="C159" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="B160" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="C160" s="21" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="26" t="s">
-        <v>465</v>
-      </c>
-      <c r="B161" s="26" t="s">
-        <v>466</v>
-      </c>
-      <c r="C161" s="21" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="27" t="s">
-        <v>468</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>469</v>
-      </c>
-      <c r="C162" s="21" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="26" t="s">
-        <v>471</v>
-      </c>
-      <c r="B163" s="26" t="s">
-        <v>472</v>
-      </c>
-      <c r="C163" s="21" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B164" s="26" t="s">
-        <v>475</v>
-      </c>
-      <c r="C164" s="21" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="26" t="s">
-        <v>477</v>
-      </c>
-      <c r="B165" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B166" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="C166" s="21" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="26" t="s">
-        <v>483</v>
-      </c>
-      <c r="B167" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>487</v>
-      </c>
-      <c r="C168" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="26" t="s">
-        <v>489</v>
-      </c>
-      <c r="B169" s="26" t="s">
-        <v>490</v>
-      </c>
-      <c r="C169" s="21" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="B170" s="26" t="s">
-        <v>493</v>
-      </c>
-      <c r="C170" s="21" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="26" t="s">
-        <v>495</v>
-      </c>
-      <c r="B171" s="26" t="s">
-        <v>496</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="26" t="s">
-        <v>498</v>
-      </c>
-      <c r="B172" s="26" t="s">
-        <v>499</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="26" t="s">
-        <v>501</v>
-      </c>
-      <c r="B173" s="26" t="s">
-        <v>502</v>
-      </c>
-      <c r="C173" s="21" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>505</v>
-      </c>
-      <c r="C174" s="21" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="26" t="s">
-        <v>507</v>
-      </c>
-      <c r="B175" s="26" t="s">
-        <v>508</v>
-      </c>
-      <c r="C175" s="21" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="B176" s="24" t="s">
-        <v>511</v>
-      </c>
-      <c r="C176" s="21" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="B177" s="24" t="s">
-        <v>514</v>
-      </c>
-      <c r="C177" s="21" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="24" t="s">
-        <v>516</v>
-      </c>
-      <c r="B178" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="B179" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="C179" s="21" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="C180" s="21" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="B181" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="C181" s="21" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="B182" s="24" t="s">
-        <v>529</v>
-      </c>
-      <c r="C182" s="21" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="24" t="s">
-        <v>531</v>
-      </c>
-      <c r="B183" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="C183" s="21" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="B184" s="24" t="s">
-        <v>535</v>
-      </c>
-      <c r="C184" s="21" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="B185" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="C185" s="21" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="24" t="s">
-        <v>540</v>
-      </c>
-      <c r="B186" s="24" t="s">
-        <v>541</v>
-      </c>
-      <c r="C186" s="21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="B187" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="C187" s="21" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="26" t="s">
-        <v>546</v>
-      </c>
-      <c r="B188" s="26" t="s">
-        <v>547</v>
-      </c>
-      <c r="C188" s="21" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="26" t="s">
-        <v>549</v>
-      </c>
-      <c r="B189" s="26" t="s">
-        <v>550</v>
-      </c>
-      <c r="C189" s="21" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="26" t="s">
-        <v>552</v>
-      </c>
-      <c r="B190" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="C190" s="21" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="27" t="s">
-        <v>555</v>
-      </c>
-      <c r="B191" s="27" t="s">
-        <v>556</v>
-      </c>
-      <c r="C191" s="21" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="26" t="s">
-        <v>558</v>
-      </c>
-      <c r="B192" s="26" t="s">
-        <v>559</v>
-      </c>
-      <c r="C192" s="21" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="26" t="s">
-        <v>561</v>
-      </c>
-      <c r="B193" s="26" t="s">
-        <v>562</v>
-      </c>
-      <c r="C193" s="21" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="26" t="s">
-        <v>564</v>
-      </c>
-      <c r="B194" s="26" t="s">
-        <v>565</v>
-      </c>
-      <c r="C194" s="21" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="26" t="s">
-        <v>567</v>
-      </c>
-      <c r="B195" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="C195" s="21" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="26" t="s">
-        <v>570</v>
-      </c>
-      <c r="B196" s="26" t="s">
-        <v>571</v>
-      </c>
-      <c r="C196" s="21" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="26" t="s">
-        <v>573</v>
-      </c>
-      <c r="B197" s="26" t="s">
-        <v>574</v>
-      </c>
-      <c r="C197" s="21" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="B198" s="26" t="s">
-        <v>577</v>
-      </c>
-      <c r="C198" s="21" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B199" t="s">
-        <v>580</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="B200" t="s">
-        <v>583</v>
-      </c>
-      <c r="C200" s="17" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="B201" t="s">
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
         <v>586</v>
       </c>
-      <c r="C201" s="17" t="s">
+      <c r="B202" t="s">
+        <v>281</v>
+      </c>
+      <c r="C202" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="5" t="s">
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
         <v>588</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
+        <v>302</v>
+      </c>
+      <c r="C203" t="s">
         <v>589</v>
       </c>
-      <c r="C202" s="17" t="s">
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="5" t="s">
+      <c r="B204" t="s">
+        <v>305</v>
+      </c>
+      <c r="C204" t="s">
         <v>591</v>
       </c>
-      <c r="B203" t="s">
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>592</v>
       </c>
-      <c r="C203" s="17" t="s">
+      <c r="B205" t="s">
+        <v>260</v>
+      </c>
+      <c r="C205" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="B204" t="s">
-        <v>595</v>
-      </c>
-      <c r="C204" s="17" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="5" t="s">
-        <v>597</v>
-      </c>
-      <c r="B205" t="s">
-        <v>598</v>
-      </c>
-      <c r="C205" s="17" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="5" t="s">
-        <v>600</v>
-      </c>
       <c r="B206" t="s">
-        <v>601</v>
-      </c>
-      <c r="C206" s="17" t="s">
-        <v>602</v>
+        <v>266</v>
+      </c>
+      <c r="C206" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B207" t="s">
-        <v>604</v>
-      </c>
-      <c r="C207" s="16" t="s">
-        <v>605</v>
+        <v>263</v>
+      </c>
+      <c r="C207" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B208" t="s">
-        <v>607</v>
-      </c>
-      <c r="C208" s="16" t="s">
-        <v>608</v>
+        <v>269</v>
+      </c>
+      <c r="C208" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B209" t="s">
-        <v>610</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>611</v>
+        <v>272</v>
+      </c>
+      <c r="C209" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B210" t="s">
-        <v>613</v>
-      </c>
-      <c r="C210" s="16" t="s">
-        <v>614</v>
+        <v>284</v>
+      </c>
+      <c r="C210" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="B211" t="s">
-        <v>616</v>
-      </c>
-      <c r="C211" s="16" t="s">
-        <v>617</v>
+        <v>278</v>
+      </c>
+      <c r="C211" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="B212" t="s">
-        <v>619</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>620</v>
+        <v>275</v>
+      </c>
+      <c r="C212" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="B213" t="s">
-        <v>622</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>623</v>
+        <v>287</v>
+      </c>
+      <c r="C213" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="B214" t="s">
-        <v>625</v>
-      </c>
-      <c r="C214" s="16" t="s">
-        <v>626</v>
+        <v>290</v>
+      </c>
+      <c r="C214" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" s="5" t="s">
-        <v>627</v>
+      <c r="A215" t="s">
+        <v>605</v>
       </c>
       <c r="B215" t="s">
-        <v>628</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>629</v>
+        <v>606</v>
+      </c>
+      <c r="C215" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216" s="5" t="s">
-        <v>630</v>
+      <c r="A216" t="s">
+        <v>608</v>
       </c>
       <c r="B216" t="s">
-        <v>631</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>632</v>
+        <v>609</v>
+      </c>
+      <c r="C216" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217" s="5" t="s">
-        <v>633</v>
+      <c r="A217" t="s">
+        <v>611</v>
       </c>
       <c r="B217" t="s">
-        <v>634</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>635</v>
+        <v>612</v>
+      </c>
+      <c r="C217" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218" s="5" t="s">
-        <v>636</v>
+      <c r="A218" t="s">
+        <v>614</v>
       </c>
       <c r="B218" t="s">
-        <v>637</v>
-      </c>
-      <c r="C218" s="16" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="219" s="3" customFormat="1" spans="1:3">
-      <c r="A219" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>640</v>
-      </c>
-      <c r="C219" s="8" t="s">
-        <v>641</v>
+        <v>615</v>
+      </c>
+      <c r="C218" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>617</v>
+      </c>
+      <c r="B219" t="s">
+        <v>618</v>
+      </c>
+      <c r="C219" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>620</v>
+      </c>
+      <c r="B220" t="s">
+        <v>621</v>
+      </c>
+      <c r="C220" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>623</v>
+      </c>
+      <c r="B221" t="s">
+        <v>624</v>
+      </c>
+      <c r="C221" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>626</v>
+      </c>
+      <c r="B222" t="s">
+        <v>627</v>
+      </c>
+      <c r="C222" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>629</v>
+      </c>
+      <c r="B223" t="s">
+        <v>630</v>
+      </c>
+      <c r="C223" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>632</v>
+      </c>
+      <c r="B224" t="s">
+        <v>633</v>
+      </c>
+      <c r="C224" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>635</v>
+      </c>
+      <c r="B225" t="s">
+        <v>636</v>
+      </c>
+      <c r="C225" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>638</v>
+      </c>
+      <c r="B226" t="s">
+        <v>639</v>
+      </c>
+      <c r="C226" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>641</v>
+      </c>
+      <c r="B227" t="s">
         <v>642</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="C227" t="s">
         <v>643</v>
       </c>
-      <c r="C220" s="16" t="s">
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="221" s="3" customFormat="1" spans="1:3">
-      <c r="A221" s="10" t="s">
+      <c r="B228" t="s">
         <v>645</v>
       </c>
-      <c r="B221" s="28" t="s">
+      <c r="C228" t="s">
         <v>646</v>
       </c>
-      <c r="C221" s="16" t="s">
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="222" s="3" customFormat="1" spans="1:3">
-      <c r="A222" s="10" t="s">
+      <c r="B229" t="s">
         <v>648</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="C229" t="s">
         <v>649</v>
       </c>
-      <c r="C222" s="16" t="s">
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C223" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="5" t="s">
+      <c r="B230" t="s">
         <v>651</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="C230" t="s">
         <v>652</v>
       </c>
-      <c r="C224" s="16" t="s">
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="5" t="s">
+      <c r="B231" t="s">
         <v>654</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C231" t="s">
         <v>655</v>
       </c>
-      <c r="C225" s="30" t="s">
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="5" t="s">
+      <c r="B232" t="s">
         <v>657</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C232" t="s">
         <v>658</v>
       </c>
-      <c r="C226" s="16" t="s">
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C227" s="16" t="s">
+      <c r="B233" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" s="5" t="s">
+      <c r="C233" t="s">
         <v>661</v>
       </c>
-      <c r="B228" s="7" t="s">
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
         <v>662</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="B234" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="C229" s="16" t="s">
+      <c r="C234" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="5" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
         <v>665</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B235" t="s">
+        <v>491</v>
+      </c>
+      <c r="C235" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
         <v>666</v>
       </c>
-      <c r="C230" s="16" t="s">
+      <c r="B236" t="s">
+        <v>494</v>
+      </c>
+      <c r="C236" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
         <v>667</v>
       </c>
+      <c r="B237" t="s">
+        <v>497</v>
+      </c>
+      <c r="C237" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>669</v>
+      </c>
+      <c r="B238" t="s">
+        <v>281</v>
+      </c>
+      <c r="C238" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>670</v>
+      </c>
+      <c r="B239" t="s">
+        <v>302</v>
+      </c>
+      <c r="C239" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>671</v>
+      </c>
+      <c r="B240" t="s">
+        <v>305</v>
+      </c>
+      <c r="C240" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>672</v>
+      </c>
+      <c r="B241" t="s">
+        <v>500</v>
+      </c>
+      <c r="C241" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>674</v>
+      </c>
+      <c r="B242" t="s">
+        <v>503</v>
+      </c>
+      <c r="C242" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>675</v>
+      </c>
+      <c r="B243" t="s">
+        <v>506</v>
+      </c>
+      <c r="C243" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>676</v>
+      </c>
+      <c r="B244" t="s">
+        <v>509</v>
+      </c>
+      <c r="C244" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>677</v>
+      </c>
+      <c r="B245" t="s">
+        <v>512</v>
+      </c>
+      <c r="C245" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>679</v>
+      </c>
+      <c r="B246" t="s">
+        <v>515</v>
+      </c>
+      <c r="C246" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>680</v>
+      </c>
+      <c r="B247" t="s">
+        <v>518</v>
+      </c>
+      <c r="C247" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>681</v>
+      </c>
+      <c r="B248" t="s">
+        <v>521</v>
+      </c>
+      <c r="C248" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>682</v>
+      </c>
+      <c r="B249" t="s">
+        <v>524</v>
+      </c>
+      <c r="C249" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>683</v>
+      </c>
+      <c r="B250" t="s">
+        <v>527</v>
+      </c>
+      <c r="C250" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>684</v>
+      </c>
+      <c r="B251" t="s">
+        <v>530</v>
+      </c>
+      <c r="C251" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>686</v>
+      </c>
+      <c r="B252" t="s">
+        <v>533</v>
+      </c>
+      <c r="C252" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>688</v>
+      </c>
+      <c r="B253" t="s">
+        <v>536</v>
+      </c>
+      <c r="C253" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>689</v>
+      </c>
+      <c r="B254" t="s">
+        <v>539</v>
+      </c>
+      <c r="C254" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>690</v>
+      </c>
+      <c r="B255" t="s">
+        <v>542</v>
+      </c>
+      <c r="C255" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>691</v>
+      </c>
+      <c r="B256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>692</v>
+      </c>
+      <c r="B257" t="s">
+        <v>266</v>
+      </c>
+      <c r="C257" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>693</v>
+      </c>
+      <c r="B258" t="s">
+        <v>263</v>
+      </c>
+      <c r="C258" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>694</v>
+      </c>
+      <c r="B259" t="s">
+        <v>269</v>
+      </c>
+      <c r="C259" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>695</v>
+      </c>
+      <c r="B260" t="s">
+        <v>272</v>
+      </c>
+      <c r="C260" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>696</v>
+      </c>
+      <c r="B261" t="s">
+        <v>284</v>
+      </c>
+      <c r="C261" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>697</v>
+      </c>
+      <c r="B262" t="s">
+        <v>278</v>
+      </c>
+      <c r="C262" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>698</v>
+      </c>
+      <c r="B263" t="s">
+        <v>275</v>
+      </c>
+      <c r="C263" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>699</v>
+      </c>
+      <c r="B264" t="s">
+        <v>287</v>
+      </c>
+      <c r="C264" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>700</v>
+      </c>
+      <c r="B265" t="s">
+        <v>545</v>
+      </c>
+      <c r="C265" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>702</v>
+      </c>
+      <c r="B266" t="s">
+        <v>290</v>
+      </c>
+      <c r="C266" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>703</v>
+      </c>
+      <c r="B267" t="s">
+        <v>548</v>
+      </c>
+      <c r="C267" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>705</v>
+      </c>
+      <c r="B268" t="s">
+        <v>551</v>
+      </c>
+      <c r="C268" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>706</v>
+      </c>
+      <c r="B269" t="s">
+        <v>554</v>
+      </c>
+      <c r="C269" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>707</v>
+      </c>
+      <c r="B270" t="s">
+        <v>557</v>
+      </c>
+      <c r="C270" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>708</v>
+      </c>
+      <c r="B271" t="s">
+        <v>560</v>
+      </c>
+      <c r="C271" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>709</v>
+      </c>
+      <c r="B272" t="s">
+        <v>563</v>
+      </c>
+      <c r="C272" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>710</v>
+      </c>
+      <c r="B273" t="s">
+        <v>566</v>
+      </c>
+      <c r="C273" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>711</v>
+      </c>
+      <c r="B274" t="s">
+        <v>569</v>
+      </c>
+      <c r="C274" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>712</v>
+      </c>
+      <c r="B275" t="s">
+        <v>572</v>
+      </c>
+      <c r="C275" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>713</v>
+      </c>
+      <c r="B276" t="s">
+        <v>575</v>
+      </c>
+      <c r="C276" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>714</v>
+      </c>
+      <c r="B277" t="s">
+        <v>578</v>
+      </c>
+      <c r="C277" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>716</v>
+      </c>
+      <c r="B278" t="s">
+        <v>581</v>
+      </c>
+      <c r="C278" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>717</v>
+      </c>
+      <c r="B279" t="s">
+        <v>718</v>
+      </c>
+      <c r="C279" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>720</v>
+      </c>
+      <c r="B280" t="s">
+        <v>721</v>
+      </c>
+      <c r="C280" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>723</v>
+      </c>
+      <c r="B281" t="s">
+        <v>724</v>
+      </c>
+      <c r="C281" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>726</v>
+      </c>
+      <c r="B282" t="s">
+        <v>727</v>
+      </c>
+      <c r="C282" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>729</v>
+      </c>
+      <c r="B283" t="s">
+        <v>730</v>
+      </c>
+      <c r="C283" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>732</v>
+      </c>
+      <c r="B284" t="s">
+        <v>733</v>
+      </c>
+      <c r="C284" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>735</v>
+      </c>
+      <c r="B285" t="s">
+        <v>736</v>
+      </c>
+      <c r="C285" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>738</v>
+      </c>
+      <c r="B286" t="s">
+        <v>739</v>
+      </c>
+      <c r="C286" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>741</v>
+      </c>
+      <c r="B287" t="s">
+        <v>742</v>
+      </c>
+      <c r="C287" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>744</v>
+      </c>
+      <c r="B288" t="s">
+        <v>745</v>
+      </c>
+      <c r="C288" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>747</v>
+      </c>
+      <c r="B289" t="s">
+        <v>748</v>
+      </c>
+      <c r="C289" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="290" ht="28.5" spans="1:3">
+      <c r="A290" t="s">
+        <v>750</v>
+      </c>
+      <c r="B290" t="s">
+        <v>751</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>752</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" display="即时战略指挥攻略/攻略.txt"/>
-    <hyperlink ref="C22" r:id="rId1" display="即时战略指挥攻略/攻略英文.txt"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C4 A5:B6 A1:C2" numberStoredAsText="1"/>
+    <ignoredError sqref="A211:C289 A290:B290 A209:B210 A208:C208 A207:B207 A1:C206" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -234,7 +234,7 @@
 &lt;b&gt;绑定/动作：&lt;/b&gt;天涳の翼(QQ 349070005)、适中(QQ 1136976220)
 &lt;b&gt;绑定/动作：&lt;/b&gt;哈哈哈哈(QQ 2517969872)、一方狂三(QQ 1256604813)
 &lt;b&gt;模型/动作：&lt;/b&gt;⊹꙳ ˶˙ᵕ˙˶ ⊹꙳(QQ 2104435032)、&lt;color=#a0ff50&gt;荧瞳(QQ 287859992)、荒野乱斗(QQ 2930801690)&lt;/color&gt;
-&lt;b&gt;语音：&lt;/b&gt;无梦(QQ 1744500392)、水薄荷(QQ 1982131539)
+&lt;b&gt;语音：&lt;/b&gt;无梦(QQ 1744500392)、水薄荷(QQ 1982131539)、luvvoice.com、speechgen.io
 &lt;b&gt;语音：&lt;/b&gt;若有道心(QQ 1602576119)、潭(QQ 1514475926)、&lt;color=#a0ff50&gt;凌枭(QQ 2862703087)&lt;/color&gt;
 &lt;b&gt;程序：&lt;/b&gt;火凤凰(QQ 75187631)、&lt;color=#a0ff50&gt;江沉晚吟时(QQ 3380125833)&lt;/color&gt;
 &lt;b&gt;程序：&lt;/b&gt;庄园(QQ 2516080307)、kunnka(QQ 954436840)、樱木花道(QQ 251949672)
@@ -251,7 +251,7 @@
 &lt;b&gt;Rigging/Animation:&lt;/b&gt; Tian Kong Zhi Yi (QQ 349070005), Shi Zhong (QQ 1136976220)
 &lt;b&gt;Rigging/Animation:&lt;/b&gt; Hahaha (QQ 2517969872), Yi Fang Kuang San (QQ 1256604813)
 &lt;b&gt;Models/Animation:&lt;/b&gt; ⊹꙳ ˶˙ᵕ˙˶ ⊹꙳ (QQ 2104435032), &lt;color=#a0ff50&gt;Ying Tong (QQ 287859992), Brawl Stars (QQ 2930801690)&lt;/color&gt;
-&lt;b&gt;Voice Acting:&lt;/b&gt; Wu Meng (QQ 1744500392), Shui Bo He (QQ 1982131539)
+&lt;b&gt;Voice Acting:&lt;/b&gt; Wu Meng (QQ 1744500392), Shui Bo He (QQ 1982131539), luvvoice.com, speechgen.io
 &lt;b&gt;Voice Acting:&lt;/b&gt; Ruo You Dao Xin (QQ 1602576119), Tan (QQ 1514475926), &lt;color=#a0ff50&gt;Ling Xiao (QQ 2862703087)&lt;/color&gt;
 &lt;b&gt;Programming:&lt;/b&gt; Huo Fenghuang (QQ 75187631), &lt;color=#a0ff50&gt;Jiang Chen Wan Yin Shi (QQ 3380125833)&lt;/color&gt;
 &lt;b&gt;Programming:&lt;/b&gt; Zhuang Yuan (QQ 2516080307), kunnka (QQ 954436840), Sakuragi Hanamichi (QQ 251949672)
@@ -3016,8 +3016,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3406,8 +3412,8 @@
   <sheetPr/>
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B280" workbookViewId="0">
-      <selection activeCell="C291" sqref="C291"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3647,14 +3653,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="215.25" spans="1:3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6602,7 +6608,7 @@
       <c r="B290" t="s">
         <v>751</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="C290" s="3" t="s">
         <v>752</v>
       </c>
     </row>
@@ -6610,7 +6616,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A211:C289 A290:B290 A209:B210 A208:C208 A207:B207 A1:C206" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C21 A22 A23:C206 A207:B207 A208:C208 A209:B210 A290:B290 A211:C289" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="752">
   <si>
     <t>key</t>
   </si>
@@ -1776,7 +1776,7 @@
     <t>飞塔</t>
   </si>
   <si>
-    <t>Anti-Air Tower</t>
+    <t>Air Tower</t>
   </si>
   <si>
     <t>Key太岁</t>
@@ -2239,9 +2239,6 @@
   </si>
   <si>
     <t>KeyFeiTa</t>
-  </si>
-  <si>
-    <t>Air Tower</t>
   </si>
   <si>
     <t>KeyNiTaiYuan</t>
@@ -3016,12 +3013,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3412,8 +3406,8 @@
   <sheetPr/>
   <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -6334,12 +6328,12 @@
         <v>545</v>
       </c>
       <c r="C265" t="s">
-        <v>701</v>
+        <v>546</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B266" t="s">
         <v>290</v>
@@ -6350,18 +6344,18 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B267" t="s">
         <v>548</v>
       </c>
       <c r="C267" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B268" t="s">
         <v>551</v>
@@ -6372,7 +6366,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B269" t="s">
         <v>554</v>
@@ -6383,7 +6377,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B270" t="s">
         <v>557</v>
@@ -6394,7 +6388,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B271" t="s">
         <v>560</v>
@@ -6405,7 +6399,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B272" t="s">
         <v>563</v>
@@ -6416,7 +6410,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B273" t="s">
         <v>566</v>
@@ -6427,7 +6421,7 @@
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B274" t="s">
         <v>569</v>
@@ -6438,7 +6432,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B275" t="s">
         <v>572</v>
@@ -6449,7 +6443,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B276" t="s">
         <v>575</v>
@@ -6460,18 +6454,18 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B277" t="s">
         <v>578</v>
       </c>
       <c r="C277" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B278" t="s">
         <v>581</v>
@@ -6482,141 +6476,141 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
+        <v>716</v>
+      </c>
+      <c r="B279" t="s">
         <v>717</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>718</v>
-      </c>
-      <c r="C279" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
+        <v>719</v>
+      </c>
+      <c r="B280" t="s">
         <v>720</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>721</v>
-      </c>
-      <c r="C280" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>722</v>
+      </c>
+      <c r="B281" t="s">
         <v>723</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>724</v>
-      </c>
-      <c r="C281" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
+        <v>725</v>
+      </c>
+      <c r="B282" t="s">
         <v>726</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>727</v>
-      </c>
-      <c r="C282" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
+        <v>728</v>
+      </c>
+      <c r="B283" t="s">
         <v>729</v>
       </c>
-      <c r="B283" t="s">
+      <c r="C283" t="s">
         <v>730</v>
-      </c>
-      <c r="C283" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
+        <v>731</v>
+      </c>
+      <c r="B284" t="s">
         <v>732</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>733</v>
-      </c>
-      <c r="C284" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
+        <v>734</v>
+      </c>
+      <c r="B285" t="s">
         <v>735</v>
       </c>
-      <c r="B285" t="s">
+      <c r="C285" t="s">
         <v>736</v>
-      </c>
-      <c r="C285" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
+        <v>737</v>
+      </c>
+      <c r="B286" t="s">
         <v>738</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>739</v>
-      </c>
-      <c r="C286" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
+        <v>740</v>
+      </c>
+      <c r="B287" t="s">
         <v>741</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>742</v>
-      </c>
-      <c r="C287" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
+        <v>743</v>
+      </c>
+      <c r="B288" t="s">
         <v>744</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>745</v>
-      </c>
-      <c r="C288" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>746</v>
+      </c>
+      <c r="B289" t="s">
         <v>747</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>748</v>
-      </c>
-      <c r="C289" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="290" ht="28.5" spans="1:3">
       <c r="A290" t="s">
+        <v>749</v>
+      </c>
+      <c r="B290" t="s">
         <v>750</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>752</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C21 A22 A23:C206 A207:B207 A208:C208 A209:B210 A290:B290 A211:C289" numberStoredAsText="1"/>
+    <ignoredError sqref="A211:C289 A290:B290 A209:B210 A208:C208 A207:B207 A23:C185 A186:B186 A187:C206 A22 A1:C21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="780">
   <si>
     <t>key</t>
   </si>
@@ -827,6 +827,15 @@
 Worker Drone</t>
   </si>
   <si>
+    <t>XiangQiangKongXianGongChengCheGongChong</t>
+  </si>
+  <si>
+    <t>每点击一次切换到下一个&lt;color=#a0ff50&gt;工程车&lt;/color&gt;或&lt;color=#a0ff50&gt;工虫&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Click once to switch to the next &lt;color=#a0ff50&gt;Construction Vehicle&lt;/color&gt; or &lt;color=#a0ff50&gt;Worker Drone&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>QuanBuZhanDouDanWei</t>
   </si>
   <si>
@@ -838,6 +847,15 @@
 Combat Units</t>
   </si>
   <si>
+    <t>XiangQingQuanBuZhanDouDanWei</t>
+  </si>
+  <si>
+    <t>选中所有可移动的战斗单位</t>
+  </si>
+  <si>
+    <t>Select all mobile combat units</t>
+  </si>
+  <si>
     <t>ZhanBao</t>
   </si>
   <si>
@@ -994,6 +1012,17 @@
     <t>Deselect</t>
   </si>
   <si>
+    <t>XiangQiangQuXiaoXuanZhong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    取消当前选中的单位。
+    可以防止误操作。</t>
+  </si>
+  <si>
+    <t>Cancel the currently selected unit.
+Prevents misoperation.</t>
+  </si>
+  <si>
     <t>JingTiKuang</t>
   </si>
   <si>
@@ -1039,6 +1068,15 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>XiangQingQuXiao</t>
+  </si>
+  <si>
+    <t>取消当前要点击地面的操作</t>
+  </si>
+  <si>
+    <t>Cancel current ground click action</t>
+  </si>
+  <si>
     <t>LoginMainSvr</t>
   </si>
   <si>
@@ -1058,6 +1096,15 @@
   </si>
   <si>
     <t>Force Move</t>
+  </si>
+  <si>
+    <t>XiangQiangQiangXingZou</t>
+  </si>
+  <si>
+    <t>不理会途中遇到的敌人，强行走到目标点</t>
+  </si>
+  <si>
+    <t>Ignore enemies en route and move to the target point forcibly</t>
   </si>
   <si>
     <t>YuanDiJianShou</t>
@@ -1071,6 +1118,9 @@
 Pos</t>
   </si>
   <si>
+    <t>不再追击警戒距离内的敌人</t>
+  </si>
+  <si>
     <t>GenSui</t>
   </si>
   <si>
@@ -1078,6 +1128,9 @@
   </si>
   <si>
     <t>Follow</t>
+  </si>
+  <si>
+    <t>跟随目标移动</t>
   </si>
   <si>
     <t>XunLuo</t>
@@ -1090,6 +1143,9 @@
     <t>Patrol</t>
   </si>
   <si>
+    <t>在选中的多个巡逻点之间巡逻</t>
+  </si>
+  <si>
     <t>LiKaiDiBao</t>
   </si>
   <si>
@@ -1100,6 +1156,9 @@
     <t>Exit Bunker</t>
   </si>
   <si>
+    <t>让&lt;color=#a0ff50&gt;地堡&lt;/color&gt;里的单位都出来</t>
+  </si>
+  <si>
     <t>LiKaiFangChong</t>
   </si>
   <si>
@@ -1109,6 +1168,9 @@
     <t>Disembark</t>
   </si>
   <si>
+    <t>让&lt;color=#a0ff50&gt;房虫&lt;/color&gt;里的单位都出来</t>
+  </si>
+  <si>
     <t>JiJieDian</t>
   </si>
   <si>
@@ -1116,6 +1178,9 @@
   </si>
   <si>
     <t>Rally Point</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出单位的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
   </si>
   <si>
     <t>GongChengCheJiJieDian</t>
@@ -1131,6 +1196,9 @@
 Point</t>
   </si>
   <si>
+    <t>设置此建筑新产出工程车的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
     <t>GongChongJiJieDian</t>
   </si>
   <si>
@@ -1142,6 +1210,9 @@
 Rally Point</t>
   </si>
   <si>
+    <t>设置此建筑新产出工虫的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
     <t>FangChongJiJieDian</t>
   </si>
   <si>
@@ -1153,6 +1224,9 @@
 Rally Point</t>
   </si>
   <si>
+    <t>设置此建筑新产出房虫的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
     <t>JieSuoJinZhanBing</t>
   </si>
   <si>
@@ -1164,6 +1238,9 @@
 Melee Infantry</t>
   </si>
   <si>
+    <t>解锁后允许在兵营里产出&lt;color=#a0ff50&gt;近战兵&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>JieSuoQiangChong</t>
   </si>
   <si>
@@ -1173,6 +1250,9 @@
   <si>
     <t>Unlock
 Rifle Bug</t>
+  </si>
+  <si>
+    <t>解锁后允许幼虫蜕变为&lt;color=#a0ff50&gt;枪虫&lt;/color&gt;</t>
   </si>
   <si>
     <t>ShengJiQiangBingGongJi</t>
@@ -1285,6 +1365,9 @@
     <t>Taisui Split</t>
   </si>
   <si>
+    <t>分裂出一个新的太岁放置到源太岁的苔蔓(wàn)上</t>
+  </si>
+  <si>
     <t>ShanChuDanWei</t>
   </si>
   <si>
@@ -1294,6 +1377,9 @@
   <si>
     <t>Delete
 Unit</t>
+  </si>
+  <si>
+    <t>快速删除自己的单位</t>
   </si>
   <si>
     <t>Unit</t>
@@ -2405,10 +2491,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2868,31 +2961,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2901,119 +2991,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3021,6 +3114,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3404,10 +3504,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:C308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -4355,10 +4455,10 @@
       <c r="A86" t="s">
         <v>247</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="3" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4380,7 +4480,7 @@
       <c r="B88" t="s">
         <v>254</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="3" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4571,14 +4671,14 @@
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" ht="28.5" spans="1:3">
       <c r="A106" t="s">
         <v>307</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="4" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4609,54 +4709,54 @@
         <v>316</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C111" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B112" t="s">
-        <v>324</v>
-      </c>
-      <c r="C112" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>327</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>328</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4688,7 +4788,7 @@
       <c r="B116" t="s">
         <v>336</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="3" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4704,1067 +4804,989 @@
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" t="s">
+      <c r="B118" t="s">
         <v>341</v>
-      </c>
-      <c r="B118" t="s">
-        <v>342</v>
-      </c>
-      <c r="C118" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" t="s">
         <v>344</v>
       </c>
-      <c r="B119" t="s">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
         <v>345</v>
-      </c>
-      <c r="C119" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>347</v>
-      </c>
-      <c r="B120" t="s">
-        <v>348</v>
-      </c>
-      <c r="C120" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C121" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>353</v>
-      </c>
       <c r="B122" t="s">
-        <v>354</v>
-      </c>
-      <c r="C122" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C123" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>359</v>
-      </c>
       <c r="B124" t="s">
-        <v>360</v>
-      </c>
-      <c r="C124" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>365</v>
-      </c>
       <c r="B126" t="s">
-        <v>366</v>
-      </c>
-      <c r="C126" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C127" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>371</v>
-      </c>
       <c r="B128" t="s">
-        <v>372</v>
-      </c>
-      <c r="C128" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>377</v>
-      </c>
       <c r="B130" t="s">
-        <v>378</v>
-      </c>
-      <c r="C130" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>383</v>
-      </c>
       <c r="B132" t="s">
-        <v>384</v>
-      </c>
-      <c r="C132" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C133" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>389</v>
-      </c>
       <c r="B134" t="s">
-        <v>390</v>
-      </c>
-      <c r="C134" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="B135" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C135" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>395</v>
-      </c>
       <c r="B136" t="s">
-        <v>396</v>
-      </c>
-      <c r="C136" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="B137" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>401</v>
-      </c>
       <c r="B138" t="s">
-        <v>402</v>
-      </c>
-      <c r="C138" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="B139" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C139" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="B140" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="C140" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="B141" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="C141" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
       <c r="B142" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="C142" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
       <c r="B143" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C143" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="B144" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="C144" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="B145" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B146" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="C146" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="B147" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="C147" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>431</v>
-      </c>
       <c r="B148" t="s">
-        <v>432</v>
-      </c>
-      <c r="C148" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B149" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="C149" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>437</v>
-      </c>
       <c r="B150" t="s">
-        <v>438</v>
-      </c>
-      <c r="C150" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="B151" t="s">
-        <v>441</v>
+        <v>415</v>
       </c>
       <c r="C151" t="s">
-        <v>442</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B152" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="C152" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>446</v>
+        <v>420</v>
       </c>
       <c r="B153" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="C153" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>449</v>
+        <v>423</v>
       </c>
       <c r="B154" t="s">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="C154" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="B155" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="C155" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B156" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="C156" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="B157" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="C157" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="B158" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C158" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="B159" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C159" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="B160" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="C160" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="B161" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C161" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="B162" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="C162" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>475</v>
+        <v>450</v>
       </c>
       <c r="B163" t="s">
-        <v>476</v>
+        <v>451</v>
       </c>
       <c r="C163" t="s">
-        <v>477</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="B164" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="C164" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s">
-        <v>482</v>
+        <v>457</v>
       </c>
       <c r="C165" t="s">
-        <v>483</v>
+        <v>458</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="B166" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C166" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="B167" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C167" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="B168" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C168" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B169" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C169" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="B170" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C170" t="s">
-        <v>498</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>499</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="C171" t="s">
-        <v>501</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>502</v>
+        <v>477</v>
       </c>
       <c r="B172" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="C172" t="s">
-        <v>504</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="B173" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="C173" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="B174" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C174" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="B175" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="C175" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B176" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C176" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="B177" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="C177" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="B178" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="C178" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="B179" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="C179" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="B180" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="C180" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="B181" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="C181" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="B182" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="C182" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="B183" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C183" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B184" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="C184" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B185" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="C185" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="B186" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="C186" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="B187" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="C187" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
       <c r="B188" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
       <c r="C188" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="B189" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="C189" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="B190" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="C190" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="B191" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="C191" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="B192" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="C192" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="B193" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="C193" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="B194" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="C194" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>571</v>
+        <v>545</v>
       </c>
       <c r="B195" t="s">
-        <v>572</v>
+        <v>546</v>
       </c>
       <c r="C195" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="B196" t="s">
-        <v>575</v>
+        <v>549</v>
       </c>
       <c r="C196" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="B197" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="C197" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="B198" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="C198" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="B199" t="s">
-        <v>426</v>
+        <v>558</v>
       </c>
       <c r="C199" t="s">
-        <v>427</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="B200" t="s">
-        <v>429</v>
+        <v>561</v>
       </c>
       <c r="C200" t="s">
-        <v>430</v>
+        <v>562</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="B201" t="s">
-        <v>447</v>
+        <v>564</v>
       </c>
       <c r="C201" t="s">
-        <v>448</v>
+        <v>565</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>567</v>
       </c>
       <c r="C202" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="B203" t="s">
-        <v>302</v>
+        <v>570</v>
       </c>
       <c r="C203" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="B204" t="s">
-        <v>305</v>
+        <v>573</v>
       </c>
       <c r="C204" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="B205" t="s">
-        <v>260</v>
+        <v>576</v>
       </c>
       <c r="C205" t="s">
-        <v>261</v>
+        <v>577</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B206" t="s">
-        <v>266</v>
+        <v>579</v>
       </c>
       <c r="C206" t="s">
-        <v>267</v>
+        <v>580</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B207" t="s">
-        <v>263</v>
+        <v>582</v>
       </c>
       <c r="C207" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B208" t="s">
-        <v>269</v>
+        <v>585</v>
       </c>
       <c r="C208" t="s">
-        <v>270</v>
+        <v>586</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B209" t="s">
-        <v>272</v>
+        <v>588</v>
       </c>
       <c r="C209" t="s">
-        <v>273</v>
+        <v>589</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="B210" t="s">
-        <v>284</v>
+        <v>591</v>
       </c>
       <c r="C210" t="s">
-        <v>285</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>594</v>
       </c>
       <c r="C211" t="s">
-        <v>279</v>
+        <v>595</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B212" t="s">
-        <v>275</v>
+        <v>597</v>
       </c>
       <c r="C212" t="s">
-        <v>276</v>
+        <v>598</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>599</v>
+      </c>
+      <c r="B213" t="s">
+        <v>600</v>
+      </c>
+      <c r="C213" t="s">
         <v>601</v>
-      </c>
-      <c r="B213" t="s">
-        <v>287</v>
-      </c>
-      <c r="C213" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>602</v>
+      </c>
+      <c r="B214" t="s">
         <v>603</v>
-      </c>
-      <c r="B214" t="s">
-        <v>290</v>
       </c>
       <c r="C214" t="s">
         <v>604</v>
@@ -5797,725 +5819,725 @@
         <v>611</v>
       </c>
       <c r="B217" t="s">
-        <v>612</v>
+        <v>454</v>
       </c>
       <c r="C217" t="s">
-        <v>613</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B218" t="s">
-        <v>615</v>
+        <v>457</v>
       </c>
       <c r="C218" t="s">
-        <v>616</v>
+        <v>458</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B219" t="s">
-        <v>618</v>
+        <v>475</v>
       </c>
       <c r="C219" t="s">
-        <v>619</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B220" t="s">
-        <v>621</v>
+        <v>287</v>
       </c>
       <c r="C220" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B221" t="s">
-        <v>624</v>
+        <v>311</v>
       </c>
       <c r="C221" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B222" t="s">
-        <v>627</v>
+        <v>314</v>
       </c>
       <c r="C222" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B223" t="s">
-        <v>630</v>
+        <v>266</v>
       </c>
       <c r="C223" t="s">
-        <v>631</v>
+        <v>267</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="B224" t="s">
-        <v>633</v>
+        <v>272</v>
       </c>
       <c r="C224" t="s">
-        <v>634</v>
+        <v>273</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="B225" t="s">
-        <v>636</v>
+        <v>269</v>
       </c>
       <c r="C225" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="B226" t="s">
-        <v>639</v>
+        <v>275</v>
       </c>
       <c r="C226" t="s">
-        <v>640</v>
+        <v>276</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="B227" t="s">
-        <v>642</v>
+        <v>278</v>
       </c>
       <c r="C227" t="s">
-        <v>643</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="B228" t="s">
-        <v>645</v>
+        <v>290</v>
       </c>
       <c r="C228" t="s">
-        <v>646</v>
+        <v>291</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="B229" t="s">
-        <v>648</v>
+        <v>284</v>
       </c>
       <c r="C229" t="s">
-        <v>649</v>
+        <v>285</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="B230" t="s">
-        <v>651</v>
+        <v>281</v>
       </c>
       <c r="C230" t="s">
-        <v>652</v>
+        <v>282</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="B231" t="s">
-        <v>654</v>
+        <v>293</v>
       </c>
       <c r="C231" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="B232" t="s">
-        <v>657</v>
+        <v>296</v>
       </c>
       <c r="C232" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="B233" t="s">
-        <v>660</v>
+        <v>634</v>
       </c>
       <c r="C233" t="s">
-        <v>661</v>
+        <v>635</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>662</v>
+        <v>636</v>
       </c>
       <c r="B234" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="C234" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="B235" t="s">
-        <v>491</v>
+        <v>640</v>
       </c>
       <c r="C235" t="s">
-        <v>492</v>
+        <v>641</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B236" t="s">
-        <v>494</v>
+        <v>643</v>
       </c>
       <c r="C236" t="s">
-        <v>495</v>
+        <v>644</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="B237" t="s">
-        <v>497</v>
+        <v>646</v>
       </c>
       <c r="C237" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="B238" t="s">
-        <v>281</v>
+        <v>649</v>
       </c>
       <c r="C238" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="B239" t="s">
-        <v>302</v>
+        <v>652</v>
       </c>
       <c r="C239" t="s">
-        <v>589</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="B240" t="s">
-        <v>305</v>
+        <v>655</v>
       </c>
       <c r="C240" t="s">
-        <v>591</v>
+        <v>656</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="B241" t="s">
-        <v>500</v>
+        <v>658</v>
       </c>
       <c r="C241" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="B242" t="s">
-        <v>503</v>
+        <v>661</v>
       </c>
       <c r="C242" t="s">
-        <v>504</v>
+        <v>662</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="B243" t="s">
-        <v>506</v>
+        <v>664</v>
       </c>
       <c r="C243" t="s">
-        <v>507</v>
+        <v>665</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B244" t="s">
-        <v>509</v>
+        <v>667</v>
       </c>
       <c r="C244" t="s">
-        <v>510</v>
+        <v>668</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B245" t="s">
-        <v>512</v>
+        <v>670</v>
       </c>
       <c r="C245" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B246" t="s">
-        <v>515</v>
+        <v>673</v>
       </c>
       <c r="C246" t="s">
-        <v>516</v>
+        <v>674</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B247" t="s">
-        <v>518</v>
+        <v>676</v>
       </c>
       <c r="C247" t="s">
-        <v>519</v>
+        <v>677</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B248" t="s">
-        <v>521</v>
+        <v>679</v>
       </c>
       <c r="C248" t="s">
-        <v>522</v>
+        <v>680</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
+        <v>681</v>
+      </c>
+      <c r="B249" t="s">
         <v>682</v>
       </c>
-      <c r="B249" t="s">
-        <v>524</v>
-      </c>
       <c r="C249" t="s">
-        <v>525</v>
+        <v>683</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B250" t="s">
-        <v>527</v>
+        <v>685</v>
       </c>
       <c r="C250" t="s">
-        <v>528</v>
+        <v>686</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B251" t="s">
-        <v>530</v>
+        <v>688</v>
       </c>
       <c r="C251" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B252" t="s">
-        <v>533</v>
+        <v>691</v>
       </c>
       <c r="C252" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B253" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="C253" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B254" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="C254" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B255" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
       <c r="C255" t="s">
-        <v>543</v>
+        <v>696</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="B256" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C256" t="s">
-        <v>261</v>
+        <v>615</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B257" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="C257" t="s">
-        <v>267</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B258" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="C258" t="s">
-        <v>595</v>
+        <v>619</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B259" t="s">
-        <v>269</v>
+        <v>528</v>
       </c>
       <c r="C259" t="s">
-        <v>270</v>
+        <v>701</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="B260" t="s">
-        <v>272</v>
+        <v>531</v>
       </c>
       <c r="C260" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B261" t="s">
-        <v>284</v>
+        <v>534</v>
       </c>
       <c r="C261" t="s">
-        <v>285</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B262" t="s">
-        <v>278</v>
+        <v>537</v>
       </c>
       <c r="C262" t="s">
-        <v>279</v>
+        <v>538</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>540</v>
       </c>
       <c r="C263" t="s">
-        <v>276</v>
+        <v>706</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="B264" t="s">
-        <v>287</v>
+        <v>543</v>
       </c>
       <c r="C264" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B265" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C265" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="B266" t="s">
-        <v>290</v>
+        <v>549</v>
       </c>
       <c r="C266" t="s">
-        <v>604</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B267" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C267" t="s">
-        <v>703</v>
+        <v>553</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="B268" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C268" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="B269" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C269" t="s">
-        <v>555</v>
+        <v>713</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B270" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C270" t="s">
-        <v>558</v>
+        <v>715</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B271" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C271" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="B272" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C272" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B273" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C273" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B274" t="s">
-        <v>569</v>
+        <v>266</v>
       </c>
       <c r="C274" t="s">
-        <v>570</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="B275" t="s">
-        <v>572</v>
+        <v>272</v>
       </c>
       <c r="C275" t="s">
-        <v>573</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B276" t="s">
-        <v>575</v>
+        <v>269</v>
       </c>
       <c r="C276" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="B277" t="s">
-        <v>578</v>
+        <v>275</v>
       </c>
       <c r="C277" t="s">
-        <v>714</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="B278" t="s">
-        <v>581</v>
+        <v>278</v>
       </c>
       <c r="C278" t="s">
-        <v>582</v>
+        <v>279</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B279" t="s">
-        <v>717</v>
+        <v>290</v>
       </c>
       <c r="C279" t="s">
-        <v>718</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B280" t="s">
-        <v>720</v>
+        <v>284</v>
       </c>
       <c r="C280" t="s">
-        <v>721</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B281" t="s">
-        <v>723</v>
+        <v>281</v>
       </c>
       <c r="C281" t="s">
-        <v>724</v>
+        <v>282</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B282" t="s">
-        <v>726</v>
+        <v>293</v>
       </c>
       <c r="C282" t="s">
-        <v>727</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -6523,94 +6545,292 @@
         <v>728</v>
       </c>
       <c r="B283" t="s">
-        <v>729</v>
+        <v>573</v>
       </c>
       <c r="C283" t="s">
-        <v>730</v>
+        <v>574</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B284" t="s">
-        <v>732</v>
+        <v>296</v>
       </c>
       <c r="C284" t="s">
-        <v>733</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B285" t="s">
-        <v>735</v>
+        <v>576</v>
       </c>
       <c r="C285" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B286" t="s">
-        <v>738</v>
+        <v>579</v>
       </c>
       <c r="C286" t="s">
-        <v>739</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B287" t="s">
-        <v>741</v>
+        <v>582</v>
       </c>
       <c r="C287" t="s">
-        <v>742</v>
+        <v>583</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="B288" t="s">
-        <v>744</v>
+        <v>585</v>
       </c>
       <c r="C288" t="s">
-        <v>745</v>
+        <v>586</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
+        <v>735</v>
+      </c>
+      <c r="B289" t="s">
+        <v>588</v>
+      </c>
+      <c r="C289" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>736</v>
+      </c>
+      <c r="B290" t="s">
+        <v>591</v>
+      </c>
+      <c r="C290" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>737</v>
+      </c>
+      <c r="B291" t="s">
+        <v>594</v>
+      </c>
+      <c r="C291" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>738</v>
+      </c>
+      <c r="B292" t="s">
+        <v>597</v>
+      </c>
+      <c r="C292" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>739</v>
+      </c>
+      <c r="B293" t="s">
+        <v>600</v>
+      </c>
+      <c r="C293" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>740</v>
+      </c>
+      <c r="B294" t="s">
+        <v>603</v>
+      </c>
+      <c r="C294" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>741</v>
+      </c>
+      <c r="B295" t="s">
+        <v>606</v>
+      </c>
+      <c r="C295" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>743</v>
+      </c>
+      <c r="B296" t="s">
+        <v>609</v>
+      </c>
+      <c r="C296" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>744</v>
+      </c>
+      <c r="B297" t="s">
+        <v>745</v>
+      </c>
+      <c r="C297" t="s">
         <v>746</v>
       </c>
-      <c r="B289" t="s">
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
         <v>747</v>
       </c>
-      <c r="C289" t="s">
+      <c r="B298" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="290" ht="28.5" spans="1:3">
-      <c r="A290" t="s">
+      <c r="C298" t="s">
         <v>749</v>
       </c>
-      <c r="B290" t="s">
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
         <v>750</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="B299" t="s">
         <v>751</v>
+      </c>
+      <c r="C299" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>753</v>
+      </c>
+      <c r="B300" t="s">
+        <v>754</v>
+      </c>
+      <c r="C300" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>756</v>
+      </c>
+      <c r="B301" t="s">
+        <v>757</v>
+      </c>
+      <c r="C301" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>759</v>
+      </c>
+      <c r="B302" t="s">
+        <v>760</v>
+      </c>
+      <c r="C302" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>762</v>
+      </c>
+      <c r="B303" t="s">
+        <v>763</v>
+      </c>
+      <c r="C303" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>765</v>
+      </c>
+      <c r="B304" t="s">
+        <v>766</v>
+      </c>
+      <c r="C304" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>768</v>
+      </c>
+      <c r="B305" t="s">
+        <v>769</v>
+      </c>
+      <c r="C305" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>771</v>
+      </c>
+      <c r="B306" t="s">
+        <v>772</v>
+      </c>
+      <c r="C306" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>774</v>
+      </c>
+      <c r="B307" t="s">
+        <v>775</v>
+      </c>
+      <c r="C307" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="308" ht="28.5" spans="1:3">
+      <c r="A308" t="s">
+        <v>777</v>
+      </c>
+      <c r="B308" t="s">
+        <v>778</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A211:C289 A290:B290 A209:B210 A208:C208 A207:B207 A23:C185 A186:B186 A187:C206 A22 A1:C21" numberStoredAsText="1"/>
+    <ignoredError sqref="A151:C203 A149:C149 A139:C147 A137:C137 A135:C135 A131:C131 A133:C133 A129:C129 A127:C127 A125:C125 A123:C123 A121:C121 A119:C119 A117:C117 A107:C111 A113:C115 A87:C87 A89:C105 A1:C21 A22 A205:C224 A204:B204 A23:C85 A225:B225 A226:C226 A227:B228 A308:B308 A229:C307" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="837">
   <si>
     <t>key</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>即时战略指挥公告/公告左英文.txt</t>
+  </si>
+  <si>
+    <t>LoginMainSvr</t>
   </si>
   <si>
     <t>LoginTestSvr</t>
@@ -796,6 +799,17 @@
     <t>Box Select</t>
   </si>
   <si>
+    <t>XiangQingKuangXuan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  在屏幕上拖动出一个方框，选中框内所有的活动单位。
+  左边的设置按钮（齿轮图标）里可以在&lt;color=#a0ff50&gt;正矩形框选&lt;/color&gt;模式和&lt;color=#a0ff50&gt;菱形框选&lt;/color&gt;模式之间切换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Drag a box on the screen to select all active units within it.
+  You can switch between &lt;color=#a0ff50&gt;Axis-Aligned Bounding Box&lt;/color&gt; mode and &lt;color=#a0ff50&gt;Diamond-Shaped Box&lt;/color&gt; mode in the settings button (gear icon) on the left.</t>
+  </si>
+  <si>
     <t>JianZhuDanWei</t>
   </si>
   <si>
@@ -827,7 +841,7 @@
 Worker Drone</t>
   </si>
   <si>
-    <t>XiangQiangKongXianGongChengCheGongChong</t>
+    <t>XiangQingKongXianGongChengCheGongChong</t>
   </si>
   <si>
     <t>每点击一次切换到下一个&lt;color=#a0ff50&gt;工程车&lt;/color&gt;或&lt;color=#a0ff50&gt;工虫&lt;/color&gt;</t>
@@ -1012,15 +1026,15 @@
     <t>Deselect</t>
   </si>
   <si>
-    <t>XiangQiangQuXiaoXuanZhong</t>
+    <t>XiangQingQuXiaoXuanZhong</t>
   </si>
   <si>
     <t xml:space="preserve">    取消当前选中的单位。
     可以防止误操作。</t>
   </si>
   <si>
-    <t>Cancel the currently selected unit.
-Prevents misoperation.</t>
+    <t xml:space="preserve">  Cancel the currently selected unit.
+  Prevents misoperation.</t>
   </si>
   <si>
     <t>JingTiKuang</t>
@@ -1071,16 +1085,13 @@
     <t>XiangQingQuXiao</t>
   </si>
   <si>
-    <t>取消当前要点击地面的操作</t>
-  </si>
-  <si>
-    <t>Cancel current ground click action</t>
-  </si>
-  <si>
-    <t>LoginMainSvr</t>
-  </si>
-  <si>
-    <t>QueDing</t>
+    <t>取消当前操作</t>
+  </si>
+  <si>
+    <t>Cancel current action</t>
+  </si>
+  <si>
+    <t>QueDingDianJiDianMian</t>
   </si>
   <si>
     <t>确 定</t>
@@ -1089,6 +1100,15 @@
     <t>Confirm</t>
   </si>
   <si>
+    <t>XiangQingQueDingDianJiDianMian</t>
+  </si>
+  <si>
+    <t>确定点击地面操作</t>
+  </si>
+  <si>
+    <t>Confirm ground click action</t>
+  </si>
+  <si>
     <t>QiangXingZou</t>
   </si>
   <si>
@@ -1098,7 +1118,7 @@
     <t>Force Move</t>
   </si>
   <si>
-    <t>XiangQiangQiangXingZou</t>
+    <t>XiangQingQiangXingZou</t>
   </si>
   <si>
     <t>不理会途中遇到的敌人，强行走到目标点</t>
@@ -1118,9 +1138,15 @@
 Pos</t>
   </si>
   <si>
+    <t>XiangQingYuanDiJianShou</t>
+  </si>
+  <si>
     <t>不再追击警戒距离内的敌人</t>
   </si>
   <si>
+    <t>Cease pursuing enemies within the alert range</t>
+  </si>
+  <si>
     <t>GenSui</t>
   </si>
   <si>
@@ -1130,7 +1156,13 @@
     <t>Follow</t>
   </si>
   <si>
+    <t>XiangQingGenSui</t>
+  </si>
+  <si>
     <t>跟随目标移动</t>
+  </si>
+  <si>
+    <t>Follow target movement</t>
   </si>
   <si>
     <t>XunLuo</t>
@@ -1143,7 +1175,13 @@
     <t>Patrol</t>
   </si>
   <si>
+    <t>XiangQingXunLuo</t>
+  </si>
+  <si>
     <t>在选中的多个巡逻点之间巡逻</t>
+  </si>
+  <si>
+    <t>Patrol among selected waypoints</t>
   </si>
   <si>
     <t>LiKaiDiBao</t>
@@ -1156,9 +1194,15 @@
     <t>Exit Bunker</t>
   </si>
   <si>
+    <t>XiangQingLiKaiDiBao</t>
+  </si>
+  <si>
     <t>让&lt;color=#a0ff50&gt;地堡&lt;/color&gt;里的单位都出来</t>
   </si>
   <si>
+    <t>Deploy all units in the &lt;color=#a0ff50&gt;Bunker&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>LiKaiFangChong</t>
   </si>
   <si>
@@ -1168,9 +1212,15 @@
     <t>Disembark</t>
   </si>
   <si>
+    <t>XiangQingLiKaiFangChong</t>
+  </si>
+  <si>
     <t>让&lt;color=#a0ff50&gt;房虫&lt;/color&gt;里的单位都出来</t>
   </si>
   <si>
+    <t>Deploy all units in the &lt;color=#a0ff50&gt;PopuLifter&lt;/color&gt;</t>
+  </si>
+  <si>
     <t>JiJieDian</t>
   </si>
   <si>
@@ -1180,7 +1230,13 @@
     <t>Rally Point</t>
   </si>
   <si>
-    <t>设置此建筑新产出单位的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+    <t>XiangQingJiJieDian</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出单位的集结位置点</t>
+  </si>
+  <si>
+    <t>Set rally point for new units of this structure.</t>
   </si>
   <si>
     <t>GongChengCheJiJieDian</t>
@@ -1196,7 +1252,13 @@
 Point</t>
   </si>
   <si>
+    <t>XiangQingGongChengCheJiJieDian</t>
+  </si>
+  <si>
     <t>设置此建筑新产出工程车的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
+    <t>Set rally point for new Construction Vehicles of this structure. Set on a resource to auto-harvest it.</t>
   </si>
   <si>
     <t>GongChongJiJieDian</t>
@@ -1210,7 +1272,13 @@
 Rally Point</t>
   </si>
   <si>
+    <t>XiangQingGongChongJiJieDian</t>
+  </si>
+  <si>
     <t>设置此建筑新产出工虫的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+  </si>
+  <si>
+    <t>Set rally point for new Worker Drones of this structure. Set on a resource to auto-harvest it.</t>
   </si>
   <si>
     <t>FangChongJiJieDian</t>
@@ -1224,7 +1292,13 @@
 Rally Point</t>
   </si>
   <si>
-    <t>设置此建筑新产出房虫的集结位置点，如果把目标点设置到资源上，会自动采集目标资源</t>
+    <t>XiangQingFangChongJiJieDian</t>
+  </si>
+  <si>
+    <t>设置此建筑新产出房虫的集结位置点</t>
+  </si>
+  <si>
+    <t>Set rally point for new PopuLifters of this structure.</t>
   </si>
   <si>
     <t>JieSuoJinZhanBing</t>
@@ -1238,7 +1312,13 @@
 Melee Infantry</t>
   </si>
   <si>
+    <t>XiangQingJieSuoJinZhanBing</t>
+  </si>
+  <si>
     <t>解锁后允许在兵营里产出&lt;color=#a0ff50&gt;近战兵&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Unlocked to allow production of &lt;color=#a0ff50&gt;Melee Infantry&lt;/color&gt; in the Barracks.</t>
   </si>
   <si>
     <t>JieSuoQiangChong</t>
@@ -1252,7 +1332,13 @@
 Rifle Bug</t>
   </si>
   <si>
+    <t>XiangQingJieSuoQiangChong</t>
+  </si>
+  <si>
     <t>解锁后允许幼虫蜕变为&lt;color=#a0ff50&gt;枪虫&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Unlocked to allow larvae to morph into &lt;color=#a0ff50&gt;Rifle Bug&lt;/color&gt;</t>
   </si>
   <si>
     <t>ShengJiQiangBingGongJi</t>
@@ -1365,7 +1451,13 @@
     <t>Taisui Split</t>
   </si>
   <si>
+    <t>XiangQingTaiSuiFenLie</t>
+  </si>
+  <si>
     <t>分裂出一个新的太岁放置到源太岁的苔蔓(wàn)上</t>
+  </si>
+  <si>
+    <t>Split off a new Taisui and place it on the Moss Vines of the original Taisui.</t>
   </si>
   <si>
     <t>ShanChuDanWei</t>
@@ -1379,9 +1471,15 @@
 Unit</t>
   </si>
   <si>
+    <t>XiangQingShanChuDanWei</t>
+  </si>
+  <si>
     <t>快速删除自己的单位</t>
   </si>
   <si>
+    <t>Quickly remove your own units</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -2471,14 +2569,99 @@
     <t xml:space="preserve"> Total Kills</t>
   </si>
   <si>
-    <t>KuangXuanXiangQiang</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 在屏幕上拖动出一个方框，选中框内所有的活动单位。&lt;br/&gt;  在左边的设置按钮（齿轮图标）里可以在&lt;color=#a0ff50&gt;正矩形框选&lt;/color&gt;模式和&lt;color=#a0ff50&gt;菱形框选&lt;/color&gt;模式之间切换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Drag a box on the screen to select all active units within it.
-  You can switch between &lt;color=#a0ff50&gt;Axis-Aligned Bounding Box&lt;/color&gt; mode and &lt;color=#a0ff50&gt;Diamond-Shaped Box&lt;/color&gt; mode in the settings button (gear icon) on the left.</t>
+    <t>AttrName_1</t>
+  </si>
+  <si>
+    <t>AttrName_2</t>
+  </si>
+  <si>
+    <t>AttrName_3</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>AttrName_4</t>
+  </si>
+  <si>
+    <t>AttrName_5</t>
+  </si>
+  <si>
+    <t>前摇耗时</t>
+  </si>
+  <si>
+    <t>Cast Time</t>
+  </si>
+  <si>
+    <t>AttrName_6</t>
+  </si>
+  <si>
+    <t>AttrName_7</t>
+  </si>
+  <si>
+    <t>最大生命</t>
+  </si>
+  <si>
+    <t>Max Health</t>
+  </si>
+  <si>
+    <t>AttrName_8</t>
+  </si>
+  <si>
+    <t>能量</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>DangQian</t>
+  </si>
+  <si>
+    <t>当前</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>ShengJiHou</t>
+  </si>
+  <si>
+    <t>升级后</t>
+  </si>
+  <si>
+    <t>After Upgrade</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>满级</t>
+  </si>
+  <si>
+    <t>Max Level</t>
+  </si>
+  <si>
+    <t>LevelFormat</t>
+  </si>
+  <si>
+    <r>
+      <t>{0}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级</t>
+    </r>
+  </si>
+  <si>
+    <t>Lv.{0}</t>
   </si>
 </sst>
 </file>
@@ -2491,10 +2674,24 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2505,6 +2702,23 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFE394DC"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2656,6 +2870,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2961,166 +3181,174 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3504,10 +3732,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C308"/>
+  <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="C306" workbookViewId="0">
+      <selection activeCell="C321" sqref="C310:C321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3516,25 +3744,25 @@
     <col min="2" max="3" width="255.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3598,788 +3826,788 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
         <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
         <v>50</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>56</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" ht="215.25" spans="1:3">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" ht="215.25" spans="1:3">
+      <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="C23" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
         <v>74</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>80</v>
-      </c>
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
         <v>86</v>
-      </c>
-      <c r="B30" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
         <v>98</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
         <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
         <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
         <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
         <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
         <v>119</v>
-      </c>
-      <c r="B41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" t="s">
         <v>122</v>
-      </c>
-      <c r="B42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
         <v>125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
         <v>128</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
         <v>131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
-      </c>
-      <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
         <v>138</v>
       </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="s">
         <v>140</v>
       </c>
-      <c r="B49" t="s">
-        <v>141</v>
-      </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
         <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C50" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
         <v>145</v>
       </c>
-      <c r="B51" t="s">
-        <v>146</v>
-      </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
         <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" t="s">
         <v>151</v>
-      </c>
-      <c r="B53" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
         <v>154</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
         <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
         <v>160</v>
-      </c>
-      <c r="B56" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B58" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" t="s">
         <v>166</v>
-      </c>
-      <c r="B58" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
         <v>169</v>
-      </c>
-      <c r="B59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C59" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
         <v>172</v>
-      </c>
-      <c r="B60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>173</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
         <v>175</v>
-      </c>
-      <c r="B61" t="s">
-        <v>176</v>
-      </c>
-      <c r="C61" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
         <v>178</v>
-      </c>
-      <c r="B62" t="s">
-        <v>179</v>
-      </c>
-      <c r="C62" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
         <v>181</v>
-      </c>
-      <c r="B63" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" t="s">
         <v>183</v>
-      </c>
-      <c r="B64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C64" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
         <v>186</v>
-      </c>
-      <c r="B65" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
         <v>189</v>
-      </c>
-      <c r="B66" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
         <v>192</v>
-      </c>
-      <c r="B67" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" t="s">
         <v>195</v>
-      </c>
-      <c r="B68" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" t="s">
         <v>198</v>
-      </c>
-      <c r="B69" t="s">
-        <v>199</v>
-      </c>
-      <c r="C69" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" t="s">
         <v>201</v>
-      </c>
-      <c r="B70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
         <v>204</v>
-      </c>
-      <c r="B71" t="s">
-        <v>205</v>
-      </c>
-      <c r="C71" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" t="s">
         <v>207</v>
-      </c>
-      <c r="B72" t="s">
-        <v>208</v>
-      </c>
-      <c r="C72" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>208</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" t="s">
         <v>210</v>
-      </c>
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
         <v>213</v>
-      </c>
-      <c r="B74" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" t="s">
         <v>216</v>
-      </c>
-      <c r="B75" t="s">
-        <v>217</v>
-      </c>
-      <c r="C75" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" t="s">
         <v>219</v>
-      </c>
-      <c r="B76" t="s">
-        <v>220</v>
-      </c>
-      <c r="C76" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" t="s">
         <v>222</v>
-      </c>
-      <c r="B77" t="s">
-        <v>223</v>
-      </c>
-      <c r="C77" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" t="s">
         <v>225</v>
-      </c>
-      <c r="B78" t="s">
-        <v>226</v>
-      </c>
-      <c r="C78" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
         <v>228</v>
@@ -4387,376 +4615,376 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" t="s">
         <v>230</v>
       </c>
-      <c r="B80" t="s">
-        <v>231</v>
-      </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>231</v>
+      </c>
+      <c r="B81" t="s">
         <v>232</v>
       </c>
-      <c r="B81" t="s">
-        <v>233</v>
-      </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>233</v>
+      </c>
+      <c r="B82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" t="s">
         <v>235</v>
-      </c>
-      <c r="B82" t="s">
-        <v>236</v>
-      </c>
-      <c r="C82" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" t="s">
         <v>238</v>
       </c>
-      <c r="B83" t="s">
+    </row>
+    <row r="84" ht="28.5" spans="1:3">
+      <c r="A84" t="s">
         <v>239</v>
       </c>
-      <c r="C83" t="s">
+      <c r="B84" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+      <c r="C84" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B84" t="s">
-        <v>242</v>
-      </c>
-      <c r="C84" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
         <v>244</v>
-      </c>
-      <c r="B85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C85" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>245</v>
+      </c>
+      <c r="B86" t="s">
+        <v>246</v>
+      </c>
+      <c r="C86" t="s">
         <v>247</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>248</v>
+      </c>
+      <c r="B87" t="s">
+        <v>249</v>
+      </c>
+      <c r="C87" t="s">
         <v>250</v>
-      </c>
-      <c r="B87" t="s">
-        <v>251</v>
-      </c>
-      <c r="C87" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="B88" t="s">
-        <v>254</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C89" t="s">
         <v>256</v>
-      </c>
-      <c r="B89" t="s">
-        <v>257</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="B90" t="s">
-        <v>260</v>
-      </c>
-      <c r="C90" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" t="s">
         <v>262</v>
-      </c>
-      <c r="B91" t="s">
-        <v>263</v>
-      </c>
-      <c r="C91" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" t="s">
         <v>265</v>
-      </c>
-      <c r="B92" t="s">
-        <v>266</v>
-      </c>
-      <c r="C92" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C93" t="s">
         <v>268</v>
-      </c>
-      <c r="B93" t="s">
-        <v>269</v>
-      </c>
-      <c r="C93" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" t="s">
+        <v>270</v>
+      </c>
+      <c r="C94" t="s">
         <v>271</v>
-      </c>
-      <c r="B94" t="s">
-        <v>272</v>
-      </c>
-      <c r="C94" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>272</v>
+      </c>
+      <c r="B95" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" t="s">
         <v>274</v>
-      </c>
-      <c r="B95" t="s">
-        <v>275</v>
-      </c>
-      <c r="C95" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" t="s">
         <v>277</v>
-      </c>
-      <c r="B96" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" t="s">
+        <v>279</v>
+      </c>
+      <c r="C97" t="s">
         <v>280</v>
-      </c>
-      <c r="B97" t="s">
-        <v>281</v>
-      </c>
-      <c r="C97" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" t="s">
         <v>283</v>
-      </c>
-      <c r="B98" t="s">
-        <v>284</v>
-      </c>
-      <c r="C98" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>284</v>
+      </c>
+      <c r="B99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" t="s">
         <v>286</v>
-      </c>
-      <c r="B99" t="s">
-        <v>287</v>
-      </c>
-      <c r="C99" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>287</v>
+      </c>
+      <c r="B100" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" t="s">
         <v>289</v>
-      </c>
-      <c r="B100" t="s">
-        <v>290</v>
-      </c>
-      <c r="C100" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>290</v>
+      </c>
+      <c r="B101" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" t="s">
         <v>292</v>
-      </c>
-      <c r="B101" t="s">
-        <v>293</v>
-      </c>
-      <c r="C101" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
+        <v>293</v>
+      </c>
+      <c r="B102" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" t="s">
         <v>295</v>
-      </c>
-      <c r="B102" t="s">
-        <v>296</v>
-      </c>
-      <c r="C102" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" t="s">
         <v>298</v>
-      </c>
-      <c r="B103" t="s">
-        <v>299</v>
-      </c>
-      <c r="C103" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>299</v>
+      </c>
+      <c r="B104" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" t="s">
         <v>301</v>
-      </c>
-      <c r="B104" t="s">
-        <v>302</v>
-      </c>
-      <c r="C104" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105" t="s">
         <v>304</v>
       </c>
-      <c r="B105" t="s">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>305</v>
       </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="106" ht="28.5" spans="1:3">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
         <v>307</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" t="s">
         <v>310</v>
       </c>
-      <c r="B107" t="s">
+    </row>
+    <row r="108" ht="28.5" spans="1:3">
+      <c r="A108" t="s">
         <v>311</v>
       </c>
-      <c r="C107" t="s">
+      <c r="B108" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+      <c r="C108" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B108" t="s">
-        <v>314</v>
-      </c>
-      <c r="C108" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>314</v>
+      </c>
+      <c r="B109" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" t="s">
         <v>316</v>
-      </c>
-      <c r="B109" t="s">
-        <v>317</v>
-      </c>
-      <c r="C109" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>317</v>
+      </c>
+      <c r="B110" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" t="s">
         <v>319</v>
-      </c>
-      <c r="B110" t="s">
-        <v>320</v>
-      </c>
-      <c r="C110" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>320</v>
+      </c>
+      <c r="B111" t="s">
+        <v>321</v>
+      </c>
+      <c r="C111" t="s">
         <v>322</v>
-      </c>
-      <c r="B111" t="s">
-        <v>323</v>
-      </c>
-      <c r="C111" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
+        <v>323</v>
+      </c>
+      <c r="B112" t="s">
+        <v>324</v>
+      </c>
+      <c r="C112" t="s">
         <v>325</v>
-      </c>
-      <c r="B112" t="s">
-        <v>326</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>326</v>
+      </c>
+      <c r="B113" t="s">
+        <v>327</v>
+      </c>
+      <c r="C113" t="s">
         <v>328</v>
-      </c>
-      <c r="B113" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4766,7 +4994,7 @@
       <c r="B114" t="s">
         <v>330</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="6" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4788,7 +5016,7 @@
       <c r="B116" t="s">
         <v>336</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="6" t="s">
         <v>337</v>
       </c>
     </row>
@@ -4804,2033 +5032,2254 @@
       </c>
     </row>
     <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>341</v>
+      </c>
       <c r="B118" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B119" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C119" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>347</v>
+      </c>
       <c r="B120" t="s">
-        <v>345</v>
+        <v>348</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B121" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C121" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>353</v>
+      </c>
       <c r="B122" t="s">
-        <v>349</v>
+        <v>354</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C123" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>359</v>
+      </c>
       <c r="B124" t="s">
-        <v>353</v>
+        <v>360</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B125" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C125" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>365</v>
+      </c>
       <c r="B126" t="s">
-        <v>357</v>
+        <v>366</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B127" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="C127" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>371</v>
+      </c>
       <c r="B128" t="s">
-        <v>361</v>
+        <v>372</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>377</v>
+      </c>
       <c r="B130" t="s">
-        <v>365</v>
+        <v>378</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="B131" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>383</v>
+      </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>384</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="B133" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
       <c r="C133" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>389</v>
+      </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>390</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="B135" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="C135" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>395</v>
+      </c>
       <c r="B136" t="s">
-        <v>377</v>
+        <v>396</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="B137" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C137" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>401</v>
+      </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>402</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B139" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C139" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B140" t="s">
-        <v>386</v>
-      </c>
-      <c r="C140" t="s">
-        <v>387</v>
+        <v>408</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B141" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B142" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C142" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="B143" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="C143" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="B145" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="C145" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B146" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C146" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="C147" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>431</v>
+      </c>
       <c r="B148" t="s">
-        <v>409</v>
+        <v>432</v>
+      </c>
+      <c r="C148" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="B149" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="C149" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>437</v>
+      </c>
       <c r="B150" t="s">
-        <v>413</v>
+        <v>438</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="B151" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="C151" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B152" t="s">
-        <v>418</v>
-      </c>
-      <c r="C152" t="s">
-        <v>419</v>
+        <v>444</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="B153" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="C153" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="B154" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="C154" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B155" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C155" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="B156" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="C156" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B157" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C157" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="B158" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="C158" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="B159" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="C159" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="B160" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C160" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="B161" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="C161" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="B162" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="C162" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B163" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C163" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="B164" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="C164" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B165" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
       <c r="C165" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="B166" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="C166" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="B167" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="C167" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="B168" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="C168" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B169" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="C169" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="B170" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="C170" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="B171" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="C171" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="B172" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="C172" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>479</v>
+        <v>506</v>
       </c>
       <c r="B173" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C173" t="s">
-        <v>481</v>
+        <v>508</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>482</v>
+        <v>509</v>
       </c>
       <c r="B174" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="C174" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="B175" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="C175" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="B176" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="C176" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="B177" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="C177" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="B178" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="C178" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="B179" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="C179" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="B180" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="C180" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="B181" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="C181" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B182" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="C182" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="B183" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="C183" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="B184" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="C184" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
       <c r="B185" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="C185" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="B186" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="C186" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="B187" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="C187" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="C188" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="B189" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="C189" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="B190" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="C190" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="B191" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="C191" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="B192" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C192" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="B193" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="C193" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
       <c r="B194" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="C194" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="C195" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="B196" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="C196" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="B197" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="C197" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="B198" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C198" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="B199" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="C199" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="B200" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="C200" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="B201" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C201" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="B202" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C202" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="B203" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C203" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="B204" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="C204" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="B205" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="C205" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="B206" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="C206" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="B207" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="C207" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="B208" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="C208" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="B209" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C209" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="B210" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C210" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="B211" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="C211" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="B212" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C212" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B213" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C213" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="B214" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="C214" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B215" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C215" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="B216" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="C216" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B217" t="s">
-        <v>454</v>
+        <v>638</v>
       </c>
       <c r="C217" t="s">
-        <v>455</v>
+        <v>639</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="B218" t="s">
-        <v>457</v>
+        <v>641</v>
       </c>
       <c r="C218" t="s">
-        <v>458</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>613</v>
+        <v>643</v>
       </c>
       <c r="B219" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="C219" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>614</v>
+        <v>644</v>
       </c>
       <c r="B220" t="s">
-        <v>287</v>
+        <v>489</v>
       </c>
       <c r="C220" t="s">
-        <v>615</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>616</v>
+        <v>645</v>
       </c>
       <c r="B221" t="s">
-        <v>311</v>
+        <v>507</v>
       </c>
       <c r="C221" t="s">
-        <v>617</v>
+        <v>508</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
       <c r="B222" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C222" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
       <c r="B223" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="C223" t="s">
-        <v>267</v>
+        <v>649</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>621</v>
+        <v>650</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="C224" t="s">
-        <v>273</v>
+        <v>651</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>622</v>
+        <v>652</v>
       </c>
       <c r="B225" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C225" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C226" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>625</v>
+        <v>654</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C227" t="s">
-        <v>279</v>
+        <v>655</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>626</v>
+        <v>656</v>
       </c>
       <c r="B228" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C228" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="B229" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C229" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>628</v>
+        <v>658</v>
       </c>
       <c r="B230" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C230" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="B231" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C231" t="s">
-        <v>630</v>
+        <v>289</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>631</v>
+        <v>660</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C232" t="s">
-        <v>632</v>
+        <v>286</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
       <c r="B233" t="s">
-        <v>634</v>
+        <v>297</v>
       </c>
       <c r="C233" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="B234" t="s">
-        <v>637</v>
+        <v>300</v>
       </c>
       <c r="C234" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
       <c r="B235" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="C235" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B236" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="C236" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>645</v>
+        <v>671</v>
       </c>
       <c r="B237" t="s">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="C237" t="s">
-        <v>647</v>
+        <v>673</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="B238" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="C238" t="s">
-        <v>650</v>
+        <v>676</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>651</v>
+        <v>677</v>
       </c>
       <c r="B239" t="s">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="C239" t="s">
-        <v>653</v>
+        <v>679</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>654</v>
+        <v>680</v>
       </c>
       <c r="B240" t="s">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="C240" t="s">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="B241" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="C241" t="s">
-        <v>659</v>
+        <v>685</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="B242" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="C242" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="B243" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="C243" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="B244" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="C244" t="s">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="B245" t="s">
-        <v>670</v>
+        <v>696</v>
       </c>
       <c r="C245" t="s">
-        <v>671</v>
+        <v>697</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>672</v>
+        <v>698</v>
       </c>
       <c r="B246" t="s">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="C246" t="s">
-        <v>674</v>
+        <v>700</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="B247" t="s">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="C247" t="s">
-        <v>677</v>
+        <v>703</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="B248" t="s">
-        <v>679</v>
+        <v>705</v>
       </c>
       <c r="C248" t="s">
-        <v>680</v>
+        <v>706</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>681</v>
+        <v>707</v>
       </c>
       <c r="B249" t="s">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="C249" t="s">
-        <v>683</v>
+        <v>709</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B250" t="s">
-        <v>685</v>
+        <v>711</v>
       </c>
       <c r="C250" t="s">
-        <v>686</v>
+        <v>712</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>687</v>
+        <v>713</v>
       </c>
       <c r="B251" t="s">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="C251" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B252" t="s">
-        <v>691</v>
+        <v>717</v>
       </c>
       <c r="C252" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>693</v>
+        <v>719</v>
       </c>
       <c r="B253" t="s">
-        <v>519</v>
+        <v>720</v>
       </c>
       <c r="C253" t="s">
-        <v>520</v>
+        <v>721</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="B254" t="s">
-        <v>522</v>
+        <v>723</v>
       </c>
       <c r="C254" t="s">
-        <v>523</v>
+        <v>724</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="B255" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="C255" t="s">
-        <v>696</v>
+        <v>552</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="B256" t="s">
-        <v>287</v>
+        <v>554</v>
       </c>
       <c r="C256" t="s">
-        <v>615</v>
+        <v>555</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="B257" t="s">
-        <v>311</v>
+        <v>557</v>
       </c>
       <c r="C257" t="s">
-        <v>617</v>
+        <v>728</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="B258" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C258" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="B259" t="s">
-        <v>528</v>
+        <v>315</v>
       </c>
       <c r="C259" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>702</v>
+        <v>731</v>
       </c>
       <c r="B260" t="s">
-        <v>531</v>
+        <v>318</v>
       </c>
       <c r="C260" t="s">
-        <v>532</v>
+        <v>651</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>703</v>
+        <v>732</v>
       </c>
       <c r="B261" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="C261" t="s">
-        <v>535</v>
+        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="B262" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C262" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="B263" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="C263" t="s">
-        <v>706</v>
+        <v>567</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>707</v>
+        <v>736</v>
       </c>
       <c r="B264" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="C264" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>708</v>
+        <v>737</v>
       </c>
       <c r="B265" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="C265" t="s">
-        <v>547</v>
+        <v>738</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="B266" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="C266" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="B267" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="C267" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="B268" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C268" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="B269" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="C269" t="s">
-        <v>713</v>
+        <v>585</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>714</v>
+        <v>743</v>
       </c>
       <c r="B270" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="C270" t="s">
-        <v>715</v>
+        <v>588</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="B271" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="C271" t="s">
-        <v>565</v>
+        <v>745</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>717</v>
+        <v>746</v>
       </c>
       <c r="B272" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="C272" t="s">
-        <v>568</v>
+        <v>747</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="B273" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="C273" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="B274" t="s">
-        <v>266</v>
+        <v>599</v>
       </c>
       <c r="C274" t="s">
-        <v>267</v>
+        <v>600</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="B275" t="s">
-        <v>272</v>
+        <v>602</v>
       </c>
       <c r="C275" t="s">
-        <v>273</v>
+        <v>603</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="B276" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C276" t="s">
-        <v>623</v>
+        <v>271</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C277" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="B278" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C278" t="s">
-        <v>279</v>
+        <v>655</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="B279" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C279" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="B280" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C280" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="B281" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="C281" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="B282" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C282" t="s">
-        <v>630</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
       <c r="B283" t="s">
-        <v>573</v>
+        <v>285</v>
       </c>
       <c r="C283" t="s">
-        <v>574</v>
+        <v>286</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="B284" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C284" t="s">
-        <v>632</v>
+        <v>662</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="B285" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="C285" t="s">
-        <v>731</v>
+        <v>606</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="B286" t="s">
-        <v>579</v>
+        <v>300</v>
       </c>
       <c r="C286" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="B287" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="C287" t="s">
-        <v>583</v>
+        <v>763</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="B288" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="C288" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="B289" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="C289" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>736</v>
+        <v>766</v>
       </c>
       <c r="B290" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C290" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>737</v>
+        <v>767</v>
       </c>
       <c r="B291" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="C291" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>738</v>
+        <v>768</v>
       </c>
       <c r="B292" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="C292" t="s">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>739</v>
+        <v>769</v>
       </c>
       <c r="B293" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C293" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>740</v>
+        <v>770</v>
       </c>
       <c r="B294" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="C294" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>741</v>
+        <v>771</v>
       </c>
       <c r="B295" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C295" t="s">
-        <v>742</v>
+        <v>633</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="B296" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="C296" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="B297" t="s">
-        <v>745</v>
+        <v>638</v>
       </c>
       <c r="C297" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="B298" t="s">
-        <v>748</v>
+        <v>641</v>
       </c>
       <c r="C298" t="s">
-        <v>749</v>
+        <v>642</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>750</v>
+        <v>776</v>
       </c>
       <c r="B299" t="s">
-        <v>751</v>
+        <v>777</v>
       </c>
       <c r="C299" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="B300" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="C300" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>756</v>
+        <v>782</v>
       </c>
       <c r="B301" t="s">
-        <v>757</v>
+        <v>783</v>
       </c>
       <c r="C301" t="s">
-        <v>758</v>
+        <v>784</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>759</v>
+        <v>785</v>
       </c>
       <c r="B302" t="s">
-        <v>760</v>
+        <v>786</v>
       </c>
       <c r="C302" t="s">
-        <v>761</v>
+        <v>787</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>762</v>
+        <v>788</v>
       </c>
       <c r="B303" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="C303" t="s">
-        <v>764</v>
+        <v>790</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>765</v>
+        <v>791</v>
       </c>
       <c r="B304" t="s">
-        <v>766</v>
+        <v>792</v>
       </c>
       <c r="C304" t="s">
-        <v>767</v>
+        <v>793</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>768</v>
+        <v>794</v>
       </c>
       <c r="B305" t="s">
-        <v>769</v>
+        <v>795</v>
       </c>
       <c r="C305" t="s">
-        <v>770</v>
+        <v>796</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>771</v>
+        <v>797</v>
       </c>
       <c r="B306" t="s">
-        <v>772</v>
+        <v>798</v>
       </c>
       <c r="C306" t="s">
-        <v>773</v>
+        <v>799</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>774</v>
+        <v>800</v>
       </c>
       <c r="B307" t="s">
-        <v>775</v>
+        <v>801</v>
       </c>
       <c r="C307" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="308" ht="28.5" spans="1:3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>777</v>
+        <v>803</v>
       </c>
       <c r="B308" t="s">
-        <v>778</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>779</v>
+        <v>804</v>
+      </c>
+      <c r="C308" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>806</v>
+      </c>
+      <c r="B309" t="s">
+        <v>807</v>
+      </c>
+      <c r="C309" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B310" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="B311" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="C312" s="6" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="B313" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="C313" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B314" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="C314" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="C315" s="6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B316" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C317" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="C318" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="C319" s="6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B320" t="s">
+        <v>832</v>
+      </c>
+      <c r="C320" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" spans="1:3">
+      <c r="A321" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A151:C203 A149:C149 A139:C147 A137:C137 A135:C135 A131:C131 A133:C133 A129:C129 A127:C127 A125:C125 A123:C123 A121:C121 A119:C119 A117:C117 A107:C111 A113:C115 A87:C87 A89:C105 A1:C21 A22 A205:C224 A204:B204 A23:C85 A225:B225 A226:C226 A227:B228 A308:B308 A229:C307" numberStoredAsText="1"/>
+    <ignoredError sqref="A153:C205 A151:C151 A141:C149 A139:C139 A137:C137 A133:C133 A135:C135 A131:C131 A129:C129 A127:C127 A125:C125 A123:C123 A121:C121 A119:C119 B113:C113 A109:C112 A117:C117 B115:C115 A89:C89 A91:C107 A1:C7 A23 A207:C226 A206:B206 A24:C83 A227:B227 A228:C228 A229:B230 A231:C309 A9:C22 A85:C87" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -1338,7 +1338,7 @@
     <t>解锁后允许幼虫蜕变为&lt;color=#a0ff50&gt;枪虫&lt;/color&gt;</t>
   </si>
   <si>
-    <t>Unlocked to allow larvae to morph into &lt;color=#a0ff50&gt;Rifle Bug&lt;/color&gt;</t>
+    <t>Unlocked to allow larvae to morph into &lt;color=#a0ff50&gt; Rifle Bug&lt;/color&gt;</t>
   </si>
   <si>
     <t>ShengJiQiangBingGongJi</t>
@@ -2648,6 +2648,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
       <t>{0}</t>
     </r>
     <r>
@@ -3734,8 +3740,8 @@
   <sheetPr/>
   <dimension ref="A1:C321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C306" workbookViewId="0">
-      <selection activeCell="C321" sqref="C310:C321"/>
+    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -7279,7 +7285,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A153:C205 A151:C151 A141:C149 A139:C139 A137:C137 A133:C133 A135:C135 A131:C131 A129:C129 A127:C127 A125:C125 A123:C123 A121:C121 A119:C119 B113:C113 A109:C112 A117:C117 B115:C115 A89:C89 A91:C107 A1:C7 A23 A207:C226 A206:B206 A24:C83 A227:B227 A228:C228 A229:B230 A231:C309 A9:C22 A85:C87" numberStoredAsText="1"/>
+    <ignoredError sqref="A85:C87 A9:C22 A231:C309 A229:B230 A228:C228 A227:B227 A24:C83 A206:B206 A207:C226 A23 A1:C7 A91:C107 A89:C89 B115:C115 A117:C117 A109:C112 B113:C113 A119:C119 A121:C121 A123:C123 A125:C125 A127:C127 A129:C129 A131:C131 A135:C135 A133:C133 A137:C137 A139:C139 A141:C149 A151:C151 A153:C205" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="843">
   <si>
     <t>key</t>
   </si>
@@ -2668,6 +2668,24 @@
   </si>
   <si>
     <t>Lv.{0}</t>
+  </si>
+  <si>
+    <t>Mi</t>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Miao</t>
+  </si>
+  <si>
+    <t>秒</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -3332,7 +3350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3353,6 +3371,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3738,10 +3759,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C321"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -7281,11 +7302,33 @@
         <v>836</v>
       </c>
     </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>838</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="B323" t="s">
+        <v>841</v>
+      </c>
+      <c r="C323" t="s">
+        <v>842</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A85:C87 A9:C22 A231:C309 A229:B230 A228:C228 A227:B227 A24:C83 A206:B206 A207:C226 A23 A1:C7 A91:C107 A89:C89 B115:C115 A117:C117 A109:C112 B113:C113 A119:C119 A121:C121 A123:C123 A125:C125 A127:C127 A129:C129 A131:C131 A135:C135 A133:C133 A137:C137 A139:C139 A141:C149 A151:C151 A153:C205" numberStoredAsText="1"/>
+    <ignoredError sqref="A153:C205 A151:C151 A141:C149 A139:C139 A137:C137 A133:C133 A135:C135 A131:C131 A129:C129 A127:C127 A125:C125 A123:C123 A121:C121 A119:C119 B113:C113 A109:C112 A117:C117 B115:C115 A89:C89 A91:C107 A1:C7 A23 A207:C226 A206:B206 A24:C83 A227:B227 A228:C228 A229:B230 A231:C309 A9:C22 A85:C87" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/assets/翻译/en-US.xlsx
+++ b/assets/翻译/en-US.xlsx
@@ -203,7 +203,8 @@
     <t>请输入昵称（随便什么都可以）</t>
   </si>
   <si>
-    <t>Please enter a nickname (anything is acceptable).</t>
+    <t>Please enter a nickname.
+(anything is acceptable)</t>
   </si>
   <si>
     <t>SceneLoaded</t>
@@ -3354,6 +3355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3371,9 +3375,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3761,8 +3762,8 @@
   <sheetPr/>
   <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -3980,14 +3981,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" ht="28.5" spans="1:3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4017,10 +4018,10 @@
       <c r="A23" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4688,10 +4689,10 @@
       <c r="A84" t="s">
         <v>239</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="5" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4732,10 +4733,10 @@
       <c r="A88" t="s">
         <v>251</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4757,7 +4758,7 @@
       <c r="B90" t="s">
         <v>258</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="6" t="s">
         <v>259</v>
       </c>
     </row>
@@ -4952,10 +4953,10 @@
       <c r="A108" t="s">
         <v>311</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="5" t="s">
         <v>313</v>
       </c>
     </row>
@@ -5021,7 +5022,7 @@
       <c r="B114" t="s">
         <v>330</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="7" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5043,7 +5044,7 @@
       <c r="B116" t="s">
         <v>336</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="7" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5065,7 +5066,7 @@
       <c r="B118" t="s">
         <v>342</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="6" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5087,7 +5088,7 @@
       <c r="B120" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="6" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5109,7 +5110,7 @@
       <c r="B122" t="s">
         <v>354</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="6" t="s">
         <v>355</v>
       </c>
     </row>
@@ -5131,7 +5132,7 @@
       <c r="B124" t="s">
         <v>360</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="6" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5153,7 +5154,7 @@
       <c r="B126" t="s">
         <v>366</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="6" t="s">
         <v>367</v>
       </c>
     </row>
@@ -5175,7 +5176,7 @@
       <c r="B128" t="s">
         <v>372</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="7" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5197,7 +5198,7 @@
       <c r="B130" t="s">
         <v>378</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="7" t="s">
         <v>379</v>
       </c>
     </row>
@@ -5219,7 +5220,7 @@
       <c r="B132" t="s">
         <v>384</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="7" t="s">
         <v>385</v>
       </c>
     </row>
@@ -5241,7 +5242,7 @@
       <c r="B134" t="s">
         <v>390</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="7" t="s">
         <v>391</v>
       </c>
     </row>
@@ -5263,7 +5264,7 @@
       <c r="B136" t="s">
         <v>396</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="7" t="s">
         <v>397</v>
       </c>
     </row>
@@ -5285,7 +5286,7 @@
       <c r="B138" t="s">
         <v>402</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="7" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5307,7 +5308,7 @@
       <c r="B140" t="s">
         <v>408</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="7" t="s">
         <v>409</v>
       </c>
     </row>
@@ -5417,7 +5418,7 @@
       <c r="B150" t="s">
         <v>438</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="7" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5439,7 +5440,7 @@
       <c r="B152" t="s">
         <v>444</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="7" t="s">
         <v>445</v>
       </c>
     </row>
@@ -7171,150 +7172,150 @@
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="7" t="s">
+      <c r="A310" s="8" t="s">
         <v>809</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C310" s="6" t="s">
+      <c r="C310" s="7" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311" s="7" t="s">
+      <c r="A311" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="B311" s="8" t="s">
+      <c r="B311" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C311" s="6" t="s">
+      <c r="C311" s="7" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="7" t="s">
+      <c r="A312" s="8" t="s">
         <v>811</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="C312" s="6" t="s">
+      <c r="C312" s="7" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313" s="7" t="s">
+      <c r="A313" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="B313" s="8" t="s">
+      <c r="B313" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C313" s="6" t="s">
+      <c r="C313" s="7" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314" s="7" t="s">
+      <c r="A314" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="B314" s="9" t="s">
         <v>816</v>
       </c>
-      <c r="C314" s="6" t="s">
+      <c r="C314" s="7" t="s">
         <v>817</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="7" t="s">
+      <c r="A315" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="B315" s="8" t="s">
+      <c r="B315" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C315" s="6" t="s">
+      <c r="C315" s="7" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316" s="7" t="s">
+      <c r="A316" s="8" t="s">
         <v>819</v>
       </c>
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="C316" s="6" t="s">
+      <c r="C316" s="7" t="s">
         <v>821</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317" s="7" t="s">
+      <c r="A317" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="B317" s="8" t="s">
+      <c r="B317" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="C317" s="6" t="s">
+      <c r="C317" s="7" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318" s="7" t="s">
+      <c r="A318" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" s="7" t="s">
         <v>827</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319" s="7" t="s">
+      <c r="A319" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="9" t="s">
         <v>829</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C319" s="7" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="7" t="s">
+      <c r="A320" s="8" t="s">
         <v>831</v>
       </c>
       <c r="B320" t="s">
         <v>832</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" s="7" t="s">
         <v>833</v>
       </c>
     </row>
     <row r="321" s="2" customFormat="1" spans="1:3">
-      <c r="A321" s="7" t="s">
+      <c r="A321" s="8" t="s">
         <v>834</v>
       </c>
-      <c r="B321" s="9" t="s">
+      <c r="B321" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C321" s="7" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322" s="10" t="s">
+      <c r="A322" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="B322" s="8" t="s">
+      <c r="B322" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="C322" s="8" t="s">
+      <c r="C322" s="9" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="10" t="s">
+      <c r="A323" s="8" t="s">
         <v>840</v>
       </c>
       <c r="B323" t="s">
@@ -7328,7 +7329,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A153:C205 A151:C151 A141:C149 A139:C139 A137:C137 A133:C133 A135:C135 A131:C131 A129:C129 A127:C127 A125:C125 A123:C123 A121:C121 A119:C119 B113:C113 A109:C112 A117:C117 B115:C115 A89:C89 A91:C107 A1:C7 A23 A207:C226 A206:B206 A24:C83 A227:B227 A228:C228 A229:B230 A231:C309 A9:C22 A85:C87" numberStoredAsText="1"/>
+    <ignoredError sqref="A85:C87 A9:C19 A20:B20 A21:C22 A231:C309 A229:B230 A228:C228 A227:B227 A24:C83 A206:B206 A207:C226 A23 A1:C7 A91:C107 A89:C89 B115:C115 A117:C117 A109:C112 B113:C113 A119:C119 A121:C121 A123:C123 A125:C125 A127:C127 A129:C129 A131:C131 A135:C135 A133:C133 A137:C137 A139:C139 A141:C149 A151:C151 A153:C205" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>